--- a/elmundo.xlsx
+++ b/elmundo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2326,67 +2326,42 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.elmundo.es/cultura/musica/2023/04/21/64411816e4d4d8104f8b4579.html</t>
+          <t>https://www.elmundo.es/madrid/2023/04/21/6442784b21efa0f26b8b45c0.html</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Guaynaa: "El dinero no necesariamente te cambia; la fama, sí" | ENTREVISTA
-Al cantante puertorriqueño le va mejor que nunca. Pese a ello, habla de parar momentáneamente dentro de unos años: "Los seres humanos somos esclavos del tiempo"
-A Jean Carlos Santiago Pérez (Puerto Rico, 1992) todo el mundo le conoce como Guaynaa. Mejor dicho: ahora se le conoce. Hace medio año, muchos en España ni de lejos sabían situarlo Pero su boda viral con Lele Pons, celebrada a principios del mes de marzo y que contó con invitados como Paris Hilton, Chayanne o Aitana, le puso en el mapa de público y medios.
-Un impacto positivo que ha dado un empujoncito más a esa carrera que empezó hace cuatro años con la publicación de Rebota, una canción de letra bastante cachonda que acumula más de 500 millones de reproducciones solo en YouTube.
-En las últimas semanas no ha parado de visitar programas de radio y televisión para hablar de Capitulaciones, su recién publicado disco junto a su ya esposa con el que buscan seguir haciendo crecer ese impacto. "Está teniendo muchos efectos positivos; a la gente le encanta el contenido en pareja", dice.
-La fecha elegida para la publicación del último single fue el 6 de abril y resulta algo peculiar, ¿en Puerto Rico no celebráis la Semana Santa? Sí. Mi educación fundamental fue en esas raíces aunque yo practico mi espiritualidad de muchas maneras. Ahora mismo no soy católico práctico, ni visito la Iglesia católica desde hace años, pero sí soy un ser espiritual. Con el yoga es como más toco esa parte. Eso sí, he hecho la comunión, la confirmación, el bautismo... Todo. ¿En qué te ayuda el practicar yoga? ¿Qué beneficios tiene para ti? La meditación tiene demasiados efectos positivos. Por ejemplo, ayer venía leyendo un libro en el avión sobre manipulación que decía que una de las formas más directas que tienen las personas de combatir la manipulación es meditando. Así te conviertes en un ser humano más humilde y más consciente de quién eres, no desarrollas una codependencia y eres más difícil de controlar. Pienso que meditar debe venir antes que estudiar español, Matemáticas o Ciencia. ¿Estudiaste Ingeniería química, verdad? ¿Llegaste a terminar la carrera? No, la música me sacó de la universidad. Fue una apuesta, un riesgo, pero valió la pena. Fíjate, yo tenía 25 años, soy el hermano menor, y mi papá me decía: "Mira, no sé qué vas a hacer con tu vida. Asalta un banco, embaraza a una mujer, pero haz algo". Y yo le respondía que no quería llegar a viejo sin saber qué hubiera pasado con mi carrera en la música. Pero sí, me gustaba mucho la ingeniería y no descarto algún día volver para terminar. ¿Lo que aprendiste en la carrera lo has podido aplicar de algún modo en la música? Sí, me ha servido bastante. Es una rama de la ingeniería que conlleva mucho pensamiento crítico. Para algunos artistas, por ejemplo, es tedioso leer un documento, pero yo siempre leo todo. Creo que lo que aprendí me ha ayudado a tener un control total sobre todo el contexto del producto final. ¿Cómo era tu vida antes de "saltar a la fama"? ¿Tuviste otros trabajos? Mira, yo trabajaba en un centro comercial vendiendo carcasas de móviles y teléfonos. Era el host, el recepcionista, de la tienda. Y cobraba a la semana 120 dólares que me gastaba en gasolina y en el almuerzo. No me daba para nada. Hasta que un día empecé a hacer eventos. Se pegó la primera canción y mi primer evento fue a 500 dólares el show. Y empecé a hacer dos o tres fiestas por semana. Entonces un día llamé a la gerente del establecimiento antes de entrar y le dije: "Mira, renuncio". ¿Echas mucho la vista atrás? Tu vida ha cambiado bastante en apenas tres o cuatro años. Siento que mi salto a la fama fue rápido, pero que he disfrutado del proceso. Mi primera canción se pegó e hice el remix, pero después no he colaborado con todos los grandes sino que ha sido un crecimiento gradual. Yo no brinqué de la discoteca a hacer un remix con Bad Bunny o Daddy Yankee porque después de eso no viene nada. ¿El dinero te cambia? Creo que no necesariamente. Es la fama la que te cambia. Pero no tiene por qué ser para mal sino que cambia tus prioridades y tu entorno. A lo mejor ahora diriges una empresa con 20 empleados que dependen de ti y sus hijos dependen de ellos. Tienes que tener otras prioridades y otras responsabilidades. Ese cambio de prioridades de forma continuada es lo que te va separando de la persona que eras. Te despegas porque no tienes las mismas costumbres. La manera de no deshumanizarte es continuar haciendo cosas cotidianas. Yo me voy a la barbería, pongo gasolina, voy a la compra o me siento a comer solo. Esas prácticas te hacen interactuar con la sociedad, mostrarle una sonrisa a alguien y recibir otra. Si alguien está cuatro años en su casa encerrado con una toallita blanca para poner los pies es cuando tú piensas "este es un alien". ¿Qué es lo más importante para ti a la hora de hacer música? ¿Entiendes la música solo como entretenimiento? Depende de lo que vayamos a hacer. A mí me encanta hacer música urbana. Me encanta, así mal jugar con el doble sentido. Yo soy el tipo más cafre que vas a escuchar en una canción, pero no digo una palabra mala. Por otra parte, cuando es música más elaborada y conlleva un pensamiento crítico, me gusta investigar para tener todo el contexto. Hay muchos colores, muchos tipos de creaciones. En tu país, Puerto Rico, los músicos habéis tenido un papel muy destacado en las protestas del pueblo logrando incluso cambios reales en el ámbito político. Sí, y creo que es nuestra responsabilidad como artistas el poner nuestras plataformas al servicio del pueblo siempre y cuando sea -según lo veo- por los derechos humanitarios. No necesariamente tienes que escoger un bando en política. Ni siquiera tienes que meterte en política. Pero cuando se tocan los derechos humanos de un pueblo hay que decir la verdad y llevar un mensaje al mundo. Exponer la situación y que no quede acumulada en una región. Yo creo que nosotros los artistas puertorriqueños tenemos eso muy claro y la gente sabe, y el gobierno sabe, que no pueden deslizarse mucho porque estamos pendientes. Te quería preguntar por tu mujer, Lele Pons. ¿Cómo está marcando vuestra relación tu vida profesional? Uf, yo te diría que está teniendo muchos efectos positivos en la imagen pública y para mí como profesional. Desde el punto de vista de crecimiento del proyecto es fantástico. Nosotros unimos nuestra carrera profesionalmente con Se te nota, nuestra primera canción juntos, y fue un palaco. Ha sido divertido unir estos caminos. Además, los dos conocemos a mucha gente y es muy cool. Ella puede traer a Paris Hilton, que yo la conocía por las latas de perfume que llegaban a Puerto Rico, o a Bella Thorne, que salía en Disney. Y yo traigo a todos los reguetoneros. Es muy divertido unir los dos mundos. Entonces eres totalmente consciente de que con vuestra relación el impacto de los dos se ha multiplicado internacionalmente. Sí, sí, sí. A la gente le encanta el contenido en pareja porque aunque ahora no estén en pareja en algún momento sí lo han estado y les ha pasado lo que mostramos. Creo que la clave de nuestro éxito es mostrar nuestra pareja con sus imperfecciones. La gente se puede sentir representada y nos ve como algo tangible. Además no hacemos vídeos hablando porque si hablas te limitas a las personas que entiendan español. ¿Cómo equilibrar la faceta profesional con la personal? Nosotros tenemos reglas, pero hay veces en que es complicado trazar la línea entre lo profesional y lo personal. A veces se te va la mano y otras te falta. Creo que lo importante es comunicar con vulnerabilidad. Tipo si me molesta algo, decirlo de forma vulnerable, no atacando. "Me sentí mal por esto y me da miedo perderte", por ejemplo. Tanto el emisor como el receptor tienen que vulnerabilizarse. Y más en las relaciones dentro del mundo del entretenimiento donde se mezcla mucho lo profesional y lo personal. ¿Dónde te ves en 10 años? Fíjate, me veo con mi hijo, mi hija, disfrutando de la crianza. Creo que nosotros, los seres humanos comunes y corrientes, somos esclavos y no nos realizamos. Somos esclavos porque pagamos taxes [impuestos] y vivimos en base al reloj. El día que puedas vencer al tiempo, que te levantes y digas "no voy a trabajar porque me la suda", será el día en que logres la abolición de tu esclavitud. Creo que tenemos ese derecho a disfrutar de nuestro tiempo y nuestro planeta igual que tenemos el derecho a la educación o a una alimentación sana. Yo de aquí a diez años quisiera ser ese ser humano que venció al tiempo. Quiero mucho a mi público, pero les diría "os adoro pero este año no hay disco porque mi hija se gradúa de la escuela elemental, va a cantar y voy a estar en primera fila con cartelones apoyándola".</t>
+          <t>Begoña Villacís se desata en la noche madrileña: "Madrid es la ciudad de los armarios vacíos"
+La candidata de CS a la alcaldía de Madrid mantuvo un encuentro el jueves por la noche en el local 'Marta, Cariño!' con personalidades LGTBI.
+Villacís en el Máster de EL MUNDO: "Vamos a vida o muerte. Ciudadanos tiene más sentido que nunca"
+La vicealcaldesa de Madrid, Begoña Villacís, quiso comprometerse con el colectivo LGTBI en una cita distendida el jueves por la noche en el local 'Marta, Cariño!'. "Anoche colgamos el cartel de "aforo completo" para celebrar la libertad. Madrid es la ciudad de los armarios vacíos y las calles llenas", ha escrito en sus redes sociales sobre la cita.
+La candidata de CS a la alcaldía prometió que la bandera del arcoíris volverá al Palacio de Cibeles este año durante la celebración del Orgullo. "No vamos a permitir dar ni un paso atrás, no vamos a permitir que nadie se lleve el orgullo del centro. Libertad es bajar los impuestos pero también poder darte la mano y casarte con quien quieras", apuntó Villacís.
+La promesa llega dos meses antes de la celebración del Orgullo, una cita marcada por la polémica en la capital en sus últimas ediciones al no colocar la bandera arcoíris en la fachada del Palacio de Telecomunicaciones al ampararse en una sentencia dictaminada por el Tribunal Supremo (TS) en 2020 en la que se argumenta que "no se puede ondear otra bandera que no sean las oficiales".
+Villacís promovió la colocación en la plaza de Pedro Zerolo, epicentro del barrio de Chueca, de una bandera arcoíris de forma permanente. Se trataba de una iniciativa de Diversa Global que CS llevó al Pleno del Ayuntamiento y salió adelante con el 'sí' de todos los grupos a excepción de Vox, que se abstuvo.
+En esta misma sesión se aprobó instalar un monumento a las víctimas de LGTBfobia en esta misma plaza. 'Madrid como ciudad abierta, plural, diversa y libre da la bienvenida a la comunidad LGTBI+', reza una placa en el pedestal del mástil.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.elmundo.es/cultura/musica/2023/04/21/64411816e4d4d8104f8b4579.html#ancla_comentarios</t>
+          <t>https://www.elmundo.es/album/yodona/moda/2023/04/21/6442477bfc6c83174e8b457c.html</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Guaynaa: "El dinero no necesariamente te cambia; la fama, sí" | ENTREVISTA
-Al cantante puertorriqueño le va mejor que nunca. Pese a ello, habla de parar momentáneamente dentro de unos años: "Los seres humanos somos esclavos del tiempo"
-A Jean Carlos Santiago Pérez (Puerto Rico, 1992) todo el mundo le conoce como Guaynaa. Mejor dicho: ahora se le conoce. Hace medio año, muchos en España ni de lejos sabían situarlo Pero su boda viral con Lele Pons, celebrada a principios del mes de marzo y que contó con invitados como Paris Hilton, Chayanne o Aitana, le puso en el mapa de público y medios.
-Un impacto positivo que ha dado un empujoncito más a esa carrera que empezó hace cuatro años con la publicación de Rebota, una canción de letra bastante cachonda que acumula más de 500 millones de reproducciones solo en YouTube.
-En las últimas semanas no ha parado de visitar programas de radio y televisión para hablar de Capitulaciones, su recién publicado disco junto a su ya esposa con el que buscan seguir haciendo crecer ese impacto. "Está teniendo muchos efectos positivos; a la gente le encanta el contenido en pareja", dice.
-La fecha elegida para la publicación del último single fue el 6 de abril y resulta algo peculiar, ¿en Puerto Rico no celebráis la Semana Santa? Sí. Mi educación fundamental fue en esas raíces aunque yo practico mi espiritualidad de muchas maneras. Ahora mismo no soy católico práctico, ni visito la Iglesia católica desde hace años, pero sí soy un ser espiritual. Con el yoga es como más toco esa parte. Eso sí, he hecho la comunión, la confirmación, el bautismo... Todo. ¿En qué te ayuda el practicar yoga? ¿Qué beneficios tiene para ti? La meditación tiene demasiados efectos positivos. Por ejemplo, ayer venía leyendo un libro en el avión sobre manipulación que decía que una de las formas más directas que tienen las personas de combatir la manipulación es meditando. Así te conviertes en un ser humano más humilde y más consciente de quién eres, no desarrollas una codependencia y eres más difícil de controlar. Pienso que meditar debe venir antes que estudiar español, Matemáticas o Ciencia. ¿Estudiaste Ingeniería química, verdad? ¿Llegaste a terminar la carrera? No, la música me sacó de la universidad. Fue una apuesta, un riesgo, pero valió la pena. Fíjate, yo tenía 25 años, soy el hermano menor, y mi papá me decía: "Mira, no sé qué vas a hacer con tu vida. Asalta un banco, embaraza a una mujer, pero haz algo". Y yo le respondía que no quería llegar a viejo sin saber qué hubiera pasado con mi carrera en la música. Pero sí, me gustaba mucho la ingeniería y no descarto algún día volver para terminar. ¿Lo que aprendiste en la carrera lo has podido aplicar de algún modo en la música? Sí, me ha servido bastante. Es una rama de la ingeniería que conlleva mucho pensamiento crítico. Para algunos artistas, por ejemplo, es tedioso leer un documento, pero yo siempre leo todo. Creo que lo que aprendí me ha ayudado a tener un control total sobre todo el contexto del producto final. ¿Cómo era tu vida antes de "saltar a la fama"? ¿Tuviste otros trabajos? Mira, yo trabajaba en un centro comercial vendiendo carcasas de móviles y teléfonos. Era el host, el recepcionista, de la tienda. Y cobraba a la semana 120 dólares que me gastaba en gasolina y en el almuerzo. No me daba para nada. Hasta que un día empecé a hacer eventos. Se pegó la primera canción y mi primer evento fue a 500 dólares el show. Y empecé a hacer dos o tres fiestas por semana. Entonces un día llamé a la gerente del establecimiento antes de entrar y le dije: "Mira, renuncio". ¿Echas mucho la vista atrás? Tu vida ha cambiado bastante en apenas tres o cuatro años. Siento que mi salto a la fama fue rápido, pero que he disfrutado del proceso. Mi primera canción se pegó e hice el remix, pero después no he colaborado con todos los grandes sino que ha sido un crecimiento gradual. Yo no brinqué de la discoteca a hacer un remix con Bad Bunny o Daddy Yankee porque después de eso no viene nada. ¿El dinero te cambia? Creo que no necesariamente. Es la fama la que te cambia. Pero no tiene por qué ser para mal sino que cambia tus prioridades y tu entorno. A lo mejor ahora diriges una empresa con 20 empleados que dependen de ti y sus hijos dependen de ellos. Tienes que tener otras prioridades y otras responsabilidades. Ese cambio de prioridades de forma continuada es lo que te va separando de la persona que eras. Te despegas porque no tienes las mismas costumbres. La manera de no deshumanizarte es continuar haciendo cosas cotidianas. Yo me voy a la barbería, pongo gasolina, voy a la compra o me siento a comer solo. Esas prácticas te hacen interactuar con la sociedad, mostrarle una sonrisa a alguien y recibir otra. Si alguien está cuatro años en su casa encerrado con una toallita blanca para poner los pies es cuando tú piensas "este es un alien". ¿Qué es lo más importante para ti a la hora de hacer música? ¿Entiendes la música solo como entretenimiento? Depende de lo que vayamos a hacer. A mí me encanta hacer música urbana. Me encanta, así mal jugar con el doble sentido. Yo soy el tipo más cafre que vas a escuchar en una canción, pero no digo una palabra mala. Por otra parte, cuando es música más elaborada y conlleva un pensamiento crítico, me gusta investigar para tener todo el contexto. Hay muchos colores, muchos tipos de creaciones. En tu país, Puerto Rico, los músicos habéis tenido un papel muy destacado en las protestas del pueblo logrando incluso cambios reales en el ámbito político. Sí, y creo que es nuestra responsabilidad como artistas el poner nuestras plataformas al servicio del pueblo siempre y cuando sea -según lo veo- por los derechos humanitarios. No necesariamente tienes que escoger un bando en política. Ni siquiera tienes que meterte en política. Pero cuando se tocan los derechos humanos de un pueblo hay que decir la verdad y llevar un mensaje al mundo. Exponer la situación y que no quede acumulada en una región. Yo creo que nosotros los artistas puertorriqueños tenemos eso muy claro y la gente sabe, y el gobierno sabe, que no pueden deslizarse mucho porque estamos pendientes. Te quería preguntar por tu mujer, Lele Pons. ¿Cómo está marcando vuestra relación tu vida profesional? Uf, yo te diría que está teniendo muchos efectos positivos en la imagen pública y para mí como profesional. Desde el punto de vista de crecimiento del proyecto es fantástico. Nosotros unimos nuestra carrera profesionalmente con Se te nota, nuestra primera canción juntos, y fue un palaco. Ha sido divertido unir estos caminos. Además, los dos conocemos a mucha gente y es muy cool. Ella puede traer a Paris Hilton, que yo la conocía por las latas de perfume que llegaban a Puerto Rico, o a Bella Thorne, que salía en Disney. Y yo traigo a todos los reguetoneros. Es muy divertido unir los dos mundos. Entonces eres totalmente consciente de que con vuestra relación el impacto de los dos se ha multiplicado internacionalmente. Sí, sí, sí. A la gente le encanta el contenido en pareja porque aunque ahora no estén en pareja en algún momento sí lo han estado y les ha pasado lo que mostramos. Creo que la clave de nuestro éxito es mostrar nuestra pareja con sus imperfecciones. La gente se puede sentir representada y nos ve como algo tangible. Además no hacemos vídeos hablando porque si hablas te limitas a las personas que entiendan español. ¿Cómo equilibrar la faceta profesional con la personal? Nosotros tenemos reglas, pero hay veces en que es complicado trazar la línea entre lo profesional y lo personal. A veces se te va la mano y otras te falta. Creo que lo importante es comunicar con vulnerabilidad. Tipo si me molesta algo, decirlo de forma vulnerable, no atacando. "Me sentí mal por esto y me da miedo perderte", por ejemplo. Tanto el emisor como el receptor tienen que vulnerabilizarse. Y más en las relaciones dentro del mundo del entretenimiento donde se mezcla mucho lo profesional y lo personal. ¿Dónde te ves en 10 años? Fíjate, me veo con mi hijo, mi hija, disfrutando de la crianza. Creo que nosotros, los seres humanos comunes y corrientes, somos esclavos y no nos realizamos. Somos esclavos porque pagamos taxes [impuestos] y vivimos en base al reloj. El día que puedas vencer al tiempo, que te levantes y digas "no voy a trabajar porque me la suda", será el día en que logres la abolición de tu esclavitud. Creo que tenemos ese derecho a disfrutar de nuestro tiempo y nuestro planeta igual que tenemos el derecho a la educación o a una alimentación sana. Yo de aquí a diez años quisiera ser ese ser humano que venció al tiempo. Quiero mucho a mi público, pero les diría "os adoro pero este año no hay disco porque mi hija se gradúa de la escuela elemental, va a cantar y voy a estar en primera fila con cartelones apoyándola".</t>
+          <t>Latin Music Awards 2023, de Rosanna Zanetti a Danna Paola, los looks más extravagantes que marcaron la noche de Karol G. Por: LUCÍA LOARCE
+Los Latin American Music Awards 2023, la mayor gala de la música popular latinoamericana de Estados Unidos, han tenido una protagonista indiscutible, la colombiana Karol G, que se ha llevado a casa ocho estatuillas, incluyendo el premio a Artista del Año. No ha sido la única estrella de la noche; también lo han sido David Bisbal, que acompañado de Rosanna Zannetti ha recibido el premio 'Pioneer' en reconocimiento a sus 20 años de carrera en una gala; Rosalía, que aunque contaba con ocho nominaciones solo se ha llevado el premio a Mejor Álbum Pop por 'Motomami', y los impresionantes looks de la noche, algunos tan extravagantes que resultan imposibles de definir. Estos son los elegidos de la alfombra roja de Las Vegas, los que sin duda pasarán al recuerdo. // Festival de Coachella: sujetadores, minishorts y transparencias protagonizan los looks más locos// Tamara Falcó y otras celebrities a las que se les fue la mano con el Photoshop // Rachel McAdams y otras famosas que no se depilan, y se enorgullecen de ello</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.elmundo.es/yodona/moda/2023/04/21/644248edfdddff7bb28b4580.html</t>
+          <t>https://www.elmundo.es/cultura/musica/2023/04/21/644248fbfc6c8359148b4580.html#ancla_comentarios</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>El éxito de Zara no lo vamos a venir a descubrir aquí. Sus ventas crecen sin parar, en tiendas y en el canal online. Por eso, no es raro ver una prenda, soñar cómo te queda, ir a por ella y... que no esté. Entrar en su web y... que tampoco esté. O que no haya tu talla.
-Y no hay nada como encapricharse de algo y que no lo podamos tener, para quererlo más todavía. Una empleada de Zara, Míriam Cava, ha publicado en TikTok un vídeo con trucos y la acogida ha sido tal, que ha añadido una segunda parte con algún consejo más. De hecho, la primera de sus entregas está camino de conseguir ya las 900.000 visualizaciones.
-Instagram
-Estos son los trucos virales e infalibles que aporta Míriam, quien se define en su bio de la red china como graduada en Derecho y modelo:
-1, Lunes y jueves, días de novedades. "Todos los lunes y jueves se reciben novedades en tienda y online", informa, por lo que si andas buscando algo, estos días son claves para ti.
-2. Las prendas se reponen todos los días. Es la clásica pregunta cuando llegas y no encuentras lo que buscas, sea una falta, vestido, pantalón, etc., o una talla concreta. Ella explica que se repone a diario, pero no de todo, claro.
-3. Usa la lupa. Si eres de las que entra en la web y compra online y buscas una prenda concreta, hay un truco con la lupa. Está en la parte superior y permite coger una foto donde alguien lleve esa prenda deseada y de la que desconozcas su referencia y el buscador se ocupa de localizarla. Algo así como la herramienta Lens de Google.
-4. Para buscar en modo tienda. En la web también se puede utilizar el modo tienda. En él, puedes poner una descripción o la referencia y la página te devuelve los resultados de en qué lugar de la tienda en cuestión se encuentra esta prenda. También puedes pedirla y que te llegue a una tienda en 120 minutos.
-5. ¿Colas en el probador? Si no te apetece estar esperando cargada con la ropa que quieres probarte hasta que te llegue el turno, puedes ahorrar tiempo y reservar un probador. Se puede hacer a través de la página web o de la aplicación móvil.
-Y por 'aclamación' popular, Míriam ha resuelto colgar otro vídeo con un par de trucos más y alguna curiosidad.
-6. ¿Cuáles son las mejores horas para ir a comprar? La dependienta de Zara lo tiene claro: las mejores horas son a primera y a última.
-7. Llamar por teléfono. En estos tiempos tan digitales, parece que llamar por teléfono es una excentricidad pero, ojo, es tan eficaz como siempre. Míriam recomienda hacerlo antes de ir a una tienda si estás buscando una cosa muy concreta. Aunque en la web diga que la prenda está, insiste en que es "orientativo", así que lo mejor es buscar el teléfono, dar la referencia e ir sobre seguro. Y si no, nos ahorrarnos el paseo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>https://www.elmundo.es/cultura/musica/2023/04/21/644248fbfc6c8359148b4580.html#ancla_comentarios</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
         <is>
           <t>El músico Iván Ferreiro ha cargado contra el tenista Rafa Nadal, asegurando que da un "ejemplo de mierda" para los niños al ir a jugar un partido "hecho polvo". En una entrevista publicada en 'Esquire', el músico aseguraba que el hecho de que el tenista acuda a un partido sin encontrarse bien físicamente es negativo para la sociedad y para los derechos laborales de los ciudadanos: "Hemos tardado muchos años en conseguir que cuando nos encontremos mal no tengamos que ir a trabajar para que este millonario, para tener una medalla, nos diga que fue con el pie roto".
 "Todo el mundo dice: ¡Qué buen ejemplo para los niños! Pues yo creo que es un ejemplo de mierda", sentencia, mientras hace hincapié en que "le toca los huevos, para mal". El músico hizo estas declaraciones al ser preguntado sobre la salud mental, un tema del que fue pionero en hablar abiertamente. Además, también carga contra el sector del deporte en general da un "ejemplo de mierda" y pone como ejemplo el hecho de que se haya jugado el mundial en Catar, donde "no se respetan los derechos humanos".
@@ -2395,13 +2370,13 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/uestudio/2023/04/14/64394f9fe4d4d8f72b8b45c4.html</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>El porcentaje de personas que emprenden alcanzaba el 5,5% en 2021, según el Informe GEM España 2021-2022. El programa de CaixaBank 'Nosotros' les dedica su nuevo capítulo, con el foco puesto en la importancia de contar con el apoyo financiero necesario para empezar un proyecto. Desde su creación, MicroBank ha financiado en España más de 8.000 millones de euros, en un total de 1.243.332 proyectos con impacto social.
 En este nuevo capítulo de 'Nosotros', el programa de CaixaBank en el que cabemos todos, los protagonistas cuentan sus experiencias personales, desde alguien muy joven que ha decidido empezar un proyecto tras completar sus estudios, hasta otra persona más experimentada que defiende que para arrancar un negocio "nunca es tarde si te rodeas de la gente adecuada".
@@ -2418,13 +2393,13 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/internacional/2023/04/19/6425665621efa01c1a8b45db.html</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Estatuas de la era comunista son desechadas fuera de un taller de vidrio en Jarkiv.
 Ciudadanos y gobiernos reivindican su autonomía y su identidad ante un régimen ruso que se resiste a perder su influencia
@@ -2433,13 +2408,13 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/internacional/2023/04/19/6425665621efa01c1a8b45db.html#ancla_comentarios</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Estatuas de la era comunista son desechadas fuera de un taller de vidrio en Jarkiv.
 Ciudadanos y gobiernos reivindican su autonomía y su identidad ante un régimen ruso que se resiste a perder su influencia
@@ -2448,10 +2423,23 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.elmundo.es/madrid/2023/04/18/643eda4cfdddff04508b45d6.html</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>GRAN MADRID ha tenido acceso a los planes municipales sobre el solar de La Guindalera. "Somos una pequeña islita", dice uno de los vecinos
+Son cerca de las 12 del mediodía en la Avenida de la Guindalera, justo enfrente de la gasolinera, y dos operarios se afanan por encajar una puerta metálica en el hueco donde acaban de retirar un pedazo de verja. «Por aquí van a entrar las máquinas, a</t>
+        </is>
+      </c>
+    </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.elmundo.es/madrid/2023/04/18/643eda4cfdddff04508b45d6.html</t>
+          <t>https://www.elmundo.es/madrid/2023/04/18/643eda4cfdddff04508b45d6.html#ancla_comentarios</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2464,23 +2452,10 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.elmundo.es/madrid/2023/04/18/643eda4cfdddff04508b45d6.html#ancla_comentarios</t>
+          <t>https://www.elmundo.es/papel/lideres/2023/04/19/64401171e4d4d84e0c8b45e0.html</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>GRAN MADRID ha tenido acceso a los planes municipales sobre el solar de La Guindalera. "Somos una pequeña islita", dice uno de los vecinos
-Son cerca de las 12 del mediodía en la Avenida de la Guindalera, justo enfrente de la gasolinera, y dos operarios se afanan por encajar una puerta metálica en el hueco donde acaban de retirar un pedazo de verja. «Por aquí van a entrar las máquinas, a</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>https://www.elmundo.es/papel/lideres/2023/04/19/64401171e4d4d84e0c8b45e0.html</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
         <is>
           <t>La psicología más puntera demuestra cómo la 'persuasión altruista' refuerza las comunidades y, al mismo tiempo, aumenta la alegría colectiva. "No valoramos el enorme impacto que puede tener un cumplido", dice Vanessa Bohns
 PREMIUM
@@ -2488,13 +2463,13 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/papel/lideres/2023/04/19/64401171e4d4d84e0c8b45e0.html#ancla_comentarios</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>La psicología más puntera demuestra cómo la 'persuasión altruista' refuerza las comunidades y, al mismo tiempo, aumenta la alegría colectiva. "No valoramos el enorme impacto que puede tener un cumplido", dice Vanessa Bohns
 PREMIUM
@@ -2502,13 +2477,13 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>https://cooking.elmundo.es/noticias/2023/04/12/dura-carne-pescado-fruta-verdura-nevera.html</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Mantener ciertos alimentos en frío es la clave para evitar problemas de salud. Según la OCU, una cuarta parte de las intoxicaciones e infecciones por alimentos se produce por una mala refrigeración de los mismos, por lo que es necesario extremar las precauciones a la hora de conservar la comida.
 Conocer la temperatura idónea. Los microorganismos crecen de forma mucho más lenta a temperaturas bajas. En el congelador, los alimentos deben estar por debajo de los -18º C. En la nevera se recomiendan poner las carnes y pescados en las zonas más frías, entre 1 y 4ºC. En los frigoríficos tradicionales, ese lugar es el estante de arriba, mientras que en los combi es la parte donde están los cajones para la fruta y la verdura (o justo encima).
@@ -2521,13 +2496,13 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2022/06/huevos-rellenos-de-atun-receta-tradicional.html</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Ha llegado el calor y con ello las receta de verano, hoy te presento una de las mejores a mi parecer, los huevos rellenos de atún y tomate.
 Cuando llega el verano nos entran ganas de comer recetas frescas y ligeras, como por ejemplo un delicioso gazpacho casero o un rico ajoblanco malagueño, entre otras muchas recetas de aperitivos y entrantes.
@@ -2554,21 +2529,21 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.elmundo.es/album/loc/famosos/2023/04/21/64423c7b21efa0720c8b4580.html</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+    </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.elmundo.es/album/loc/famosos/2023/04/21/64423c7b21efa0720c8b4580.html</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
           <t>https://www.elmundo.es/loc/2023/04/21/644272dafc6c83770c8b4579.html</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Su hija ha dado voz a la última obra escrita por Dragó, que entregó a la Consejería de Cultura días antes de morir
 En el último texto literario que Fernando Sánchez Dragó escribió antes de morir, el escritor dejó claros dos deseos: yacer con su padre, que desapareció durante la Guerra Civil, y que su casa de Castrilfrío (Soria) se convirtiera en un museo. Y es que Dragó aseguraba que en ella se puede encontrar una de las mayores colecciones privadas de libros, "acaso la mayor del mundo", con más de 100.000 títulos.
@@ -2579,13 +2554,13 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/ofertas-regalos/2023/04/20/64400288fc6c83d0118b458c.html</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Moda, tecnología, belleza, hogar, deporte... Sigue aquí las mejores ofertas del día en Amazon con descuentos de hasta el 70%
 Hoy, viernes 21 de abril, son muchos los chollos que puedes encontrar en Amazon. Una oportunidad para comprar a buen precio numerosos productos con descuentos que incluso alcanzan el 70%. Además, no olvides que el domingo 6 de mayo es el Día de la Madre, y aunque todavía quede tiempo, siempre es mejor no dejar el regalo para el último momento.
@@ -2805,377 +2780,385 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>http://videos.elmundo.es/v/0_alxi8ics-el-surrealista-video-de-ada-colau-felicitando-el-ramadan-en-un-bazar</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>El surrealista vídeo de Ada Colau felicitando el Ramadán en un bazar
+El Mundo - Coproducción La alcaldesa de Barcelona graba un vídeo con el dependiente de un bazar como compinche para felicitar el Ramadán a los musulmanes que viven en la ciudad. Apr 20, 2023 2:02:41 PM</t>
+        </is>
+      </c>
+    </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://videos.elmundo.es/v/0_alxi8ics-el-surrealista-video-de-ada-colau-felicitando-el-ramadan-en-un-bazar</t>
+          <t>http://videos.elmundo.es/v/0_k3s7vmdq-una-conductora-herida-leve-al-volcar-su-coche-en-pleno-distrito-de-usera</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>El surrealista vídeo de Ada Colau felicitando el Ramadán en un bazar
-El Mundo - Coproducción La alcaldesa de Barcelona graba un vídeo con el dependiente de un bazar como compinche para felicitar el Ramadán a los musulmanes que viven en la ciudad. Apr 20, 2023 2:02:41 PM</t>
+          <t>Una conductora herida leve al volcar su coche en pleno distrito de Usera
+EL MUNDO Una conductora de 60 años ha resultado herida leve este viernes al volcar su coche después de chocar con otro vehículo en el distrito madrileño de Usera, según ha informado Emergencias Madrid. El accidente se ha producido a primera hora de la mañana, sobre las 06:40 horas, en la confluencia entre las calles Simca y Solara. Apr 21, 2023 11:26:13 AM</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://videos.elmundo.es/v/0_k3s7vmdq-una-conductora-herida-leve-al-volcar-su-coche-en-pleno-distrito-de-usera</t>
+          <t>http://videos.elmundo.es/v/0_ljlxmkto-felix-enfermo-de-parkinson-me-di-cuenta-un-dia-de-que-era-capaz-de-correr-caminar-es-imposible</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
+        <is>
+          <t>Félix, enfermo de Parkinson: "Me di cuenta un día de que era capaz de correr, caminar es imposible"
+Atlas La enfermedad de Félix se hace visible en el momento en que deja de correr. Es entonces cuando le cuesta controlar cada movimiento. "Tengo Parkinson atípico pero me di cuenta un día de que era capaz de correr y, en cambio, caminar es imposible", nos cuenta. Necesita ayuda hasta para ponerse las zapatillas de deporte pero a la hora de hacer ejercicio su cuerpo indomable se vuelve capaz, incluso, de avanzar sin el apoyo de su hija. El neurólogo Alejandro Méndez explica que el circuito principal del cerebro que se ve afectado por el Parkinson es el de caminar pero si se accede a otro circuito distinto como es el de correr, los pacientes consiguen superar el bloqueo de movimientos. Hace más de 15 años Félix fue diagnosticado de un Parkinson para el que no son efectivas las terapias existentes aunque él no se rinde: "El ejercicio es fundamental para esta enfermedad". Por ello corre y durante esos minutos que dura la carrera logra no sentirse atrapado por la enfermedad. Apr 20, 2023 10:27:20 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://videos.elmundo.es/v/0_z5amosz4-juan-carlos-i-prosigue-el-entrenamiento-a-bordo-del-bribon-en-sanxenxo?uetv_pl=actualidad</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Juan Carlos I prosigue el entrenamiento a bordo del 'Bribón' en Sanxenxo
+EL MUNDO El rey emérito ha proseguido con el que es el segundo entrenamiento a bordo del 'Bribón' desde que llegó hace tres días a Sanxenxo (Pontevedra). La jornada ha arrancado este viernes más pronto que en la víspera, en concreto, a las 10:43, cuando se efectuó su entrada en el Real Club Náutico. Apr 21, 2023 1:00:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://videos.elmundo.es/v/0_k3s7vmdq-una-conductora-herida-leve-al-volcar-su-coche-en-pleno-distrito-de-usera?uetv_pl=actualidad</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>Una conductora herida leve al volcar su coche en pleno distrito de Usera
 EL MUNDO Una conductora de 60 años ha resultado herida leve este viernes al volcar su coche después de chocar con otro vehículo en el distrito madrileño de Usera, según ha informado Emergencias Madrid. El accidente se ha producido a primera hora de la mañana, sobre las 06:40 horas, en la confluencia entre las calles Simca y Solara. Apr 21, 2023 11:26:13 AM</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>http://videos.elmundo.es/v/0_ljlxmkto-felix-enfermo-de-parkinson-me-di-cuenta-un-dia-de-que-era-capaz-de-correr-caminar-es-imposible</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Félix, enfermo de Parkinson: "Me di cuenta un día de que era capaz de correr, caminar es imposible"
-Atlas La enfermedad de Félix se hace visible en el momento en que deja de correr. Es entonces cuando le cuesta controlar cada movimiento. "Tengo Parkinson atípico pero me di cuenta un día de que era capaz de correr y, en cambio, caminar es imposible", nos cuenta. Necesita ayuda hasta para ponerse las zapatillas de deporte pero a la hora de hacer ejercicio su cuerpo indomable se vuelve capaz, incluso, de avanzar sin el apoyo de su hija. El neurólogo Alejandro Méndez explica que el circuito principal del cerebro que se ve afectado por el Parkinson es el de caminar pero si se accede a otro circuito distinto como es el de correr, los pacientes consiguen superar el bloqueo de movimientos. Hace más de 15 años Félix fue diagnosticado de un Parkinson para el que no son efectivas las terapias existentes aunque él no se rinde: "El ejercicio es fundamental para esta enfermedad". Por ello corre y durante esos minutos que dura la carrera logra no sentirse atrapado por la enfermedad. Apr 20, 2023 10:27:20 AM</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>https://videos.elmundo.es/v/0_z5amosz4-juan-carlos-i-prosigue-el-entrenamiento-a-bordo-del-bribon-en-sanxenxo?uetv_pl=actualidad</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Juan Carlos I prosigue el entrenamiento a bordo del 'Bribón' en Sanxenxo
-EL MUNDO El rey emérito ha proseguido con el que es el segundo entrenamiento a bordo del 'Bribón' desde que llegó hace tres días a Sanxenxo (Pontevedra). La jornada ha arrancado este viernes más pronto que en la víspera, en concreto, a las 10:43, cuando se efectuó su entrada en el Real Club Náutico. Apr 21, 2023 1:00:49 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_k3s7vmdq-una-conductora-herida-leve-al-volcar-su-coche-en-pleno-distrito-de-usera?uetv_pl=actualidad</t>
+          <t>https://videos.elmundo.es/v/0_aqqkmfbh-el-actor-william-levy-si-un-hombre-hace-lo-que-me-hizo-mercedes-mila-va-preso?uetv_pl=actualidad</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Una conductora herida leve al volcar su coche en pleno distrito de Usera
-EL MUNDO Una conductora de 60 años ha resultado herida leve este viernes al volcar su coche después de chocar con otro vehículo en el distrito madrileño de Usera, según ha informado Emergencias Madrid. El accidente se ha producido a primera hora de la mañana, sobre las 06:40 horas, en la confluencia entre las calles Simca y Solara. Apr 21, 2023 11:26:13 AM</t>
+          <t>El actor William Levy: "Si un hombre hace lo que me hizo Mercedes Milá, va preso"
+elmundo.es El actor William Levy contesta a las declaraciones de Mercedes Milá en una entrevista con EL MUNDO. El intérprete que volvió locas a las mujeres españolas con su papel de Sebastián Vallejo en Café con Aroma de Mujer viene a España a presentar Montecristo, la nueva serie sobre el clásico literario de Alejandro Dumas que se estrena hoy en Movistar Plus+. William Levy no se ha convertido en una de esas estrellas encorsetadas que responde con palabras huecas y frases hechas para quedar bien en las entrevistas de promoción. William Levy se moja y eso, en estos tiempos que corren, es un tesoro. Apr 21, 2023 10:30:52 AM</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_aqqkmfbh-el-actor-william-levy-si-un-hombre-hace-lo-que-me-hizo-mercedes-mila-va-preso?uetv_pl=actualidad</t>
+          <t>https://videos.elmundo.es/v/0_wtefk5hj-incendio-en-un-tren-que-viajaba-rumbo-a-extremadura?uetv_pl=actualidad</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>El actor William Levy: "Si un hombre hace lo que me hizo Mercedes Milá, va preso"
-elmundo.es El actor William Levy contesta a las declaraciones de Mercedes Milá en una entrevista con EL MUNDO. El intérprete que volvió locas a las mujeres españolas con su papel de Sebastián Vallejo en Café con Aroma de Mujer viene a España a presentar Montecristo, la nueva serie sobre el clásico literario de Alejandro Dumas que se estrena hoy en Movistar Plus+. William Levy no se ha convertido en una de esas estrellas encorsetadas que responde con palabras huecas y frases hechas para quedar bien en las entrevistas de promoción. William Levy se moja y eso, en estos tiempos que corren, es un tesoro. Apr 21, 2023 10:30:52 AM</t>
+          <t>Incendio en un tren que viajaba rumbo a Extremadura
+EL MUNDO Grave incidente en un tren que partía de Madrid rumbo a Extremadura. El vehículo ha salido ardiendo justo en la estación de Leganés. La diputada del PP en el Congreso, Dolores Marcos, viajaba en uno de los vagones y ha compartido las imágenes a través de las redes sociales. Por su parte, la candidata del PP a la presidencia de Extremadura, María Guardiola, ha exigido responsabilidades al presidente del Gobierno, Pedro Sánchez Apr 20, 2023 9:50:03 PM</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_wtefk5hj-incendio-en-un-tren-que-viajaba-rumbo-a-extremadura?uetv_pl=actualidad</t>
+          <t>https://videos.elmundo.es/v/0_ofmlu4oi-el-real-madrid-responde-a-laporta-cual-fue-el-equipo-del-regimen?uetv_pl=deportes</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Incendio en un tren que viajaba rumbo a Extremadura
-EL MUNDO Grave incidente en un tren que partía de Madrid rumbo a Extremadura. El vehículo ha salido ardiendo justo en la estación de Leganés. La diputada del PP en el Congreso, Dolores Marcos, viajaba en uno de los vagones y ha compartido las imágenes a través de las redes sociales. Por su parte, la candidata del PP a la presidencia de Extremadura, María Guardiola, ha exigido responsabilidades al presidente del Gobierno, Pedro Sánchez Apr 20, 2023 9:50:03 PM</t>
+          <t>El Real Madrid responde a Laporta: ¿Cuál fue el equipo del régimen?
+Real Madrid Tv Tras las acusaciones del presidente, el conjunto blanco denuncia en su televisión las relaciones del Barça con la dictadura de Franco: "Fue salvado tres veces de la quiebra con tres recalificaciones por Franco". Apr 17, 2023 11:26:56 PM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_ofmlu4oi-el-real-madrid-responde-a-laporta-cual-fue-el-equipo-del-regimen?uetv_pl=deportes</t>
+          <t>https://videos.elmundo.es/v/0_35uw5elx-hace-trucos-con-la-bici-en-un-skatepark-creado-dentro-del-globo-aerostatico-mas-grande-del-mundo?uetv_pl=deportes</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>El Real Madrid responde a Laporta: ¿Cuál fue el equipo del régimen?
-Real Madrid Tv Tras las acusaciones del presidente, el conjunto blanco denuncia en su televisión las relaciones del Barça con la dictadura de Franco: "Fue salvado tres veces de la quiebra con tres recalificaciones por Franco". Apr 17, 2023 11:26:56 PM</t>
+          <t>Hace trucos con la bici en un skatepark creado dentro del globo aerostático más grande del mundo
+RED BULL MEDIA HOUSE Los límites no existen para el ciclista de BMX y atleta de Red Bull Kriss Kyle, quien ha logrado algo aparentemente imposible. Con un skatepark suspendido de uno de los globos aerostáticos más grandes del mundo, Kriss Kyle flota a más de 2.000 pies sobre el suelo, mostrando una variedad de trucos suspendido en el aire para su última película pionera de BMX. Apr 13, 2023 6:39:44 PM</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_35uw5elx-hace-trucos-con-la-bici-en-un-skatepark-creado-dentro-del-globo-aerostatico-mas-grande-del-mundo?uetv_pl=deportes</t>
+          <t>https://videos.elmundo.es/v/0_tmudr08s-ancelotti-valverde-tiene-cualidades-humanas-extraordinarias?uetv_pl=deportes</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Hace trucos con la bici en un skatepark creado dentro del globo aerostático más grande del mundo
-RED BULL MEDIA HOUSE Los límites no existen para el ciclista de BMX y atleta de Red Bull Kriss Kyle, quien ha logrado algo aparentemente imposible. Con un skatepark suspendido de uno de los globos aerostáticos más grandes del mundo, Kriss Kyle flota a más de 2.000 pies sobre el suelo, mostrando una variedad de trucos suspendido en el aire para su última película pionera de BMX. Apr 13, 2023 6:39:44 PM</t>
+          <t>Ancelotti: "Valverde tiene cualidades humanas extraordinarias"
+El Mundo - Coproducción El Real Madrid CF recibe mañana por la noche al Chelsea en el Estadio Santiago Bernabéu durante el encuentro de ida de los cuartos de final de la UEFA Champions League. Hoy tanto David Alaba como Carlo Ancelotti han atendido a los medios de comunicación para analizar su partido ante los ingleses. "Si ganamos la Copa del Rey, este equipo en dos temporadas habrá ganado todos los títulos posibles. A veces hay equipos que no los ganan en una vida", ha comentado entre risas el técnico italiano del conjunto blanco. Apr 11, 2023 2:35:44 PM</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_tmudr08s-ancelotti-valverde-tiene-cualidades-humanas-extraordinarias?uetv_pl=deportes</t>
+          <t>https://videos.elmundo.es/v/0_9x4jlydq-rudiger-explica-los-detalles-que-le-cambiaron-la-vida?uetv_pl=deportes</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ancelotti: "Valverde tiene cualidades humanas extraordinarias"
-El Mundo - Coproducción El Real Madrid CF recibe mañana por la noche al Chelsea en el Estadio Santiago Bernabéu durante el encuentro de ida de los cuartos de final de la UEFA Champions League. Hoy tanto David Alaba como Carlo Ancelotti han atendido a los medios de comunicación para analizar su partido ante los ingleses. "Si ganamos la Copa del Rey, este equipo en dos temporadas habrá ganado todos los títulos posibles. A veces hay equipos que no los ganan en una vida", ha comentado entre risas el técnico italiano del conjunto blanco. Apr 11, 2023 2:35:44 PM</t>
+          <t>Rudiger explica los detalles que le cambiaron la vida
+El Mundo - Coproducción Rudiger, jugador del Madrid, nos va explicando los detalles que marcaron su vida. Apr 11, 2023 11:57:28 AM</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_9x4jlydq-rudiger-explica-los-detalles-que-le-cambiaron-la-vida?uetv_pl=deportes</t>
+          <t>https://videos.elmundo.es/v/0_4mmx1sxe-fragmento-del-documental-los-anos-de-la-transicion-de-dmax?uetv_pl=ocio</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Rudiger explica los detalles que le cambiaron la vida
-El Mundo - Coproducción Rudiger, jugador del Madrid, nos va explicando los detalles que marcaron su vida. Apr 11, 2023 11:57:28 AM</t>
+          <t>Fragmento del documental 'Los años de la Transición' de DMAX
+DMAX Fragmento del documental 'Los años de la Transición', que se estrena el lunes 17 de abril en DMAX, y que retrata con imágenes y documentos de la época los distintos aspectos de la sociedad y la política española desde la muerte de Franco en 1975 hasta la victoria del PSOE en las elecciones generales de 1982. Apr 13, 2023 11:04:04 AM</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_4mmx1sxe-fragmento-del-documental-los-anos-de-la-transicion-de-dmax?uetv_pl=ocio</t>
+          <t>https://videos.elmundo.es/v/0_8fwnurdv-trailer-de-spider-man-cruzando-el-multiverso?uetv_pl=ocio</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Fragmento del documental 'Los años de la Transición' de DMAX
-DMAX Fragmento del documental 'Los años de la Transición', que se estrena el lunes 17 de abril en DMAX, y que retrata con imágenes y documentos de la época los distintos aspectos de la sociedad y la política española desde la muerte de Franco en 1975 hasta la victoria del PSOE en las elecciones generales de 1982. Apr 13, 2023 11:04:04 AM</t>
+          <t>Tráiler de Spider-Man: cruzando el multiverso
+El Mundo - Coproducción Tráiler de Spider-Man: cruzando el multiverso Apr 5, 2023 6:25:31 PM</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_8fwnurdv-trailer-de-spider-man-cruzando-el-multiverso?uetv_pl=ocio</t>
+          <t>https://videos.elmundo.es/v/0_gyeg6xnl-trailer-de-la-temporada-2-de-yellowjackets?uetv_pl=ocio</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tráiler de Spider-Man: cruzando el multiverso
-El Mundo - Coproducción Tráiler de Spider-Man: cruzando el multiverso Apr 5, 2023 6:25:31 PM</t>
+          <t>Tráiler de la temporada 2 de Yellowjackets
+El Mundo - Coproducción Vuelve la serie protagonizada por Melanie Lynskey, Juliette Lewis, Christina Ricci y Tawny Cypress . Esta temporada cuenta con la incorporación de Elijah Wood, y se estrena en Movistar Plus+. Mar 24, 2023 1:36:05 PM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_gyeg6xnl-trailer-de-la-temporada-2-de-yellowjackets?uetv_pl=ocio</t>
+          <t>https://videos.elmundo.es/v/0_l4jtgq6f-trailer-de-hasta-el-fondo-la-historia-de-pornhub?uetv_pl=ocio</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tráiler de la temporada 2 de Yellowjackets
-El Mundo - Coproducción Vuelve la serie protagonizada por Melanie Lynskey, Juliette Lewis, Christina Ricci y Tawny Cypress . Esta temporada cuenta con la incorporación de Elijah Wood, y se estrena en Movistar Plus+. Mar 24, 2023 1:36:05 PM</t>
+          <t>Tráiler de 'Hasta el fondo: la historia de Pornhub'
+El Mundo - Coproducción Un retrato de la industria del porno, pero sobre todo en el dinero, en las cantidades millonarias que se mueven a su alrededor. Mar 22, 2023 3:25:58 PM</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_l4jtgq6f-trailer-de-hasta-el-fondo-la-historia-de-pornhub?uetv_pl=ocio</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Tráiler de 'Hasta el fondo: la historia de Pornhub'
-El Mundo - Coproducción Un retrato de la industria del porno, pero sobre todo en el dinero, en las cantidades millonarias que se mueven a su alrededor. Mar 22, 2023 3:25:58 PM</t>
-        </is>
-      </c>
+          <t>https://videos.elmundo.es/v/0_zqwtqcd2-los-mejores-de-todos-los-got-talent-del-mundo-se-reunen-en-el-nuevo-got-talent-all-stars?uetv_pl=television</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_zqwtqcd2-los-mejores-de-todos-los-got-talent-del-mundo-se-reunen-en-el-nuevo-got-talent-all-stars?uetv_pl=television</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t>https://videos.elmundo.es/v/0_ig5ltx18-trailer-de-berlin?uetv_pl=television</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Tráiler de 'Berlín'
+El Mundo - Coproducción Tráiler de 'Berlín' Feb 7, 2023 8:13:59 PM</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_ig5ltx18-trailer-de-berlin?uetv_pl=television</t>
+          <t>https://videos.elmundo.es/v/0_i7hc91it-chanel-toke-y-el-polemico-mundial-si-tengo-que-ir-a-qatar-voy-con-mi-equipo-lgtbi?uetv_pl=television</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tráiler de 'Berlín'
-El Mundo - Coproducción Tráiler de 'Berlín' Feb 7, 2023 8:13:59 PM</t>
+          <t>Chanel, TOKE y el polémico Mundial: "Si tengo que ir a Qatar voy con mi equipo LGTBI+"
+/Vídeo: El Mundo Chanel, TOKE y el polémico Mundial: "Si tengo que ir a Qatar voy con mi equipo LGTBI+ y con mi hipnótico culo" Oct 26, 2022 5:43:30 PM</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_i7hc91it-chanel-toke-y-el-polemico-mundial-si-tengo-que-ir-a-qatar-voy-con-mi-equipo-lgtbi?uetv_pl=television</t>
+          <t>https://videos.elmundo.es/v/0_fsr8yrsr-dentro-de-la-que-se-avecina?uetv_pl=television</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Chanel, TOKE y el polémico Mundial: "Si tengo que ir a Qatar voy con mi equipo LGTBI+"
-/Vídeo: El Mundo Chanel, TOKE y el polémico Mundial: "Si tengo que ir a Qatar voy con mi equipo LGTBI+ y con mi hipnótico culo" Oct 26, 2022 5:43:30 PM</t>
+          <t>Dentro de 'La que se avecina'
+elmundo.es Es probablemente una de las series de ficción española con más espectadores, es La que se avecina. El 18 de noviembre llega la nueva temporada a Prime Video y EL MUNDO ha entrado en la nueva comunidad de la calle Contubernio. Oct 6, 2022 3:49:57 PM</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_fsr8yrsr-dentro-de-la-que-se-avecina?uetv_pl=television</t>
+          <t>https://videos.elmundo.es/v/0_bwcavdz3-sanchez-me-veo-mucho-tiempo-como-presidente-del-gobierno-si-quieren-los-espanoles?uetv_pl=virales</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Dentro de 'La que se avecina'
-elmundo.es Es probablemente una de las series de ficción española con más espectadores, es La que se avecina. El 18 de noviembre llega la nueva temporada a Prime Video y EL MUNDO ha entrado en la nueva comunidad de la calle Contubernio. Oct 6, 2022 3:49:57 PM</t>
+          <t>Sánchez: "me veo mucho tiempo como Presidente del Gobierno, si quieren los españoles"
+EFE Sánchez: "me veo mucho tiempo como Presidente del Gobierno, si quieren los españoles" Mar 3, 2023 9:41:32 PM</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_bwcavdz3-sanchez-me-veo-mucho-tiempo-como-presidente-del-gobierno-si-quieren-los-espanoles?uetv_pl=virales</t>
+          <t>https://videos.elmundo.es/v/0_v1x9q14a-una-usuaria-de-tiktok-viraliza-como-aparca-su-vecino-en-un-hueco-minusculo?uetv_pl=virales</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sánchez: "me veo mucho tiempo como Presidente del Gobierno, si quieren los españoles"
-EFE Sánchez: "me veo mucho tiempo como Presidente del Gobierno, si quieren los españoles" Mar 3, 2023 9:41:32 PM</t>
+          <t>Una usuaria de TikTok viraliza cómo aparca su vecino en un hueco minúsculo
+El Mundo - Coproducción Acumula ya más de 19 millones de visitas. Feb 4, 2023 5:22:29 PM</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_v1x9q14a-una-usuaria-de-tiktok-viraliza-como-aparca-su-vecino-en-un-hueco-minusculo?uetv_pl=virales</t>
+          <t>https://videos.elmundo.es/v/0_kl6shec4-la-esperada-coreografia-de-la-cancion-de-shakira-y-bizarrap?uetv_pl=virales</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Una usuaria de TikTok viraliza cómo aparca su vecino en un hueco minúsculo
-El Mundo - Coproducción Acumula ya más de 19 millones de visitas. Feb 4, 2023 5:22:29 PM</t>
+          <t>La esperada coreografía de la canción de Shakira y Bizarrap
+El Mundo - Coproducción La cantante ha compartido en sus redes el baile de la sesión 53 que ha hecho junta al artista BZRP. Jan 19, 2023 3:05:04 PM</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_kl6shec4-la-esperada-coreografia-de-la-cancion-de-shakira-y-bizarrap?uetv_pl=virales</t>
+          <t>https://videos.elmundo.es/v/0_sdqo50fa-la-esperada-coreografia-de-la-cancion-de-shakira-y-bizarrap?uetv_pl=virales</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>La esperada coreografía de la canción de Shakira y Bizarrap
-El Mundo - Coproducción La cantante ha compartido en sus redes el baile de la sesión 53 que ha hecho junta al artista BZRP. Jan 19, 2023 3:05:04 PM</t>
+Virales La cantante ha compartido en sus redes el baile de la sesión 53 que ha hecho junta al artista BZRP. Jan 19, 2023 2:38:01 PM</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_sdqo50fa-la-esperada-coreografia-de-la-cancion-de-shakira-y-bizarrap?uetv_pl=virales</t>
+          <t>https://videos.elmundo.es/v/0_o3kfxx53-el-smog-plastico-invade-los-oceanos?uetv_pl=ciencia</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>La esperada coreografía de la canción de Shakira y Bizarrap
-Virales La cantante ha compartido en sus redes el baile de la sesión 53 que ha hecho junta al artista BZRP. Jan 19, 2023 2:38:01 PM</t>
+          <t>El 'smog plástico' invade los océanos
+El Mundo - Coproducción Un nuevo estudio estima que más de 170 billones partículas de plástico flotan en los océanos, una cantidad muy superior a la calculada hasta ahora. Apr 5, 2023 7:11:59 PM</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_o3kfxx53-el-smog-plastico-invade-los-oceanos?uetv_pl=ciencia</t>
+          <t>https://videos.elmundo.es/v/0_ihhj3wpw-como-es-una-instalacion-recicladora-homologada-por-ecoembes?uetv_pl=ciencia</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>El 'smog plástico' invade los océanos
-El Mundo - Coproducción Un nuevo estudio estima que más de 170 billones partículas de plástico flotan en los océanos, una cantidad muy superior a la calculada hasta ahora. Apr 5, 2023 7:11:59 PM</t>
+          <t>Cómo es una instalación recicladora homologada por Ecoembes
+El Mundo - Coproducción Visitamos una instalación recicladora en Alcalá de Gaudaíra (Sevilla). Feb 14, 2023 2:59:44 PM</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_ihhj3wpw-como-es-una-instalacion-recicladora-homologada-por-ecoembes?uetv_pl=ciencia</t>
+          <t>https://videos.elmundo.es/v/0_3yivpdbw-remolinos-o-diablos-de-polvo-el-espectacular-fenomeno-marciano-que-perseverance-ha-logrado-grabar?uetv_pl=ciencia</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cómo es una instalación recicladora homologada por Ecoembes
-El Mundo - Coproducción Visitamos una instalación recicladora en Alcalá de Gaudaíra (Sevilla). Feb 14, 2023 2:59:44 PM</t>
+          <t>Remolinos o 'diablos de polvo': el espectacular fenómeno marciano que Perseverance ha logrado grabar
+Atlas El robot de la NASA registró con su micrófono el sonido de una tolvanera de 118 m de altura y 25 de diámetro al ser engullido por él. José Antonio Rodríguez Mandredi, responsable de la estación meteorólogica española que lleva el 'rover', explica cómo el polvo afecta a la electrónica de 'Perseverance' o 'Curiosity' Dec 24, 2022 5:44:11 PM</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_3yivpdbw-remolinos-o-diablos-de-polvo-el-espectacular-fenomeno-marciano-que-perseverance-ha-logrado-grabar?uetv_pl=ciencia</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Remolinos o 'diablos de polvo': el espectacular fenómeno marciano que Perseverance ha logrado grabar
-Atlas El robot de la NASA registró con su micrófono el sonido de una tolvanera de 118 m de altura y 25 de diámetro al ser engullido por él. José Antonio Rodríguez Mandredi, responsable de la estación meteorólogica española que lleva el 'rover', explica cómo el polvo afecta a la electrónica de 'Perseverance' o 'Curiosity' Dec 24, 2022 5:44:11 PM</t>
-        </is>
-      </c>
+          <t>https://videos.elmundo.es/v/0_3gll6rz8-smart-waste-el-modelo-inteligente-que-gestiona-su-basura?uetv_pl=ciencia</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_3gll6rz8-smart-waste-el-modelo-inteligente-que-gestiona-su-basura?uetv_pl=ciencia</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
+          <t>https://videos.elmundo.es/v/0_6mpx632b-trailer-de-la-pelicula-vertigo-de-alfred-hitchcock?uetv_pl=papel</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Tráiler de la película "Vértigo" de Alfred Hitchcock
+elmundo.es Tráiler de la película "Vértigo" de Alfred Hitchcock Feb 18, 2023 6:42:21 PM</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_6mpx632b-trailer-de-la-pelicula-vertigo-de-alfred-hitchcock?uetv_pl=papel</t>
+          <t>https://videos.elmundo.es/v/0_brpwz65l-trailer-de-la-pelicula-orlando-my-political-biography-de-paul-b-preciado?uetv_pl=papel</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Tráiler de la película "Vértigo" de Alfred Hitchcock
-elmundo.es Tráiler de la película "Vértigo" de Alfred Hitchcock Feb 18, 2023 6:42:21 PM</t>
+          <t>Tráiler de la película "Orlando, My Political Biography" de Paul B. Preciado
+/Paul B. Preciado Tráiler de la película "Orlando, My Political Biography" de Paul B. Preciado Feb 18, 2023 6:00:46 PM</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_brpwz65l-trailer-de-la-pelicula-orlando-my-political-biography-de-paul-b-preciado?uetv_pl=papel</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Tráiler de la película "Orlando, My Political Biography" de Paul B. Preciado
-/Paul B. Preciado Tráiler de la película "Orlando, My Political Biography" de Paul B. Preciado Feb 18, 2023 6:00:46 PM</t>
-        </is>
-      </c>
+          <t>https://videos.elmundo.es/v/0_wuy76hfj-trailer-de-la-pelicula-alcarras?uetv_pl=papel</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_wuy76hfj-trailer-de-la-pelicula-alcarras?uetv_pl=papel</t>
+          <t>https://videos.elmundo.es/v/0_9nfr4uke-trailer-de-la-pelicula-cinco-lobitos?uetv_pl=papel</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -3183,102 +3166,95 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_9nfr4uke-trailer-de-la-pelicula-cinco-lobitos?uetv_pl=papel</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
+          <t>https://videos.elmundo.es/v/0_9az95duw-unas-primavera-2023-las-manicuras-tendencia-y-colores-de-la-nueva-temporada?uetv_pl=yodona</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Uñas primavera 2023: las manicuras tendencia y colores de la nueva temporada
+VÍDEOS YO DONA Las pasarelas, el street style y las redes sociales han hablado y en esta primavera 2023 se llevarán las manicuras coloridas, alegres y muy divertidas Apr 17, 2023 11:23:07 AM</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_9az95duw-unas-primavera-2023-las-manicuras-tendencia-y-colores-de-la-nueva-temporada?uetv_pl=yodona</t>
+          <t>https://videos.elmundo.es/v/0_zocobf2e-no-vale?uetv_pl=yodona</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Uñas primavera 2023: las manicuras tendencia y colores de la nueva temporada
-VÍDEOS YO DONA Las pasarelas, el street style y las redes sociales han hablado y en esta primavera 2023 se llevarán las manicuras coloridas, alegres y muy divertidas Apr 17, 2023 11:23:07 AM</t>
+          <t>NO VALE
+YO DONA Las pasarelas, el street style y las redes sociales han hablado y en esta primavera 2023 se llevarán las manicuras coloridas, alegres y muy divertidas Apr 17, 2023 10:31:57 AM</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_zocobf2e-no-vale?uetv_pl=yodona</t>
+          <t>https://videos.elmundo.es/v/0_412xb1uu-el-video-de-ariana-grande-en-tiktok-sobre-su-cuerpo-que-arrasa-mas-de-9-millones-de-likes?uetv_pl=yodona</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NO VALE
-YO DONA Las pasarelas, el street style y las redes sociales han hablado y en esta primavera 2023 se llevarán las manicuras coloridas, alegres y muy divertidas Apr 17, 2023 10:31:57 AM</t>
+          <t>El vídeo de Ariana Grande en TikTok sobre su cuerpo que arrasa: más de 9 millones de 'likes'
+TIK TOK Son muchas las celebrities que han alzado la voz contra el body shaming. La última en hacerlo ha sido Ariana Grande, que ha roto su silencio en TikTok tras los comentarios sobre su bajada de peso Apr 12, 2023 2:26:08 PM</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_412xb1uu-el-video-de-ariana-grande-en-tiktok-sobre-su-cuerpo-que-arrasa-mas-de-9-millones-de-likes?uetv_pl=yodona</t>
+          <t>https://videos.elmundo.es/v/0_drxha6lo-la-actriz-vanessa-kirby-nueva-embajadora-de-cartier?uetv_pl=yodona</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>El vídeo de Ariana Grande en TikTok sobre su cuerpo que arrasa: más de 9 millones de 'likes'
-TIK TOK Son muchas las celebrities que han alzado la voz contra el body shaming. La última en hacerlo ha sido Ariana Grande, que ha roto su silencio en TikTok tras los comentarios sobre su bajada de peso Apr 12, 2023 2:26:08 PM</t>
+          <t>La actriz Vanessa Kirby, nueva embajadora de Cartier
+Cartier En la actriz británica Vanessa Kirby ha encontrado la más que centenaria marca Cartier su nueva musa y embajadora, que encarna el espíritu de esa pantera que es símbolo incontestable de la 'maison', tanto de sus joyas como de sus perfumes. Mar 31, 2023 10:31:21 AM</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://videos.elmundo.es/v/0_drxha6lo-la-actriz-vanessa-kirby-nueva-embajadora-de-cartier?uetv_pl=yodona</t>
+          <t>https://cooking.elmundo.es/recetas/dificultad/media.html</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>La actriz Vanessa Kirby, nueva embajadora de Cartier
-Cartier En la actriz británica Vanessa Kirby ha encontrado la más que centenaria marca Cartier su nueva musa y embajadora, que encarna el espíritu de esa pantera que es símbolo incontestable de la 'maison', tanto de sus joyas como de sus perfumes. Mar 31, 2023 10:31:21 AM</t>
+          <t>Visita la web de El Mundo</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://cooking.elmundo.es/recetas/dificultad/media.html</t>
+          <t>https://cooking.elmundo.es/noticias/2023/04/17/cuatro-trucos-elegir-buena-manzanilla.html</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Visita la web de El Mundo</t>
+          <t>Comienza la Feria de Sevilla. Y nada mejor (tanto si se va como si no) que probar la Manzanilla de Sanlúcar de Barrameda. Un vino blanco que resulta perfecto para disfrutar en buena compañía. Aquí van cuatro trucos para elegir bien a partir de indicaciones hechas por el Consejo Regulador de la Denominación de Origen Manzanilla-Sanlúcar de Barrameda.
+TRADICIONAL
+Es un vino que se produce en Sanlúcar de Barrameda (Cádiz) pero que se consume en muchísimas fiestas populares de toda Andalucía. En la Feria de Sevilla, que arranca en unos días, será uno de los más consumidos. Es buen consejo optar por marcas conocidas o, al menos, que tengan la etiqueta de Denominación de Origen de Sanlúcar de Barrameda.
+CON LA TEMPERATURA PERFECTA
+Se recomienda su consumo entre 5 y 7 grados. Una temperatura que permite apreciar mucho más este vino criado en brotas de roble. Para llegar a esos grados lo mejor es introducirlo en una cubitera con hielo y agua.
+Manzanilla.Shutterstock
+IDEAL PARA COMER
+Si se toma Manzanilla, lo mejor a la hora de comer es pedir jamón ibérico, aliños, gambas o pescaíto frito. Si todo eso le suena a algo típico de la Feria de Sevilla está en lo cierto: no hay mejor complemento para unas buenas raciones.
+CÓMO TOMARLO
+Es fundamental no tocar la copa más de lo necesario más arriba de la base. Si la cogemos por la base conseguiremos que se mantenga a una temperatura perfecta. Y si es en una copa de talle esbelto y cristal fino, mucho mejor.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://cooking.elmundo.es/noticias/2023/03/21/conoce-frutas-temporada-primavera.html</t>
+          <t>https://cooking.elmundo.es/noticias/2023/04/11/5-consejos-acertar-buen-tomate.html</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
-        <is>
-          <t>Una guía práctica para no equivocarse a la hora de colocar bien los productos antes de ser consumidos
-Muchas veces solemos confundirlas. Para evitar repetir ese error, Vamos a ver qué es té y qué es una infusión.
-Llega la primavera y es hora de disfrutar de la fruta. Por su sabor, su color y su aporte a nuestro organismo. Hay mil razones para elegir las mejores de esta temporada.
-En esta nueva estación, los productos estrella son los nísperos y las fresas. Dos frutas que son específicas de estas fechas y que resultan deliciosas para ser consumidas ya mismo. Si los primeros aportan potasio, magnesio, calcio y hierro, la segunda (incluyendo, claro está, los fresones) es rica en todo tipo de vitaminas, minerales y ácido fólico.
-Melocotones.Shutterstock
-MÁS OPCIONES
-Pero hay muchas variedades. Las cerezas, que aportan vitaminas C y E, hierro, potasio, magnesio, ácido fólico y fibra. Otra buena propuesta son las ciruelas, con ventajas tan evidentes como hidratos de carbono, fibra y antioxidantes. Y las naranjas y su increíble aporte de vitamina C.
-Si esperamos una semanas más encontraremos en las fruterías más ideas para llevarnos a casa. Por ejemplo, los melocotones, que empezarán a estar disponibles dentro de poco y ayudan con las vitaminas A y C. O los aguacates, con potasio y vitaminas E, C y B6.
-Por último, no hay que olvidarse de los albaricoques, las sandías o los melones, para los que falta un poco más en función de la recogida.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>https://cooking.elmundo.es/noticias/2023/04/11/5-consejos-acertar-buen-tomate.html</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
         <is>
           <t>Elegir un buen tomate no es fácil. Para ello, consultamos a Igor Lorenzo, el responsable de la tienda especializada El colmado del tomate en Madrid, para que nos cuente en qué debemos fijarnos a la hora de comprar.
 TEMPORADA INVIERNO/VERANO
@@ -3295,13 +3271,13 @@
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>https://cooking.elmundo.es/noticias/2023/03/21/yogur-natural-dia-lactea-lleva-sello-sabor-ano-2023.html</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Los consumidores han otorgado el premio a esta receta renovada que brilla como referente en el mercado lácteo español por su gran calidad y delicioso sabor.
 Será por su suave sabor, menos ácido que las recetas tradicionales, o por su cremosidad, o por su leche procedente de ganaderías españolas, o por su completo valor nutricional. Por alguna o por todas estas razones los consumidores han premiado el yogur natural Dia Láctea con el sello “Sabor del Año 2023”.
@@ -3320,13 +3296,13 @@
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>https://cooking.elmundo.es/menu-semanal/2023/04/14/menu-semanal-17-04-2023.html</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>El verano parece lejano... o no. Pero, pasada la Semana Santa, es buen momento para recuperar platos ligeros para quienes quieran guardar la línea. Con algún que otro capricho que resulta irresistible.
 Llega la mitad de la semana y es momento para tomarse alguna que otra licencia. Sobre todo, a la hora del almuerzo.
@@ -3334,13 +3310,13 @@
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>https://cooking.elmundo.es/noticias/2023/04/06/bueno-cenar-fruta.html</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Son refrescantes, deliciosas y siempre apetece tomarlas. Pero, ¿es bueno consumir frutas en la cena? O, mejor dicho, ¿sólo consumir este producto cuando queda poco para irnos a la cama? Aquí van algunas pistas.
 Según la Organización Mundial de la Salud todos deberíamos consumir al menos 400 gramos de frutas y verduras al día. Una recomendación que no muchos siguen y que señala a las claras de que la fruta es un imprescindible en nuestra alimentación. O debería serlo.
@@ -3353,10 +3329,18 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://saposyprincesas.elmundo.es/revistas/2023/abril/</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+    </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/revistas/2023/abril/</t>
+          <t>https://saposyprincesas.elmundo.es/revistas/2023/marzo/</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -3364,7 +3348,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/revistas/2023/marzo/</t>
+          <t>https://saposyprincesas.elmundo.es/revistas/2022/julio-agosto/#p=1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -3372,7 +3356,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/revistas/2022/julio-agosto/#p=1</t>
+          <t>https://saposyprincesas.elmundo.es/revistas/2022/junio/#p=1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -3380,7 +3364,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/revistas/2022/junio/#p=1</t>
+          <t>https://saposyprincesas.elmundo.es/revistas/2022/mayo/</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -3388,122 +3372,114 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/revistas/2022/mayo/</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
+          <t>https://saposyprincesas.elmundo.es/especiales/manualidades-de-0-a-3-anos/</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Manualidades de 0 a 3 años
+Los primeros años son cruciales en el desarrollo de la motricidad fina de los niños. Necesitan actividades que les ayuden a controlar sus manos, pero no pueden estarse quietos. La clave: encontrar actividades que de verdad atraigan su atención y retengan su acción, como estas manualidades para niños de 0 a 3 años que podéis hacer con ellos en casa o en la guardería.</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/manualidades-de-0-a-3-anos/</t>
+          <t>https://saposyprincesas.elmundo.es/especiales/manualidades-de-3-a-6-anos/</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Manualidades de 0 a 3 años
-Los primeros años son cruciales en el desarrollo de la motricidad fina de los niños. Necesitan actividades que les ayuden a controlar sus manos, pero no pueden estarse quietos. La clave: encontrar actividades que de verdad atraigan su atención y retengan su acción, como estas manualidades para niños de 0 a 3 años que podéis hacer con ellos en casa o en la guardería.</t>
+          <t>Manualidades de 3 a 6 años
+El desarrollo de la creatividad en el segundo ciclo de Educación Infantil se mezcla con el deseo del niño por determinadas temáticas o actividades. Por ello es importante tener en cuenta que crear es un buen modo de dirigir su deseo de aprender. Ayúdale con estas manualidades para niños de 3 a 6 años que podéis hacer en casa o en el cole.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/manualidades-de-3-a-6-anos/</t>
+          <t>https://saposyprincesas.elmundo.es/especiales/manualidades-de-6-a-10-anos/</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Manualidades de 3 a 6 años
-El desarrollo de la creatividad en el segundo ciclo de Educación Infantil se mezcla con el deseo del niño por determinadas temáticas o actividades. Por ello es importante tener en cuenta que crear es un buen modo de dirigir su deseo de aprender. Ayúdale con estas manualidades para niños de 3 a 6 años que podéis hacer en casa o en el cole.</t>
+          <t>Manualidades de 6 a 10 años
+Manualidades de 6 a 10 años para desarrollar la creatividad y curiosidad de los niños de Educación Primaria a través de actividades para crear juegos, robots y experimentos científicos muy divertidos.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/manualidades-de-6-a-10-anos/</t>
+          <t>https://saposyprincesas.elmundo.es/especiales/manualidades-para-ninos-a-partir-de-10-anos-y-adolescentes/</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Manualidades de 6 a 10 años
-Manualidades de 6 a 10 años para desarrollar la creatividad y curiosidad de los niños de Educación Primaria a través de actividades para crear juegos, robots y experimentos científicos muy divertidos.</t>
+          <t>Manualidades para niños a partir de 10 años y adolescentes
+Manualidades fáciles y originales para customizar la ropa, hacer complementos para lucir y adornos para la habitación, entre muchas otras ideas.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/manualidades-para-ninos-a-partir-de-10-anos-y-adolescentes/</t>
+          <t>https://saposyprincesas.elmundo.es/especiales/consejos-para-celiacos-y-recetas-sin-gluten/</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Manualidades para niños a partir de 10 años y adolescentes
-Manualidades fáciles y originales para customizar la ropa, hacer complementos para lucir y adornos para la habitación, entre muchas otras ideas.</t>
+          <t>Consejos para celíacos y recetas sin gluten
+Son muchas las personas se ven afectadas por la celiaquía, una intolerancia más común de lo que creemos que para tratarla requiere una alimentación sin gluten y que afecta de manera considerable a la vida familiar de las personas que lo padecen.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/consejos-para-celiacos-y-recetas-sin-gluten/</t>
+          <t>https://saposyprincesas.elmundo.es/especiales/recetas-vegetarianas-y-veganas-faciles-y-ricas/</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Consejos para celíacos y recetas sin gluten
-Son muchas las personas se ven afectadas por la celiaquía, una intolerancia más común de lo que creemos que para tratarla requiere una alimentación sin gluten y que afecta de manera considerable a la vida familiar de las personas que lo padecen.</t>
+          <t>Recetas vegetarianas y veganas fáciles y ricas
+Recetas vegetarianas y veganas para toda la familia fáciles de preparar y tan ricas que encantarán también a los niños.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/recetas-vegetarianas-y-veganas-faciles-y-ricas/</t>
+          <t>https://saposyprincesas.elmundo.es/especiales/consejos-e-ideas-para-padres-de-adolescentes/</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Recetas vegetarianas y veganas fáciles y ricas
-Recetas vegetarianas y veganas para toda la familia fáciles de preparar y tan ricas que encantarán también a los niños.</t>
+          <t>Consejos e ideas para padres de adolescentes
+La adolescencia es un periodo de la vida maravilloso, con muchos cambios y también con muchos retos por vivir dentro de la familia. Te ayudamos a conectar con tu hijo adolescente de la mano de expertos y psicólogos especializados en la materia.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/consejos-e-ideas-para-padres-de-adolescentes/</t>
+          <t>https://saposyprincesas.elmundo.es/especiales/elige-el-mejor-colegio-para-tus-hijos/</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Consejos e ideas para padres de adolescentes
-La adolescencia es un periodo de la vida maravilloso, con muchos cambios y también con muchos retos por vivir dentro de la familia. Te ayudamos a conectar con tu hijo adolescente de la mano de expertos y psicólogos especializados en la materia.</t>
+          <t>Elige el mejor colegio para tus hijos
+Encuentra el mejor colegio en esta selección de colegios concertados y privados dispuestos a ofrecer educación de calidad y personalizada para tus hijos. Colegios innovadores que invierten en nuevos métodos de enseñanza, idiomas, deporte y formación integral de los niños.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/elige-el-mejor-colegio-para-tus-hijos/</t>
+          <t>https://saposyprincesas.elmundo.es/especiales/actividades-100-anos-del-fallecimiento-de-joaquin-sorolla/</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
-        <is>
-          <t>Elige el mejor colegio para tus hijos
-Encuentra el mejor colegio en esta selección de colegios concertados y privados dispuestos a ofrecer educación de calidad y personalizada para tus hijos. Colegios innovadores que invierten en nuevos métodos de enseñanza, idiomas, deporte y formación integral de los niños.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/actividades-100-anos-del-fallecimiento-de-joaquin-sorolla/</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
         <is>
           <t>‘100 años del fallecimiento de Joaquín Sorolla’: programa de actividades
 Joaquín Sorolla y Bastida (1863-1923) fue uno de los pintores españoles con mayor proyección internacional de finales del XIX e inicios del XX, y una de las personalidades más importantes de la historia del arte español. Gran parte de sus pinturas se pueden admirar hoy en día en el Museo Sorolla, una de las instituciones más visitadas y admiradas de nuestro país.
@@ -3512,39 +3488,39 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://saposyprincesas.elmundo.es/especiales/destinos-para-viajar-en-verano-con-ninos/</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Destinos y alojamientos para el verano 2023
+Destinos, alojamientos e ideas para viajar en familia dentro y fuera de España durante las vacaciones. Además, las mejores playas, pueblos pesqueros y rutas por los faros más bonitos de nuestro país.</t>
+        </is>
+      </c>
+    </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/destinos-para-viajar-en-verano-con-ninos/</t>
+          <t>https://saposyprincesas.elmundo.es/especiales/por-ser-nina-lucha-por-la-igualdad-de-oportunidades/</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Destinos y alojamientos para el verano 2023
-Destinos, alojamientos e ideas para viajar en familia dentro y fuera de España durante las vacaciones. Además, las mejores playas, pueblos pesqueros y rutas por los faros más bonitos de nuestro país.</t>
+          <t>Niñas: libros, películas, frases y consejos para educar en igualdad
+Consejos e ideas para educar en la igualdad de género; la educación, el desarrollo y la defensa de los derechos de las mujeres y las niñas en el mundo. Material didáctico, libros y películas para ver con niños en casa y en el aula.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/por-ser-nina-lucha-por-la-igualdad-de-oportunidades/</t>
+          <t>https://saposyprincesas.elmundo.es/especiales/steam-ciencia-tecnologia-ingenieria-arte-diseno-y-matematicas/</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
-        <is>
-          <t>Niñas: libros, películas, frases y consejos para educar en igualdad
-Consejos e ideas para educar en la igualdad de género; la educación, el desarrollo y la defensa de los derechos de las mujeres y las niñas en el mundo. Material didáctico, libros y películas para ver con niños en casa y en el aula.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>https://saposyprincesas.elmundo.es/especiales/steam-ciencia-tecnologia-ingenieria-arte-diseno-y-matematicas/</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
         <is>
           <t xml:space="preserve">Educación STEAM y profesiones de futuro
 El término STEAM (Science, Technology, Engineering, Arts and Maths) es cada vez más utilizado en los países que apuestan por despertar el interés de los estudiantes por la ciencia y la tecnología. Seleccionamos ideas para trabajar en esta tarea desde casa a través de experimentos, aplicaciones, libros y manualidades.
@@ -3552,27 +3528,13 @@
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>https://saposyprincesas.elmundo.es/actividades-ninos/mejores/lugares-imprescindibles-de-aragon-para-ir-con-ninos/</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Valderrobres en Teruel Pueblo de Valderrobres, Valderrobres
-Valderrobres es un pequeño pueblo que se encuentra situado en la provincia de Teruel. Este está considerado como uno de los pueblos más bonitos de España debido a la enorme riqueza y valor de su patrimonio arquitectónico, histórico y cultural. Sus calles componen un conjunto de preciosos edificios creando un núcleo urbano que transcurre desde la Iglesia de Santa María La Mayor y el gran Castillo del pueblo hasta la vertiente del río. El proceso de amurallamiento del pueblo y la fortificación de su casco antiguo comenzó en el año 1390, cuando se construyó también el puente de piedra que atraviesa el río, dando paso a la ciudad. Ver más &gt;
-Valderrobres</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>https://saposyprincesas.elmundo.es/consejos/salud-infantil/astenia-primaveral-o-por-que-mi-hijo-esta-imposible/</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Es la hora de salir del cole y tú esperas en la puerta a tu hijo con una enorme sonrisa y los brazos abiertos. Cuando lo hace, lo único que obtienes por respuesta es un lanzamiento de mochila con efecto, una orden para que saques la merienda y, además, poco a poco vas viendo cómo pasa de tener una expresión tristona a un enfado tremendo. ¿Por qué? Quizá te diga que está cansado, o triste, o no te dice nada. Puede que no haya dormido bien, esté comiendo poco o, sencillamente, todo a la vez. La respuesta puede estar en la astenia primaveral, cuyos síntomas principales son el cansancio, la apatía, la dificultad para dormir y la inapetencia.
 Estos últimos se deben a que el aumento de las horas de luz afecta a los ritmos circadianos (que son mentales, conductuales y físicos), trastocándolos sobre todo por una menor producción de betaendorfina (hormona que actúa como moderadora de dolor, reduciendo la trasmisión de los estímulos sensoriales), hasta que el cuerpo se acostumbra a los cambios de luz y temperatura. En definitiva, que su organismo no entiende el motivo por el que tiene que acostarse de día. Así que si tu hijo está nervioso, de mal humor, no para de bostezar o tiene pequeñas rabietas, te ayudamos a poner en hora su reloj biológico con los siguientes consejos.
@@ -3590,26 +3552,26 @@
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>https://saposyprincesas.elmundo.es/especiales/ideas-para-ensenar-a-cuidar-el-medioambiente/</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Ideas para tratar el cambio climático en casa y en el cole
 La importancia del medioambiente, con el cambio climático, el reciclaje, el consumo responsable, la biodiversidad y el cuidado de la naturaleza son varios los temas en los que debemos educar a nuestros hijos. Te proponemos un montón de ideas, consejos, manualidades, películas, juegos y planes para concienciar a los niños sobre la importancia de cuidar el medioambiente.</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>https://saposyprincesas.elmundo.es/recetas/dulces/recetas-pueden-hacer-ninos-con-freidora-de-aire/</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>Enseñar a tus hijos a llevar una dieta más saludable es más fácil si los animas a entrar en la cocina y les enseñas algunas recetas que pueden hacer los niños con la freidora de aire. Este electrodoméstico es muy útil a la hora de reducir la cantidad de grasa de tus platos y conseguir que los pequeños de la casa sean más autosuficientes en cuanto a las comidas y cenas. Aquí tienes algunas ideas que puedes poner en práctica ordenadas por edades.
 1. Tostada francesa (a partir de 6 años)
@@ -3726,49 +3688,13 @@
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>https://saposyprincesas.elmundo.es/campamentos/campamentos-idiomas/escuela-de-verano-de-hastings-school/</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>El programa de la Escuela de Verano de Hastings School está diseñado para que los niños de 2 a 12 años disfruten al máximo de sus vacaciones estivales mientras mejoran su inglés. Todas las actividades se realizan en este idioma, y cimientan sus bases en cinco áreas muy importantes en el proceso educativo:
-• Desarrollo emocional, social y personal
-• Comunicación y lenguaje
-• Concienciación ambiental
-• Desarrollo físico
-• Desarrollo creativo
-Actividades 100 % en inglés
-Dentro de la programación, que tendrá lugar del 3 al 28 de julio (de lunes a viernes), destacan los talleres de Diverciencia, cocina creativa, escenografía, música y baile, manualidades, multideporte, robótica y Water games.
-Programa para niños de 2 a 5 años
-Las actividades para niños de 2 a 5 se organizan en el campus de Paseo de la Habana. Las excursiones de las que disfrutarán los participantes son las siguientes:
-Finca Mojarama, recoge tus propias fresas (2 a 3 años).
-Granja Escuela (4 a 5 años).
-Piscina en Collado Villalba (2 a 5 años).
-Programa para niños de 5 a 12 años
-Se desarrollará en el campus de Bendición de Campos. 1 monitor por cada 10 niños. Las excursiones en la que podrán participar son las siguientes:
-Jornada de navegación (vela, kayak y paddle surf).
-Piscina de Collado Villalba.
-Horarios
-Media jornada (desayuno incluido), de 8:30 h a 13:30 h (cierre de puertas a las 13:45 h).
-(desayuno incluido), de 8:30 h a 13:30 h (cierre de puertas a las 13:45 h). Jornada completa (desayuno y almuerzo incluidos), de 8:30 h a 15:30 h (cierre de puertas a las 16 h).
-Para el desarrollo de la actividad, habrá un monitor por cada 10 niños.
-Más información
-Hastingsschool.com
-verano@hastingsschool.com
-Tel.: 663.978.981/663.978.938</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>https://saposyprincesas.elmundo.es/actividades-ninos/madrid/aire-libre/animales/vida-de-vaquero-en-la-dehesa/</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>En Vida de vaquero en la dehesa podréis pasar una mañana en una pequeña y tradicional vaquería en uno de los pueblos más bonitos de la Sierra de Madrid y descubrir en familia cómo es la vida en una de ellas, donde los animales pastan en libertad hasta los límites de Segovia.
 En un paraje espectacular, rodeado de montañas, pinares y riachuelos, dará comienzo la visita a la vaquería. Allí conoceréis y compartiréis el trabajo diario que realizan Virginia e Iván, dos jóvenes que han querido seguir con el negocio familiar aportando su nueva visión. Os presentarán a todas las vacas y terneros (Rufa, Mila, Rumba y muchas más). Podréis darles de comer, acariciarlos, entrar en sus rincones favoritos, y si os atrevéis, ¡ordeñar una vaca! Tarea solo para valientes.
@@ -3783,13 +3709,13 @@
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>https://saposyprincesas.elmundo.es/sorteos-y-promociones/preestreno-patti-y-la-furia-de-poseidon/</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Patti y la furia de Poseidón, que llega a los cines el 12 de mayo, es una película de animación basada en el mito griego de Jasón y los Argonautas. Es apta para todos los públicos y especialmente recomendada para la infancia.
 Si quieres ser el primero en disfrutar de esta película, apúntate a nuestro sorteo y consigue una entrada cuádruple para el preestreno del domingo 7 de mayo en Cine Yelmo Tres Aguas, Madrid.
@@ -3800,13 +3726,13 @@
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>https://saposyprincesas.elmundo.es/cine-ninos/cartelera/el-gato-con-botas-el-ultimo-deseo/</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Este otoño, vuelve el minino espadachín, intrépido y fan de la leche que más conquista al público en El Gato con Botas: El último deseo.
 Por primera vez desde hace más de una década, DreamWorks Animation presenta una nueva aventura del universo de Shrek en la que el temerario y aventurero Gato con Botas descubre que su pasión por el peligro y su indiferencia por la seguridad se han cobrado su precio. El felino héroe ha gastado ocho de sus nueve vidas, aunque ha perdido la cuenta por el camino. Recuperarlas le hará vivir su mayor aventura hasta la fecha.
@@ -3820,13 +3746,13 @@
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>https://saposyprincesas.elmundo.es/cine-ninos/cartelera/ant-man-y-la-avispa-quantumania-de-marvel-studios/</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Ant-Man y la Avispa: Quantumanía de Marvel Studios es una épica película de aventuras y ciencia ficción.
 En la película, que da oficialmente inicio a la fase 5 del Universo Cinematográfico de Marvel, la pareja de superhéroes Scott Lang (Paul Rudd) y Hope Van Dyne (Evangeline Lilly) regresan para continuar sus aventuras como Ant-Man y la Avispa.
@@ -3835,13 +3761,13 @@
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/valladolid/centro-equinoccio-valladolid-solo-espera-comprador-cierre-definitivo/20230420195520458197.html</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>El centro comercial de Equinoccio de Zaratán espera comprador para su cierre definitivo. Este centro fue uno de los más importantes para la provincia de Valladolid, pero desde hace varios años tiendas y establecimientos han abandonado este centro que actualmente está muy lejos de lo que un día fue. Desde el departamento de comunicación de la propiedad del centro afirman que se "valora la viabilidad del centro" y que por el momento "no hay ningún acuerdo ni ningún comprador", pero cuando aparezca se venderá el inmueble.
 El último negocio que saldrá de este centro comercial es el karting. El 30 de abril cerrará sus puertas el circuito de karting indoor más grande de toda España, el Meseta Karting Indoor, que llevaba abierto desde el año 2013. Son pocas las tiendas que todavía tienen actividad en el centro si se comparan con los que hubo en su día. Los visitantes que se acerquen al edificio solo podrán disfrutar de la bolera, de una escuela de baile, del Set ONE Padel &amp; Fitness Club. El cierre de negocios ha sido una constante en los últimos años, antes incluso del estallido de la pandemia.
@@ -3852,13 +3778,13 @@
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/valladolid/centro-equinoccio-valladolid-solo-espera-comprador-cierre-definitivo/20230420195520458197.html#comentarios-458197</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>El centro comercial de Equinoccio de Zaratán espera comprador para su cierre definitivo. Este centro fue uno de los más importantes para la provincia de Valladolid, pero desde hace varios años tiendas y establecimientos han abandonado este centro que actualmente está muy lejos de lo que un día fue. Desde el departamento de comunicación de la propiedad del centro afirman que se "valora la viabilidad del centro" y que por el momento "no hay ningún acuerdo ni ningún comprador", pero cuando aparezca se venderá el inmueble.
 El último negocio que saldrá de este centro comercial es el karting. El 30 de abril cerrará sus puertas el circuito de karting indoor más grande de toda España, el Meseta Karting Indoor, que llevaba abierto desde el año 2013. Son pocas las tiendas que todavía tienen actividad en el centro si se comparan con los que hubo en su día. Los visitantes que se acerquen al edificio solo podrán disfrutar de la bolera, de una escuela de baile, del Set ONE Padel &amp; Fitness Club. El cierre de negocios ha sido una constante en los últimos años, antes incluso del estallido de la pandemia.
@@ -3869,13 +3795,13 @@
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.opennemas.com/media/diariodevalladolid/files/2023/04/21/posadareal22ab2_valladolid.html</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Antigua casona del siglo XVIII rehabilitada utilizando los materiales originales. En el interior se ha respetado la sobriedad de su origen contrastando los elementos arquitectónicos tradicionales con la comodidad y diseño del siglo XXI. Su uso primitivo fue el cobro de diezmo por parte de los monjes cistercienses del Monasterio de San Martín de Castañeda, antes de pasar a ser la primera cartería de la comarca.
 Hoy en día, es un alojamiento con mucho encanto, caracterizado por la mezcla de estilos decorativos, combinando los elementos rústicos con mobiliario minimalista de diseño.
@@ -3890,13 +3816,13 @@
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/valladolid/ladera-parquesol-luce-cabina-ascensor/20230421095520458237.html</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>Queda poco para que los vallisoletanos puedan subirse al ascensor de la ladera de la Avenida Salamanca. El elevador ya está instalado en la estructura, aunque aún faltan los últimos trabajos para que pueda ponerse en marcha. Desde mediados de abril están montadas las estructuras que albergarán las dos estaciones para los viajeros, la que estará junto a la Avenida de Salamanca y la ubicada en la calle Mariano de los Cobos, junto al parque de los Almendros.
 El ascensor de la ladera este salvará el desnivel de 30 metros entre la Avenida y el parque. Esta zona contará con un elevador inclinado, rampas y escaleras mecánicas que recorren 210 metros, además de otra escalera para los que decidan ir a pie. También se construye una fuente en forma ‘V’ con una cascada de agua que baña las letras, con luces y colores. Además de un anfiteatro y árboles metálicos. Las obras comenzaron en febrero de 2022, tres meses después de los del elevador de la zona norte.
@@ -3905,13 +3831,13 @@
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/valladolid/ladera-parquesol-luce-cabina-ascensor/20230421095520458237.html#comentarios-458237</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>Queda poco para que los vallisoletanos puedan subirse al ascensor de la ladera de la Avenida Salamanca. El elevador ya está instalado en la estructura, aunque aún faltan los últimos trabajos para que pueda ponerse en marcha. Desde mediados de abril están montadas las estructuras que albergarán las dos estaciones para los viajeros, la que estará junto a la Avenida de Salamanca y la ubicada en la calle Mariano de los Cobos, junto al parque de los Almendros.
 El ascensor de la ladera este salvará el desnivel de 30 metros entre la Avenida y el parque. Esta zona contará con un elevador inclinado, rampas y escaleras mecánicas que recorren 210 metros, además de otra escalera para los que decidan ir a pie. También se construye una fuente en forma ‘V’ con una cascada de agua que baña las letras, con luces y colores. Además de un anfiteatro y árboles metálicos. Las obras comenzaron en febrero de 2022, tres meses después de los del elevador de la zona norte.
@@ -3920,13 +3846,13 @@
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/valladolid/guardia-civil-valladolid-meses-descabezada-pese-convulsion-que-azota-comandancia/20230418232220457959.html</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>Sin mando. Así es como se encuentra la Comandancia de la Guardia Civil de Valladolid, descabezada, pese a la convulsión que la azota, desde hace ahora dos meses cuando se jubilaba el coronel Juan Miguel Recio el pasado 13 de febrero. Desde ese momento, el mando accidental lo ostenta el teniente coronel Javier Peña, a la espera de la llegada de un nuevo coronel que asuma la jefatura, la dirección y el control de la Comandancia de Valladolid, que conviene recordar es la más grande e importante de Castilla y León. Un descabezamiento que sigue y va de la mano con una de las etapas más convulsas y agitadas que se recuerda en la Comandancia de la avenida Soria de la capital vallisoletana. Cuando aún se está a la espera de ese nuevo mando y continúa Peña al frente de la jefatura de la Benemérita en la provincia vallisoletana de manera provisional, son varios los frentes que se mantienen abiertos y que agitan a la Guardia Civil en Valladolid.
 Los más importantes, aquellos que tienen que ver con las muertes sin resolver: la de Esther López, la joven de Traspinedo que desaparecía la madrugada del 13 de enero de 2022 y cuyo cadáver era encontrado el 5 de febrero en la cuneta de la carretera de acceso a localidad vallisoletana; y el crimen David, el joven de 18 años, cuyo cuerpo sin vida aparecía en Laguna de Duero hace ahora tres años; sin olvidar el de Cecilio Calderón, el hombre que aparecía muerto en su casa de Peñafiel después de un robo hace ya casi cinco años y cuyo caso está archivo por falta de pruebas.
@@ -3943,13 +3869,13 @@
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/valladolid/guardia-civil-valladolid-meses-descabezada-pese-convulsion-que-azota-comandancia/20230418232220457959.html#comentarios-457959</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>Sin mando. Así es como se encuentra la Comandancia de la Guardia Civil de Valladolid, descabezada, pese a la convulsión que la azota, desde hace ahora dos meses cuando se jubilaba el coronel Juan Miguel Recio el pasado 13 de febrero. Desde ese momento, el mando accidental lo ostenta el teniente coronel Javier Peña, a la espera de la llegada de un nuevo coronel que asuma la jefatura, la dirección y el control de la Comandancia de Valladolid, que conviene recordar es la más grande e importante de Castilla y León. Un descabezamiento que sigue y va de la mano con una de las etapas más convulsas y agitadas que se recuerda en la Comandancia de la avenida Soria de la capital vallisoletana. Cuando aún se está a la espera de ese nuevo mando y continúa Peña al frente de la jefatura de la Benemérita en la provincia vallisoletana de manera provisional, son varios los frentes que se mantienen abiertos y que agitan a la Guardia Civil en Valladolid.
 Los más importantes, aquellos que tienen que ver con las muertes sin resolver: la de Esther López, la joven de Traspinedo que desaparecía la madrugada del 13 de enero de 2022 y cuyo cadáver era encontrado el 5 de febrero en la cuneta de la carretera de acceso a localidad vallisoletana; y el crimen David, el joven de 18 años, cuyo cuerpo sin vida aparecía en Laguna de Duero hace ahora tres años; sin olvidar el de Cecilio Calderón, el hombre que aparecía muerto en su casa de Peñafiel después de un robo hace ya casi cinco años y cuyo caso está archivo por falta de pruebas.
@@ -3966,13 +3892,13 @@
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/valladolid/fiesta-trucha/20230420195201458196.html</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>La localidad lucense de La Pontenova se prepara para acoger la XLIII edición de la Fiesta de la Trucha, un evento de interés turístico deportivo nacional y declarada de Interés Turístico de Galicia. La fiesta se va a celebrar entre los días 28 de abril al día 1 de mayo por iniciativa del Centro de Iniciativas Turísticas de la localidad.
 El evento fue premiado en marzo, en Arroyo de la Encomienda, Valladolid, en la gala de los premios del programa El Río de la Vida como el mejor evento deportivo del año relacionado con la pesca deportiva, imponiéndose a otras iniciativas, como a la Semana Internacional de la Trucha de León, la escuela profesional de pesca deportiva, el club deportivo de pesca el Campano Soriano, o el Open Internacional Astur-cantábrico, por citar solamente algunos de las entidades nominadas.
@@ -3982,13 +3908,13 @@
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/deportes/aventurero-extremo-vallisoletano-antonio-rosa-premiado/20230418211119457930.html</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>El aventurero y deportista extremo vallisoletano (nacido en Íscar), Antonio de la Rosa, será merecido protagonista el próximo sábado en Madrid con motivo de la I Gala de Exploradores que se celebrará por la Academia de Cine organizada por la plataforma de la Aventura Ruteon y en la que se rendirá homenaje al periodista y documentalista asesinado en Burkina Faso, David Beriain.
 El reto del vallisoletano Antonio de la Rosa de recorrer la friolera de 2.380 kilómetros de travesía a remo y vela en solitario en el Antártico tras 26 días y uniendo Cabo de Hornos en el sur de la Patagonia Chilena, hasta la isla Antártica de Georgia del Sur, situada en medio del Océano glaciar Antártico, no ha caído en saco roto.
@@ -4000,13 +3926,13 @@
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/deportes/aventurero-extremo-vallisoletano-antonio-rosa-premiado/20230418211119457930.html#comentarios-457930</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>El aventurero y deportista extremo vallisoletano (nacido en Íscar), Antonio de la Rosa, será merecido protagonista el próximo sábado en Madrid con motivo de la I Gala de Exploradores que se celebrará por la Academia de Cine organizada por la plataforma de la Aventura Ruteon y en la que se rendirá homenaje al periodista y documentalista asesinado en Burkina Faso, David Beriain.
 El reto del vallisoletano Antonio de la Rosa de recorrer la friolera de 2.380 kilómetros de travesía a remo y vela en solitario en el Antártico tras 26 días y uniendo Cabo de Hornos en el sur de la Patagonia Chilena, hasta la isla Antártica de Georgia del Sur, situada en medio del Océano glaciar Antártico, no ha caído en saco roto.
@@ -4018,13 +3944,13 @@
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/castillayleon/ugt-castilla-leon-presenta-despido-colectivo-76-trabajadores-sindicato/20230412184819457057.html</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>ERE en UGT Castilla y León. La futuras listas de parados de la Comunidad sumarán a trabajadores que hasta ahora desarrollan su actividad en el sindicato. UGT Castilla y León presenta un despido colectivo para 76 trabajadores del sindicato, según consta en la documentación y detallan las fuentes sindicales a las que ha tenido acceso este periódico. El secretario general del sindicato, Faustino Temprano, presenta ante la Dirección General de Trabajo, en la oficina territorial de Valladolid, los "despidos colectivos", que se ejecutarán entre el 12 de mayo y el 30 de junio y que llegan a las puertas de celebrar el día del Trabajo del 1 de mayo.
 Aunque no se detalla, ni especifica, todo hace pensar que este ERE de extinción de empleo, que dejará en la calle a 76 trabajadores de UGT, afectará a todas las delegaciones del sindicato en la Comunidad. Lo que también está por aclarar son las justificaciones y razonamientos para hacer efectivos estos despidos. Lo que sí se sabe, a la vista de la información a la que ha tenido acceso este periódico de las mismas fuentes sindicales, es que estos 76 despidos se hacen "de conformidad con lo dispuesto en el Real Decreto Legislativo 2/2015 de 23 de octubre, por el que se aprueba el texto refundido del Estatuto de los Trabajadores".
@@ -4033,13 +3959,13 @@
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/cultura/the-clever-people-regresa-escenarios-version-clown-hamlet/20230418133020457831.html</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>La compañía vallisoletana The Clever People Company, que se diera a conocer en 2015 con una muy personal versión de Romeo y Julieta, regresa a Shakespeare para levantar su tercer y más reciente montaje, Amlethsen 5G ‘The Cobaya Generation’, que se estrena este 22 de abril (20.30 horas) en el Laboratorio de las Artes de Valladolid. De nuevo con Eduardo Navarro al frente de la formación, la compañía parte, claro, de Hamlet, para llevar la historia del príncipe danés a sus propios dominios, que son los del clown, los del bufón.
 «Ha sido un proyecto muy complicado», admitió a este diario Navarro, que además de dirigir vuelve a actuar en este espectáculo. Y es que este Amlethsen 5G comenzó a gestarse en las navidades de 2019, cuando tuvieron los primeros ensayos. El estallido de la pandemia y las restricciones posteriores condicionaron a la compañía, con casi la mitad de sus integrantes radicados fuera de Castilla y León y con diferentes compromisos profesionales. «Tuvimos que ir retomándolo poco a poco, en períodos vacacionales, trabajando en espacios como La Bien Pagá o en la Casa de Cultura ‘El Corralón’ que nos brindó el Ayuntamiento de Villanueva de Duero», evocó el también director de La larga cena (2017). En Villanueva ofreció la compañía un pase previo de Amlethsen 5G, el pasado mes de julio.
@@ -4052,13 +3978,13 @@
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>https://diariodevalladolid.elmundo.es/articulo/tododeporte/correr-mejor-paraisos/20200318212207376367.html</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>“Nos vemos en Santinos”. Esa era la frase más utilizada entre los aficionados al mundo del atletismo (ahora runners) de Tudela del Duero. Santinos es el área recreativa que tiene el municipio vallisoletano y que es punto de encuentro de corredores y de personas que les gusta hacer alguna actividad física o pasar un agradable día. De ahí, que en 2013 un grupo de padres decidieron trasmitir su afición a sus hijos y crear un club deportivo. El nombre fue lo más sencillo. CD Santinos, como no.
 Así, a finales del año 2012, “viendo que en Tudela de Duero no había club de atletismo y que la actividad extra escolar de atletismo lo venía a impartir un club de Valladolid pero que no tenía mucha incidencia, decidimos dar el paso”, explica el vicepresidente Juanjo Domínguez. Unos entornos preciosos para practicar atletismo como es el Canal y el Pinar de Santinos no se podían desaprovechar. Ahora ya cuentan con más de 30 participantes (gente de Tudela, Valladolid y Palencia), más la escuela, y la intención es seguir creciendo.
@@ -4072,13 +3998,13 @@
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>https://mibebeyyo.elmundo.es/como-crece-bebe/tu-bebe-tiene-1-mes-y-medio</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Tu bebé ya ha cumplido un mes y medio de vida y cada vez está más despierto y reacciona más a los estímulos externos.
 Su mamá es el pilar de su vida, así que es normal que esté junto a ti la mayoría del tiempo, sobre todo si le das el pecho a demanda, como aconsejan los especialistas.
@@ -4152,13 +4078,13 @@
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>https://mibebeyyo.elmundo.es/como-crece-bebe/tu-bebe-tiene-2-meses-y-medio</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>El bebé de dos meses y medio reacciona a los estímulos de forma cada vez más intensa y notable.
 ¿Quieres saber cómo se desarrollan los bebés de dos meses y medio, cuáles son los hitos del desarrollo que alcanzan a esta edad y cuáles son sus necesidades relacionadas con los cuidados, la alimentación y el sueño? ¡Te explicamos lo que necesitas saber!
@@ -4204,13 +4130,13 @@
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>https://mibebeyyo.elmundo.es/noticias/criticas-cristina-pedroche-ensenar-mucho-embarazo</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Cristina Pedroche es una mujer que irradia felicidad desde que el pasado 30 de diciembre anunció su embarazo. La presentadora está viviendo con mucha ilusión estas semanas tan especiales como futura mamá. Ahora, sin embargo, sus fans la critican por "mostrar demasiado su embarazo".
 ¿Qué quiere decir esto? Pues la verdad es que sorprende que se la critique por algo así. ¿Qué hay de malo en que una mujer feliz presuma de su barriga de embarazada y suba fotos en redes sociales con sus estilismos? Al parecer algunos de los seguidores de Cristina consideran que ha hecho un cambio radical sobre su forma de llevar el embarazo, pues en un principio se mostró muy recelosa y reservada con este tema, confesando incluso que le daba miedo mostrarlo en redes. Ella misma dijo no estar preparada para "enfrentarme a críticas sobre mi cuerpo por el embarazo o cosas peores que no quiero ni mencionar".
@@ -4230,10 +4156,34 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://mibebeyyo.elmundo.es/noticias/aceite-esencial-apuesta-medica-reducir-dolor-bebes</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://mibebeyyo.elmundo.es/parto/preparacion/que-es-hipnoparto-para-que-sirve</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://mibebeyyo.elmundo.es/bebes/salud-bienestar/compras-bebes-ninos/c-and-a-esenciales-verano-bebe</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+    </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://mibebeyyo.elmundo.es/noticias/aceite-esencial-apuesta-medica-reducir-dolor-bebes</t>
+          <t>https://mibebeyyo.elmundo.es/embarazo/especiales/nuevo-diseno-colours-of-nature-mam-baby</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
@@ -4241,34 +4191,10 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://mibebeyyo.elmundo.es/parto/preparacion/que-es-hipnoparto-para-que-sirve</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>https://mibebeyyo.elmundo.es/bebes/salud-bienestar/compras-bebes-ninos/c-and-a-esenciales-verano-bebe</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>https://mibebeyyo.elmundo.es/embarazo/especiales/nuevo-diseno-colours-of-nature-mam-baby</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
           <t>https://mibebeyyo.elmundo.es/ninos/educacion-infantil/apego-seguro-que-es-como-fomentarlo</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t xml:space="preserve">No hay duda de que los padres y las madres somos una pieza clave en el equilibrio emocional y la felicidad de nuestros hijos. Por eso, es importante que, desde bien pequeñitos, podamos desarrollar un apego seguro con ellos, que les permita establecer relaciones saludables, tener una buena autoestima y disfrutar de una etapa adulta plena y segura. Así lo afirma Rafa Guerrero, psicólogo y psicoterapeuta especializado en gestión emocional, trauma, apego y TDAH, y uno de los grandes referentes en materia de desarrollo cerebral infantil y adolescente.
 Para ayudarnos a trabajar un apego seguro con nuestros hijos, Rafa Guerrero ha escrito ¿Me acompañas? (Penguin Random House), un cuento perfecto para leer en familia, con preguntas y consejos prácticos para los lectores (grandes y pequeños), y que cuenta con unas preciosas ilustraciones de Mamen Marcén.
@@ -4325,21 +4251,37 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://mibebeyyo.elmundo.es/bebes/salud-bienestar/compras-bebes-ninos/minu-v2-uppababy-muevete-sin-limites</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://mibebeyyo.elmundo.es/mujer-actual/familia/aire-hogar-puro-menos-alergenos-rowenta</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://mibebeyyo.elmundo.es/test/que-sabes-sobre-las-nauseas-en-el-embarazo</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+    </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://mibebeyyo.elmundo.es/test/que-sabes-sobre-las-nauseas-en-el-embarazo</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
           <t>https://www.ivoox.com/podcast-mi-bebe-yo-embarazo-bebes-familias_sq_f11513876_1.html</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>En los podcast de Mi bebé y yo, encontrarás toda la información sobre maternidad y paternidad, de la mano de los mejores expertos y expertas. Tratamos temas de cómo quedar embarazada, embarazo, parto, posparto, bebés y niños.
 QUEDAR EMBARAZADA
@@ -4370,13 +4312,13 @@
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/internacional/2022/02/13/62089f8218a83f001ec08116-directo.html</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>La desescalada en la crisis ucraniana parece un horizonte lejano. El ministro de Exteriores español insiste en la intención de la UE de dialogar
 Los esfuerzos diplomáticos entre Occidente y Rusia sobre la crisis en Ucrania no han funcionado. El sábado, el Kremlin denunció la "histeria" de Washington a la vez que el presidente estadounidense, Joe Biden, amenazó a su par ruso con con "repercusiones severas y rápidas" si atacaba al país vecino.
@@ -4386,13 +4328,13 @@
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/ciencia-y-salud/salud/2022/02/13/6208a2af18a83f001ec081f1-directo.html</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>En Canadá también están siendo habituales las protestas contra las medidas por Covid.
 En las últimas horas, Galicia, País Vasco y Navarra han anunciado que eliminarán a partir de esta semana restricciones como limitaciones de aforo o cierre adelantado de los establecimientos
@@ -4402,13 +4344,13 @@
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/elecciones/elecciones-castilla-y-leon/2022/02/13/6209347a18a83f001ec0bbf3-directo.html</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>Ángel Ceña ha asegurado que ahora "el momento de las promesas ha acabado" y deben plasmarse iniciativas
 El candidato de Soria ¡Ya! y procurador electo en las elecciones de Castilla y León, Ángel Ceña, ha subrayado este lunes que el PP tendrá que hablar con ellos si quieren conformar un gobierno en solitario y comprometerse "claramente, de forma vinculante y con un cronograma de actuación" con el programa con el que se han presentado a las elecciones autonómicas.
@@ -4418,13 +4360,13 @@
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/elecciones/elecciones-castilla-y-leon/2022/02/13/62050a26e4d4d86d798b45a1.html</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t xml:space="preserve">Los castellanos y leoneses han votado. El Partido Popular se impone como la fuerza más votada en las elecciones de Castilla y León, que se han celebrado de forma anticipada y que lo han hecho en mitad de la sexta ola de pandemia, lo que ha repercutido directamente en la participación, que cae dos puntos con respecto a 2019.
 Una vez conocidos los resultados de las elecciones de Castilla y León, vemos como el candidato del PP, Alfonso Fernández Mañueco, obtiene el 31,43% de los votos y 31 escaños -dos más que en las pasadas elecciones-, pero se queda a 10 de conseguir los 41 procuradores que marcan la mayoría absoluta. Lejos de los resultados arrolladores de antaño, que permitieron al partido gobernar durante 35 años en solitario, los populares tendrán que negociar con otras formaciones y crear así el segundo Gobierno de coalición de Castilla y León. "Voy a dialogar con todos para formar un Gobierno de todos y para todos", sentenció Mañueco tras conocer su victoria. En este sentido Vox se convierte en la opción más sonada tras pasar de tener un único procurador en las pasadas elecciones a 13. Su candidato, Juan García-Gallardo se alza con la llave de la gobernabilidad en Castilla y León.
@@ -4434,13 +4376,13 @@
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/elecciones/elecciones-castilla-y-leon/2022/02/13/620909d2e4d4d8b8378b4573.html</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>El descenso es generalizado en todas las provincias menos en Valladolid. Los votantes de Ávila y Zamora, los más rezagados
 La participación en las elecciones autonómicas en Castilla y León al cierre de los colegios se ha situado en el 63,28%, esto es 2,5 puntos menos que la cifra alcanzada en los comicios de 2019, cuando llegó al 65,79%, según ha anunciado Ángel Ibáñez, consejero de la Presidencia, durante su comparecencia en Valladolid.
@@ -4458,13 +4400,13 @@
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/elecciones/elecciones-castilla-y-leon/2022/02/13/620513ad21efa0b8398b4602.html</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>El horario de los colegios electorales en las elecciones de Castilla y León será el habitual. Esto es: los colegios abren a las 09.00 horas y cierran a las 20.00 horas del 13 de febrero
 Este 13 de febrero los castellanoleoneses están llamados a las urnas en las elecciones de Castilla y León. El horario de los colegios electorales será el habitual en unos comicios.
@@ -4477,13 +4419,13 @@
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/elecciones/elecciones-castilla-y-leon/2022/02/10/6204ec2efdddffa3108b45df.html</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>PP, PSOE, Ciudadanos, Vox, Podemos, UPL, Soria ¡Ya! y Por Ávila se disputan las elecciones de Castilla y León este domingo, 13 de febrero. Estos son sus candidatos
 Hasta ocho partidos políticos tienen posibilidades de conseguir representación en las elecciones de Castilla y León que se celebran este domingo 13 de febrero, según las encuestas. Estos son los principales candidatos.
@@ -4518,13 +4460,13 @@
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/cultura/premios-goya/2022/02/12/620804d5e4d4d88f6e8b4593.html</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>'El buen patrón' llegó a la 36 edición de los Goya como gran favorita y cumplió los pronósticos. Consulta la lista completa de ganadores de los Goya 2022 por categorías
 El buen patrón llegó a la gala de la 36 edición de los Goya como la gran favorita y cumplió los pronósticos, al hacerse con seis premios (de 20 nominaciones), entre ellos los de mejor película, director (Fernando León de Aranoa) y actor protagonista (Javier Bardem).
@@ -4682,13 +4624,13 @@
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/cultura/premios-goya/2022/02/13/6208513421efa02d398b458c.html</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>La película de Fernando León de Aranoa se corona junto a su protagonista tras lograr seis de los 20 premios a los que optaba en un palmarés muy repartido. Ganaron todos
 Los Premios Goya recuperaron la normalidad. Y eso, aceptémoslo, no es exactamente una buena noticia. Si el año pasado por estas fechas nos felicitábamos todos (y el plural no es tanto mayestático como de rebaño inmunizado) por la rapidez y emoción de una gala confinada por la pandemia, la edición número 36 de los Premios de la Academia recuperó intacta su esencia.
@@ -4704,13 +4646,13 @@
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/album/yodona/moda/2022/02/12/62079b52e4d4d8b0388b461c.html</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t xml:space="preserve">Moda Premios Goya 2022: Cate Blanchett, Penélope Cruz, Milena Smit y todos los looks de una alfombra roja con aires de Oscar Por:MARTA SOTILLO
 Con ganas de fiesta y de glamour se celebra la 36 edición de los Premios Goya, la gala del cine por excelencia de nuestro país. Los Oscar patrios no defraudan en la alfombra roja, y menos en un año donde se notan las ganas de salir y dejarse ver, con una gran asistencia de invitados a la pasarela de moda particular en la que se convierte este evento. Acompaña el entorno, el Palau de les Arts de Valencia, nuevo emplazamiento tras la celebración malagueña del año pasado. Las asistentes no han defraudado y las grandes marcas las han acompañado: Penélope Cruz de Chanel, Milena Smit de Balmain, Mariola Fuentes de Fernando Claro Couture, Bárbara Lennie de Gucci... Y Cate Blanchett, con su brillante y espectacular Armani Privé. Ha habido mucho negro, pero también mucho color y, sobre todo, pedrería, luz, detalles sintomáticos de ganas de fiesta. Entre ellos, lo clásico cada vez lo es menos y los trajes y esmóquines se tiñen con licencias de color y sí, algún que otro brillo también. Pasen y vean, esta es la alfombra roja de los Goya que tiene regusto de Oscar.
@@ -4722,13 +4664,13 @@
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/deportes/futbol/primera-division/2022/02/13/6208085b21efa06f508b45d7.html</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>En el vestuario visitante del Estadio de La Cerámica, todos escuchaban a Carlo Ancelotti. Los primeros 45 minutos del Real Madrid ante el Villarreal habían sido un desastre y el conjunto blanco estaba totalmente superado. Sólo Courtois y el palo habían evitado un 1-0 que acercaba al Sevilla a tres puntos del liderato. A 72 horas del duelo de octavos de Champions contra el PSG, la imagen era muy preocupante.
 "Es la mano del entrenador", respondió Casemiro tras el pitido final, preguntado por la mejoría del Madrid tras el descanso. "Desde fuera él puede ver otro partido, habló con nosotros y nos orientó". Los de Ancelotti no consiguieron llevarse los tres puntos de la Comunidad Valenciana, pero cuajaron un gran segundo tramo de encuentro, se encontraron varias veces con el larguero y otras tantas con Rulli y dejaron suficientes detalles positivos como para viajar a París con cierto optimismo.
@@ -4742,13 +4684,13 @@
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/internacional/2022/02/12/6207fd19e4d4d895468b456f.html</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Horas después de que Washington y sus aliados advirtieran de que las fuerzas rusas podrían invadir Ucrania en cualquier momento, el presidente estadounidense Joe Biden y el ruso Vladimir Putin hablaron por teléfono durante una hora. Según una nota de La Casa Blanca, el presidente Biden fue claro en que, "si Rusia emprende una nueva invasión de Ucrania, Estados Unidos, junto con nuestros aliados y socios, responderá de manera decisiva e impondrá un coste severo a Rusia".
 Biden reiteró que una nueva invasión rusa de Ucrania "produciría un sufrimiento humano generalizado y perjudicaría la posición de Rusia". El líder norteamericano fue claro en que si bien Estados Unidos permanece preparado para participar en la diplomacia, "estamos igualmente listos para otros escenarios". La conversación se produjo poco después de que Rusia denunciase que un submarino de EEUU violó sus aguas territoriales en el Lejano Oriente.
@@ -4766,13 +4708,13 @@
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/cultura/premios-goya/2022/02/12/6206b55fe4d4d8c46b8b45b3.html</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>A los Premios Goya hay que quererlos. Así, sin más. Y hay que quererlos tanto por lo que siempre han querido ser como, incluso más, por lo que quizá nunca podrán llegar a ser. «Tu eres fea, pero te estimo, ¡puño!», le decía el enano Ujo de Nazarín a su amada en quizá la más descarnada declaración de amor que se ha visto en pantalla. Pocas ediciones de los premios del cine español han levantado tanta expectación (y esta frase, en verdad, da un poco lo mismo el año que se emplee) como la que hace la número 36 y se celebra hoy en Palau de les Arts de Valencia en la que actuarán desde Joaquín Sabina, que vuelve, a C. Tangana, que no se va, pasando por Luz Casal, Bebe, Pantomima Full... Hasta Pedro Sánchez y Yolanda Díaz, que no cantarán, pero casi. Por cierto, todos los partidos políticos han sido invitados, pero...
 Son muchos los alicientes. Por un lado, tenemos a la película con el récord de nominaciones de toda la historia de los récords de nominaciones. El buen patrón ha sido capaz a la vez de ser completamente ignorada en la pasada edición del Festival de San Sebastián y acaparar, en desagravio tal vez, toda la atención de los académicos. Y no se trata tanto de una contradicción como de ese extraño sentido de la justicia tan nuestro (¡Sabrán ellos, los jurados!). Pero ahí no queda la cosa. La posibilidad de ver juntos a los que ya están juntos convertidos en la actriz y el actor con (tanto juntos como por separado) más Goya deja pocas opciones al desafecto.Penélope Cruz y Javier Bardem son candidatos a los Oscar, sí, pero antes, que quede claro, son españoles. Y mucho españoles. Se podría añadir, para los amantes de la numerología desproporcionada, que también es una marca, la mayor de todas, que Alberto Iglesias (otro de los candidatos a lo de Hollywood) esté a un paso de su décimo segundo Goya. Nadie tiene más. Hay más motivos para el entusiasmo, pero con esto ya es bastante.
@@ -4782,13 +4724,13 @@
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/cultura/premios-goya/2022/02/08/62023e4821efa0bf7c8b45b8.html</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Algunas candidatas permanecen en las salas de cine, otras están disponibles en Movistar+ y Netflix y todas están siendo proyectadas en la Academia
 Con la gala de los Premios Goya 2022 a la vuelta de la esquina, muchos son los que se apresuran a ver algunas de las películas nominadas. Salvo El buen patrón y alguna que otra excepción, no es fácil encontrar salas de cine en las que se estén proyectando las obras nominadas al Goya a la mejor película. Sin embargo, a través de plataformas como Movistar+ o Netflix y de la propia Academia del Cine, podemos llegar a la cita del próximo 12 de febrero en el Palau de les Arts de Valencia con casi todos los deberes hechos.
@@ -4810,13 +4752,13 @@
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/f5/escucha/2022/02/11/620642a1e4d4d8a97a8bd22f.html</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>El rapero comentó el hecho de que uno de los jueces del certamen dejara a las gallegas por debajo de Gonzalo Hermida
 Los resultados del Benidorm Fest, cuya final se celebró el pasado 29 de enero, siguen generando polémica. Rayden se ha mostrado crítico con un detalle de las puntuaciones que recibieron Tanxugueiras, sus compañeras en el certamen. El artista habló sobre este tema con Xavi Martínez el miércoles 9 de febrero en Twitter Spaces.
@@ -4830,13 +4772,13 @@
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/madrid/2022/01/04/61d4377621efa0324c8b45be.html</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>El calendario laboral de la Comunidad de Madrid para 2023 establece 14 días festivos. El próximo festivo llegará el lunes 1 de mayo, día del Trabajo
 El calendario laboral 2023 de la Comunidad de Madrid establece 14 días festivos. El próximo festivo en Madrid llegará en menos de un mes.
@@ -4860,13 +4802,13 @@
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>https://www.elmundo.es/economia/2021/12/03/61aa1a39e4d4d84d028b45b8.html</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Consulta el calendario laboral de 2022 con los días festivos y puentes que se disfrutan en toda España
 El calendario laboral 2022 recoge 14 días festivos. De estos, ocho festivos se disfrutan en toda España, cuatro son festivos autonómicos y dos son festivos locales, que establece cada municipio.
@@ -4880,13 +4822,13 @@
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/04/gazpacho-andaluz-receta-facil.html</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>El gazpacho creo que junto con el salmorejo cordobés, es la receta tradicional de la cocina española más famosa que tenemos.
 Share this...
@@ -4929,13 +4871,13 @@
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/04/salmorejo-cordobes-receta-tradicional.html</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>El salmorejo cordobés es una sopa fría muy típica de la gastronomía andaluza, en concreto de la ciudad de Córdoba, que se ha extendido por todo el territorio español. Llega el calor y con él el salmorejo. Hoy vamos a aprender a preparar el salmorejo paso a paso, con todos los consejos y trucos para que salga perfecto.
 Share this...
@@ -4971,13 +4913,13 @@
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/05/ensaladilla-rusa-casera-receta-facil.html</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>La ensaladilla rusa o ensalada rusa (también conocida por ensalada olivier) es una de las recetas míticas de nuestros bares y también de nuestras abuelas y madres. Es una receta casera que hemos adaptado de Rusia, ya que como su propio nombre indica, tiene origen ruso.
 Share this...
@@ -5017,13 +4959,13 @@
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/01/guacamole-casero-consejos-receta-facil.html</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Una de las mejores receta Mexicanas, el guacamole casero
 El guacamole es una salsa clave en la cocina mexicana que se prepara con aguacate o palta, tomate, cilantro picado y cebolleta. Hoy vamos a aprender como hacer un guacamole clásico y prepararlo en casa como si de un restaurante mejicano se tratase.
@@ -5061,13 +5003,13 @@
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/05/hummus-casero-receta-arabe.html</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Hoy haremos la receta de hummus casera. Desde hace unos años el hummus se está convirtiendo en una de las recetas más típicas de los tapeos en casa. Es una receta que suelo hacer desde que me enamoré del hummus de mercadona. La verdad que hay dos cosas que me encantan de ahí, el hummus y el guacamole, por ello hoy veremos lo fácil que es preparar hummus casero.
 Si nos gustan los hummus, os recomiendo hacer un hummus de berenjena o un hummus de remolacha. Dos recetas diferente que seguramente te encanten.
@@ -5109,13 +5051,13 @@
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/04/tortilla-patatas-receta-trucos-consejos.html</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Si no tuviera la receta de tortilla de patatas en el blog no sería un buen blog de cocina española. Os voy a explicar varias trucos y consejos pero sé de buena mano que en cada casa se hace de una manera, yo os voy a dar los míos para que hagáis esta receta tradicional española.
 Soy un amante de las recetas con huevos por eso en otras ocasiones he hecho tortilla de cebolla, tortilla de habas o esta que me encanta hacer últimamente, tortilla de trufa.
@@ -5167,13 +5109,13 @@
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/04/porra-antequerana-receta-tradicional-malaguena.html</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>La porra antequerana es una sopa fría muy típica de antequera (Málaga) que se asemeja muchísimo al salmorejo cordobés o al gazpacho andaluz. Se podría decir que tiene parte de ingredientes del gazpacho y bastante más espeso, como el salmorejo, una de las mejores recetas de cremas frías que conozco.
 Share this...
@@ -5202,13 +5144,13 @@
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/03/paella-valenciana-receta-facil-tradicional.html</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>Una de las recetas españolas más tradicionales, la paella valenciana
 Hoy preparamos, a mi parecer, la receta más famosa de la gastronomía española y por la que todo el mundo nos conoce, la paella.
@@ -5258,13 +5200,13 @@
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2018/10/fideua-receta-casera.html</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>La fideuá o fideuada (en valenciano) es un plato muy típico de la Comunidad Valenciana (extendido ya por toda España) que se prepara en la paella con pescado y marisco y se realiza con fideos en vez de arroz, uno de mis platos favoritos. Podemos encontrar, al igual que ocurre con las paellas y arroces, fideuá de con otros ingredientes. Como una fideuá de pollo o una fideuá de berberechos.
 Share this...
@@ -5291,13 +5233,13 @@
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2014/11/solomillo-wellington-cerdo-receta-facil-navidad.html</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Nunca habría imaginado que hacer una receta tan navideña y típica como el solomillo Wellington sería tan fácil. La verdad que originalmente el solomillo Wellington se hace con carne de ternera, pero en mi opinión es un sacrilegio meter un pedazo de solomillo de ternera en hojaldre, por eso lo he hecho con cerdo ibérico. Es una receta perfecta para la noche de nochebuena, además no es nada cara y con un solomillo de cerdo ibérico podemos cenar 5-6 personas tranquilamente. Así tiene que quedar por dentro, rosadito.
 Share this...
@@ -5331,13 +5273,13 @@
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2014/05/cordero-horno-asado-receta-navidad.html</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>El cordero al horno o cordero asado es una de las recetas más clásicas de este país. Un plato imprescindible si vamos a la zona de Castilla y León. Muy típico en Segovia (con su propio estilo segoviano), Salamanca, Burgos, etc… en cualquier sitio de la zona podremos tomar un cordero espectacular. En esta época podemos hacer cualquier receta de cordero pero el cordero al horno es la receta más tradicional.
 Share this...
@@ -5365,13 +5307,13 @@
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2015/12/cochinillo-al-horno-receta-casera-y-tradicional.html</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>El cochinillo asado al horno es uno de nuestros asados por antonomasia. En tierras de Castilla y León es muy popular, aunque el más famoso es el cochinillo segoviano. Este asado es muy popular en épocas navideñas, por lo que es una receta de navidad que estará presente en muchas casas.
 Share this...
@@ -5405,13 +5347,13 @@
         </is>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+    <row r="215">
+      <c r="A215" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2015/08/lubina-a-la-sal-receta-navidad-consejos.html</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>La lubina a la sal es una de las mejores recetas de lubina
 La lubina a la sal es una de las preparaciones de la lubina más sencillas, o de cualquier pescado de carne firme. Además de ser de las recetas de pescados más antiguas que tenemos ya que se cocina a la sal desde hace siglos. Si eres un principiante te aconsejo hacer esta receta para pescados blancos.
@@ -5448,13 +5390,13 @@
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2015/08/pollo-asado-horno-receta-facil.html</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Share this...
 Pinterest Linkedin
@@ -5514,13 +5456,13 @@
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2017/02/tarta-queso-receta-casera.html</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>La tarta de queso fría es uno de las recetas de postres más deliciosas que hay y que yo veo más fáciles de hacer porque es una tarta que sin horno. Esta tarta de queso casera es un pequeña variante de la New York cheescake tan famosa. Otra tarta sin horno que me encanta es el famoso tiramisú italiano, una receta fácil que suele gustar a todo el mundo.
 Share this...
@@ -5549,13 +5491,13 @@
         </is>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/04/tarta-de-queso-la-vina-receta-facil.html</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>La tarta de queso de la Viña es una de las tartas más famosas de España, en esto del País Vasco, además de una de las más fáciles de hacer que he visto nunca.
 Al ser una receta tradicional de postre debemos de conocer su origen. El creador de esta tarta de queso es Santiago Rivera, propietario del bar la Viña. Este señor, ha creado la tarta de queso más famosa de España. Si vais por San Sebastián, no dudéis en pasaros para probar la mejor tarta de queso del Mundo.
@@ -5598,13 +5540,13 @@
         </is>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+    <row r="219">
+      <c r="A219" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/04/alubias-verduras-receta-facil-sana.html</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Una de las recetas que no falta cada semana son las receta de legumbre, te traigo mi receta de alubias con verduras super fácil de hacer y muy rápida.
 Para esta receta he usado alubias de bote cocidas, alguna vez he cocido yo mismo las judías pero la verdad no merece la pena ya que esta receta es muy rápida y perdemos tiempo en ponerlas en remojo, cocerlas y demás. De la otra manera es abrir el bote y listo.
@@ -5631,13 +5573,13 @@
         </is>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
+    <row r="220">
+      <c r="A220" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/04/ensalada-mixta-mejor-guarnicion.html</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>La reina de la ensalada es la ensalada mixta, creo que es la que más me gusta y tengo que explicaros los puntos clave para conseguir la guarnición perfecta.
 Esta es a ensalada clásica de guarnición de cualquier bar, comida de domingo o barbacoa. Yo soy un fan de las recetas de ensaladas y ahora que llega el buen tiempo os voy a dar mi receta de ensalada mixta.
@@ -5665,13 +5607,13 @@
         </is>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/04/pasta-champinones-receta-facil.html</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Hoy os enseño a preparar uno de los platos que más me gustan, la pasta con champiñones. Podemos usar la pasta que queramos, pero hoy hacemos una receta de tallarines con champiñones.
 Los champiñones son uno de los mejores ingredientes a incorporar en nuestra dieta ya que son muy bajos en calorías y nos aportan una gran cantidad de nutrientes. Yo suelo hacer tallarines con champiñones y un chorrito de aceite de oliva, pero en este caso vamos a hacerlos de manera clásica, con un poco de nata para que salgan muy cremosos.
@@ -5701,13 +5643,13 @@
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2016/11/masa-pizza-casera-receta-facil.html</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Hoy vamos a aprender a preparar masa de pizza casera. La masa de pizza italiana es muy fácil de hacer y es una de las recetas más buscadas de internet, por ello os voy a facilitar mi receta.
 Esta receta de masa de pizza fácil va con levadura, pero podéis encontrar perfectamente algunas recetas de masa de pizza sin levadura donde saldrá más crujiente. Esta masa es más esponjosa. Si no lleva levadura podrás más fácilmente hacer una masa fina.
@@ -5736,13 +5678,13 @@
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="223">
+      <c r="A223" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/04/cebolla-caramelizada-receta-facil.html</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>La cebolla caramelizada o cebolla confitada es un tipo de guarnición que liga con una infinidad de platos. Podemos hacerla con azúcar o sin azúcar, esta es una receta de cebolla caramelizada con azúcar.
 Share this...
@@ -5777,13 +5719,13 @@
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2018/03/brownie-chocolate-receta-facil.html</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Share this...
 Pinterest Linkedin
@@ -5814,13 +5756,13 @@
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2017/09/galletas-mantequilla-receta-facil.html</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Las galletas de mantequilla son una de las recetas de galletas más fáciles de hacer. Yo cuando me puse a hacerlas realmente flipé, porque eran tan sencillas que ahora no paro de hacerlas, además podemos congelar la masa y sacarla cuando más nos apetezca para hornear unas pocas. Perfectas para mojar en el café, una verdadera delicia.
 Esta receta de galletas de mantequilla también es estupenda para hacer con los niños por su sencillez como he comentado anteriormente.
@@ -5843,13 +5785,13 @@
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/02/bizcocho-de-limon-y-yogur-receta-clasica.html</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>El bizcocho de limón es una de las recetas de postres más clásicas que tenemos en nuestra gastronomía, es más, creo que junto a la típica receta de galletas de mantequilla, es la primera que solemos hacer con los niños.
 Lo bueno de esta receta es que vamos a usar como medida el recipiente de un yogur, así que os aseguro que es una receta de bizcocho sencilla y rica.
@@ -5885,13 +5827,13 @@
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2022/10/fabada-asturiana-receta-facil-tradicional.html</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>La mejor receta de fabada asturiana
 La fabada es la receta más tradicional que tenemos de la cocina Asturiana. Uno de los mejores platos de cuchara que podemos encontrar en España sin duda. Hoy te presento la receta de fabada fácil, con sus trucos y consejos para que te salga perfecta.
@@ -5935,13 +5877,13 @@
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2018/12/tarta-queso-horno-receta-cremosa.html</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Tarta de queso cremosa por dentro, como en los restaurantes
 La tarta de queso al horno es mi postre favorito con diferencia. Esta receta he de decir que es encima de unos de mis restaurantes favoritos, Cañadio, famoso por su gran calidad y su tarta.
@@ -5975,13 +5917,13 @@
         </is>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/04/canelones-caseros-carne-receta-facil.html</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Hoy os traigo una receta de canelones de carne muy fácil de hacer. Es una de las recetas de pasta típicas de las abuelas y de las madres, siempre apetece un domingo tomar unos canelones en casa de la yaya. Soy un amante de las recetas de pasta, ya sea pasta rellena o cualquier pasta fresca, como la lasaña de carne o unos buenos espaguetis a la carbonara tradicionales.
 Share this...
@@ -6022,13 +5964,13 @@
         </is>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/04/ajoblanco-malagueno-sopa-almendras-receta.html</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Hoy vamos a preparar un ajoblanco malagueño. El ajoblanco es una sopa fría de almendras muy típica de la provincia de Málaga donde el ingredientes principal es la almendra. Una de las recetas tradicionales de esa ciudad.
 Esta sopa se dice que es una variante del gazpacho andaluz y está extendida por toda la comunidad Andaluza, procedente de la cocina andalusí árabe. Por ejemplo en la vega granadina se acompaña siempre de patatas asadas, algo que nunca he probado pero que me es curioso de conocer al investigar acerca de la receta de ajoblanco.
@@ -6060,13 +6002,13 @@
         </is>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
+    <row r="231">
+      <c r="A231" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2017/10/arroz-a-banda-receta-tradicional.html</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>El arroz a banda es una de mis recetas preferidas. He veraneado mucho en la zona de la Comunidad Valenciana y al ser la cuna del arroz, me he llevado muchos conocimientos culinarios de allí.
 Share this...
@@ -6104,13 +6046,13 @@
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+    <row r="232">
+      <c r="A232" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/07/ensalada-pasta-receta-verano.html</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Si hablamos de recetas de verano, una de las mejores sin duda es la ensalada de pasta. Esta permite infinidad de variantes. Hoy os voy a dar la que suelo hacer yo pero a continuación te doy algunas ideas para que hagas la mejor receta de ensalada de pasta.
 En pleno verano nos gustan las recetas fresquitas, como no empezar un menú con un buen gazpacho andaluz, un delicioso salmorejo o una porra antequerana (muy parecida al salmorejo). Continuamos acompañando esta ensalada con otra ensalada de arroz, una deliciosa ensalada de col o coleslaw o por ejemplo una ensaladilla rusa.
@@ -6145,13 +6087,13 @@
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+    <row r="233">
+      <c r="A233" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/07/ensalada-de-arroz-receta-facil-verano.html</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>La ensalada de arroz es un plato único de cada verano y podemos hacer infinidad de variedades de recetas de ensaladas de arroz. Hoy os voy a dar la mía, que es rápida y deliciosa.
 Me encantan las recetas de ensaladas en verano y he dicho que podéis hacer una ensalada de ahumados, una ensalada de col, deliciosa para acompañar carnes o una ensalada de garbanzos.
@@ -6178,13 +6120,13 @@
         </is>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+    <row r="234">
+      <c r="A234" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/07/ensalada-campera-receta-facil.html</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Si hablamos de recetas de verano, la ensalada campera es junto a la ensalada de pasta y la ensaladilla rusa las mejores recetas de ensaladas del verano.
 Share this...
@@ -6217,13 +6159,13 @@
         </is>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/07/ensalada-lentejas-sana-deliciosa.html</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>La ensalada de lentejas es una de las mejores formas de consumir legumbre en verano. Realmente nos cuesta hacer recetas de legumbres ya que estamos acostumbrados a que sean platos de cucharas calientes y potentes como las típicas lentejas con chorizo.
 Esta es la forma ideal de consumir en verano legumbres sin llegar a ser pesado, si no te gustan las lentejas te recomiendo esta ensalada de garbanzos.
@@ -6253,13 +6195,13 @@
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="236">
+      <c r="A236" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/07/ensalada-cesar-receta-tradicional.html</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>La ensalada César es una de las mejores y más deliciosas recetas de ensaladas que podemos hacer hoy en día.
 Esta ensalada es muy sencilla de hacer y se atribuye su creación a César Cardini, un inmigrante italiano en EEUU que la creó en el Hotel Caesar’s. Bueno realmente él decía que era una receta de su padre que creó en 1924 en su restaurante de Tijuana.
@@ -6299,13 +6241,13 @@
         </is>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/03/ensalada-quinoa-aguacate-receta-sana.html</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>La quinoa es uno de los cereales que se han puesto más de moda en nuestro país en los últimos años. Hoy vamos a preparar una ensalada de quinoa con aguacate.
 Share this...
@@ -6332,13 +6274,13 @@
         </is>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/06/ensalada-murciana-moje-o-mojete-casero.html</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>La ensalada murciana es, como el nombre de la receta lo dice, la ensalada más típica de la región de Murcia, una de las recetas de ensaladas más típicas de nuestro país.
 Share this...
@@ -6365,13 +6307,13 @@
         </is>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+    <row r="239">
+      <c r="A239" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/09/macedonia-de-frutas-postre-facil-sano.html</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Cuando pensamos en recetas de postres siempre pensamos en platos altos en calorías y pesados pero la macedonia de frutas es una ensalada de frutas genial, un delicioso postre sano con el que disfrutar al finalizar la comida.
 La receta de macedonia de frutas es totalmente personal, en cada casa le podemos poner la fruta que más nos guste o la fruta de temporada. En esta ocasión le he puesto manzana, kiwi, fresa…
@@ -6402,13 +6344,13 @@
         </is>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
+    <row r="240">
+      <c r="A240" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/07/ensalada-de-col-coleslaw-receta-tradicional.html</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>La ensalada de col o coleslaw es una guarnición muy típica de la carne en los restaurantes americanos. Realmente su origen es incierto, se atribuye a Holanda e Inglaterra aunque todos la conocemos por la guarnición del típico americano de las costillas barbacoa. Una de las mejores recetas de ensaladas que conozco.
 Esta ensalada está basada principalmente en col blanca y zanahoria, y luego lleva aderezos varios dependiendo de la región como manzana, piña u otras frutas. Esta se mezcla con una salsa que puede llevar yogur natural y en algunos casos mostaza, que es la receta de ensalada de col que vamos a hacer hoy.
@@ -6440,13 +6382,13 @@
         </is>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
+    <row r="241">
+      <c r="A241" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2017/08/ensalada-garbanzos-jamon-ensalada-legumbres.html</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t>Share this...
 Pinterest Linkedin
@@ -6477,13 +6419,13 @@
         </is>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+    <row r="242">
+      <c r="A242" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2022/04/como-cocer-esparragos-blancos-limpiar-conservar.html</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>En abril llega la temporada de espárragos blancos frescos, una de los mayores manjares que tenemos en nuestras huertas. Hoy vamos a prender cómo limpiar y cocer espárragos blancos para que tengas este ingrediente al punto perfecto.
 Espárrago blanco de Navarra, un manjar sin igual
@@ -6522,13 +6464,13 @@
         </is>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
+    <row r="243">
+      <c r="A243" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2022/11/crema-de-esparragos-trigueros-receta-facil.html</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t>Soy un apasionado de los espárragos trigueros y de los espárragos blancos, y por ello hoy te traigo una receta de crema de espárragos trigueros, una de mis preferidas.
 En mi familia me dicen que porque las cremas me salen ricas y les digo que un día me conto un secreto un cocinero, el único secreto que hay es triturar mucho tiempo. Estamos acostumbrados a pasarlas por un pasapuré o simplemente estar unos 30 segundos triturando con la batidora de mano. Mi recomendación es triturar mínimo 2 o 3 minutos, esto va a hacer que quede una crema perfecta, os los garantizo.
@@ -6556,13 +6498,13 @@
         </is>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/08/verduras-al-horno-guarnicion-perfecta.html</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Cuando hablamos de guarniciones, las recetas de verduras al horno son perfectas para cualquier receta de pescado o recetas de carne, os garantizo que con esto cuidarás la salud ya que debemos comer varias piezas de verduras todos los días y disfrutaréis de una buena receta de verduras.
 La guarnición perfecta para una buena lubina a la espalda, una buena dorada a la sal, eso hablando de pescados, Si queremos acompañar carne también es genial. Solomillo de cerdo asado, un delicioso entrecot de carne o un chuletón de buey, aunque este último mejor con unas patatas al horno o una ensalada de col.
@@ -6597,13 +6539,13 @@
         </is>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/04/calabacin-al-horno-receta-facil-y-sana.html</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Los calabacines son unas de las verduras más versátiles que tenemos, hoy preparamos una guarnición sana para acompañar carne o pescados a la plancha, calabacines al horno. Si estas buscando la manera más sana de acompañar tus platos, esta te garantizo que te va a encantar.
 Más ideas con calabacines
@@ -6630,13 +6572,13 @@
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="246">
+      <c r="A246" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/06/arroz-con-verduras-receta-sana.html</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>El arroz con verduras o paella de verduras es una receta de arroz deliciosa y sana que podemos preparar en pocos minutos.
 Este plato único delicioso es perfecto para cuidarse ya que solo lleva verduras y arroz, además si hacemos el caldo de verduras casero es perfecto también para vegetarianos y veganos.
@@ -6669,13 +6611,13 @@
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="247">
+      <c r="A247" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/03/esparragos-horno-receta-facil-casera.html</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Los espárragos sin duda son mi verdura preferida, todas las semanas me los ceno una o dos veces porque su sabor me apasiona, hoy os muestro una receta de espárragos al horno muy rica, que suelo hacer mucho días.
 Los espárragos permiten infinidad de recetas, desde arroces, salteados, cremas… y hoy preparamos la más sencilla y en mi opinión, la que de verdad aprovecha más su sabor.
@@ -6699,13 +6641,13 @@
         </is>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+    <row r="248">
+      <c r="A248" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2018/11/aguacates-relleno-atun-receta.html</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Share this...
 Pinterest Linkedin
@@ -6732,13 +6674,13 @@
         </is>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
+    <row r="249">
+      <c r="A249" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/04/berenjenas-con-miel-fritas-crujientes.html</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Las berenjenas fritas con miel son una de las recetas más típicas de la cocina cordobesa, como no acompañando al salmorejo cordobés y a los famosos flamenquines cordobeses.
 Share this...
@@ -6767,13 +6709,13 @@
         </is>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
+    <row r="250">
+      <c r="A250" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2016/11/arroz-cubana-receta-facil.html</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>El arroz a la cubana es una de las recetas que más me recuerdan a mi niñez por eso hoy la voy a preparar en honor a mi abuela.
 Hace unas semanas vi en otro blog que subían una receta de arroz a la cubana con sus huevos fritos, su plátano frito, y sus salchichas y me dije, bueno hay que hacer una receta en honor a mi yaya. Por eso hoy os voy a explicar cómo me lo preparaba ella, una receta perfecta para los niños.
@@ -6798,13 +6740,13 @@
         </is>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
+    <row r="251">
+      <c r="A251" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/02/empanada-carne-picada-receta-facil.html</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Las empanadas son una de esas preparaciones que nos encanta hacer para una merienda en familia, llevar al trabajo u otros eventos. Hoy prepararemos una clásica receta de empanada de carne.
 Para esta receta he usado masa de empanada comprada ya que mucha gente lo agradecerá porque sé que a la gente no le suele gustar hacer la masa a mano, aún así te dejo la receta de masa de empanada por si quieres ponerte a ello.
@@ -6838,13 +6780,13 @@
         </is>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
+    <row r="252">
+      <c r="A252" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/02/empanada-atun-receta-facil-casera.html</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Si hablamos de empanadas no podemos dejar de mencionar una de las mas famosas, la empanada de atún o empanada de bonito. Este plato se puede consumir frio o caliente y es muy típico de la cocina gallega, donde tienen las mejores empanadas de España.
 Para esta preparación he usado masa comprada en el supermercado porque me facilita la tarea pero si no os dejo la receta de masas de empanada casera por si os apetece poneros manos a la masa, nunca mejor dicho.
@@ -6876,13 +6818,13 @@
         </is>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
+    <row r="253">
+      <c r="A253" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/04/conoce-que-es-brunch-y-como-se-lleva-a-cabo-esta-tendencia.html</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>En esta oportunidad vamos a analizar qué es brunch y qué beneficios aporta llevar a cabo esta tendencia de alimentación. Para algunos consiste en tender un desayuno tardío, mientras que para otros se trata de un almuerzo temprano.
 Aunque esta tendencia no es precisamente nueva, sí ha sido más popular en los últimos años. Y esto tiene que ver con el auge de las redes sociales que ha permitido visibilizar muchos estilos y manejos alimenticios.
@@ -6902,13 +6844,13 @@
         </is>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
+    <row r="254">
+      <c r="A254" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/04/que-es-una-crock-pot-y-como-funciona-este-electrodomestico.html</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>En esta oportunidad vamos a definir qué es una Crock Pot, se trata de un electrodoméstico muy común en Estados Unidos. A grandes rasgos, el funcionamiento de este equipo se relaciona con la posibilidad de emitir cocciones a baja temperatura.
 Se cree que cocinar preparaciones como guisos o incluso sopas con una cocción lenta da un mejor resultado. Y a diferencia de lo que se puede creer, el uso de este equipo de cocina es muy práctico.
@@ -6929,13 +6871,13 @@
         </is>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
+    <row r="255">
+      <c r="A255" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/04/diferencias-entre-conac-y-brandy-que-debes-conocer.html</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>En esta oportunidad vamos a analizar cuáles son las principales diferencias entre Coñac y Brandy. Si bien son dos tipos de licores que guardan entre sí algunas similitudes, también tienen diferencias clave.
 Debes tener en cuenta que el Coñac y el Brandy no son la misma bebida, y la principal diferencia es que una es la base de la obra. Para que comprendas mejor las distinciones, hemos enumerado las diferencias clave. ¡Comencemos!
@@ -6958,13 +6900,13 @@
         </is>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
+    <row r="256">
+      <c r="A256" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/04/que-es-la-chacineria-y-cual-es-su-origen.html</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>En esta oportunidad vamos a analizar qué es la chacinería, una palabra que debe su origen a épocas antiguas. La importancia de este término se asocia con el hecho de que engloba un precedente para lo que hoy conocemos como charcutería.
 A grandes rasgos la chacinería se relaciona con tradiciones artesanas que consistían en la elaboración de productos de origen animal. Es por esto que incluso en la actualidad mantiene algunas similitudes con la charcutería, aunque esta es más avanzada.
@@ -6983,13 +6925,13 @@
         </is>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
+    <row r="257">
+      <c r="A257" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2023/04/que-es-el-brindis-y-su-origen.html</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Aunque entendemos en qué consiste, muchas veces no entendemos qué es el brindis en un sentido más técnico. Y es por eso que creamos este post en donde explicaremos todos los detalles acerca de esta famosa tradición.
 Conocer el origen del brindis es muy emocionante, incluso algunos le atribuyen un significado asociado con la Biblia. Sin embargo, esta es una acción que tiene variaciones según la cultura. ¿Te animas a conocer los detalles?
@@ -7012,13 +6954,13 @@
         </is>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
+    <row r="258">
+      <c r="A258" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2022/08/19-recetas-de-desayunos-saludables-bajos-en-calorias.html</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Ideas de recetas para desayuno sanos, tradicionales y deliciosos.
 El desayuno es para mí la mejor comida del día y si tienes de prepararlo es una verdadera maravilla disfrutar de él. Hoy te traigo varias ideas para que puedas preparar unos desayunos saludables perfectos, desde desayunos fitness como unas gachas de avena hasta desayunos clásicos como unos churros caseros o unas tostadas francesas
@@ -7069,13 +7011,13 @@
         </is>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
+    <row r="259">
+      <c r="A259" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2015/08/pollo-ajillo-receta-facil-tradicional.html</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>El pollo al ajillo es un clásico dentro de nuestra gastronomía. Ese plato que siempre han hecho las abuelas, eso en mi caso, y que ahora os quiero transmitir su receta. Una receta fácil y tradicional.
 Share this...
@@ -7103,13 +7045,13 @@
         </is>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
+    <row r="260">
+      <c r="A260" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2016/10/pollo-chilindron-receta-tradicional.html</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>El pollo al chilindrón es una de las recetas más importantes que tenemos en nuestra gastronomía. Es una receta que tengo que reconocer que nunca había probado, siempre había oído hablar de ella pero nunca me había parado a hacerla en casa.
 El pollo al chilindrón tiene su origen en la zona nororiental española, muy típico en la zona de Aragón. Su base de ingredientes son verduras y hortalizas rojas, como el pimiento rojo y el tomate. Podemos decir que es un pollo guisado con verduras muy rico y muy típico de la cocina Aragonesa.
@@ -7141,13 +7083,13 @@
         </is>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
+    <row r="261">
+      <c r="A261" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2014/09/pollo-pepitoria-receta-paso-a-paso-facil.html</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>Share this...
 Pinterest Linkedin
@@ -7182,13 +7124,13 @@
         </is>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
+    <row r="262">
+      <c r="A262" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/08/lasana-pollo-receta-sana-pasta.html</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Una de las mayores recetas de pasta es la lasaña de carne, pero hoy vamos a prepararla de manera diferente, la lasaña de pollo.
 La verdad que soy un gran amante de la cocina italiana y a veces darle una vuelta a los platos de esa gran cocina viene bien porque se descubren este tipo de recetas.
@@ -7227,13 +7169,13 @@
         </is>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
+    <row r="263">
+      <c r="A263" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2022/09/pollo-al-curry-arroz-basmati-receta-facil.html</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>El pollo al curry es una de esas recetas indias que han llegado a nuestra gastronomía para quedarse, una de las mejores recetas de pollo de la actualidad.
 Esta receta viene de oriente medio y hay cientos de maneras de hacerla. Hoy os voy a dar mi receta, la que siempre hago para toda la familia.
@@ -7266,13 +7208,13 @@
         </is>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
+    <row r="264">
+      <c r="A264" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2022/04/pollo-asado-al-horno-jugoso-y-con-la-piel-crujiente.html</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>El pollo asado es una de las recetas de pollo de toda la vida de cada casa. En cada familia se hace de una manera, se hace pollo asado macerado en hierbas, directamente al horno, con guarniciones diversas, (patatas fritas, patatas panadera, puré de patatas…), por esto he de decir que el pollo al horno es una de las mejores recetas con las que enamorar a tus invitados.
 Share this...
@@ -7311,13 +7253,13 @@
         </is>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
+    <row r="265">
+      <c r="A265" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/10/cocido-trucos-consejos-receta-perfecta.html</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>El cocido es una de las comidas más completas que existen ya que combinan carnes con verduras y legumbres. En algunos casos es un plato contundente pero si evitamos algunos ingredientes puede ser un cocido sano y delicioso.
 En cada región de España tenemos una receta tradicional de cocido, es más, creo que en cada casa se hace de una manera. Tenemos el cocido montañés, de Cantabria, la escudella catalana, de Cataluña o el cocido maragato. Yo como soy de Madrid haré una versión del cocido madrileño, ya que el cocido es un plato realmente espectacular en todos los sentidos.
@@ -7370,13 +7312,13 @@
         </is>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
+    <row r="266">
+      <c r="A266" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2017/05/callos-madrilena-receta-casera.html</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>Los callos a la madrileña es una receta tradicional de la comunidad de Madrid. Uno de los mejores guisos que tenemos en Madrid y que sin duda, hay que hacer a fuego lento para realmente se haga con mimo. También podemos hacer los callos en olla express perfectamente pero siempre he dicho que si los hacemos a fuego lento mejor que mejor. Lo primero vamos a ver es que son los callos, ya que mucha gente se lo pregunta
 Qué son los callos
@@ -7417,13 +7359,13 @@
         </is>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
+    <row r="267">
+      <c r="A267" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/01/rabo-de-toro-receta-paso-a-paso.html</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>El rabo de toro o rabo de ternera guisado es una de las recetas de guisos preferidas de muchas personas, junto con la clásica ternera en salsa. Hecho a fuego lento en olla de barro con sus 4 o 5 horas haciendo chupchup… es una verdadera delicia. La receta de rabo de toro es algo laboriosa de hacer, pero os garantizo que merece la pena de hacer la carne de los trozos de rabo con una cuchara.
 Share this...
@@ -7460,13 +7402,13 @@
         </is>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
+    <row r="268">
+      <c r="A268" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/04/patatas-riojana-receta-casera.html</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>Las patatas a la riojana es una receta de origen humilde en el que el chorizo es el gran protagonista, un guiso tradicional de la zona de la Rioja como su propio nombre indica.
 Share this...
@@ -7497,13 +7439,13 @@
         </is>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
+    <row r="269">
+      <c r="A269" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/04/receta-patatas-importancia.html</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>Las patatas a la importancia es una de las recetas clásicas de la cocina española que tenemos en nuestra gastronomía, una receta de patatas tradicional al igual que la tortilla de patatas o las patatas guisadas.
 Share this...
@@ -7535,13 +7477,13 @@
         </is>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
+    <row r="270">
+      <c r="A270" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2022/09/judias-con-chorizo-receta-facil.html</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Sin duda, las judías con chorizo es mi plato favorito. Soy un amante de las recetas de guisos tradicionales y en este de hoy te voy a dar un pequeño truco que me enseñaron y que te recomiendo que uses porque es una verdadera maravilla de receta de alubias blancas con chorizo.
 Para este tipo de recetas te recomiendo que compres unas buenas alubias blancas, judiones, judías blancas o lo que quieras, cualquiera de estas vale. Hoy he usado judiones porque justo tenía medio kilo que compré, pero te garantizo que con cualquiera valdría.
@@ -7576,13 +7518,13 @@
         </is>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
+    <row r="271">
+      <c r="A271" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2020/04/como-hacer-mayonesa-casera-trucos-consejos.html</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>Hoy vamos a aprender a realizar una de las salsas básicas de la cocina, vamos a preparar mayonesa casera (o mahonesa). Conocerás todos los trucos y consejos para hacerla de manera fácil, conservará y con qué recetas combinar la mayonesa. Una de las recetas de salsas que debemos conocer como la salsa bechamel o la salsa rosa.
 Lo primero explicar que es la mayonesa, ya que mucha personas la confunden con otras salsa como el alioli. La mayonesa es una salsa emulsionada de huevo y aceite. La mayonesa tradicional se realiza en un mortero emulsionando, pero actualmente es mucho más sencillo hacer la mayonesa con la batidora, es más, yo nunca la he hecho a mano.
@@ -7623,13 +7565,13 @@
         </is>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
+    <row r="272">
+      <c r="A272" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2015/11/salsa-rosa-receta-casera.html</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>Ideal para ensaladas o pastas, la salsa rosa es otra salsa clásica que no podía faltar entre mis recetas. Estamos acostumbrados a comprar salsa rosa de bote (la típica salsa rosa cocktail que venden) pero os aconsejo la hagáis casera ya que seguramente tengamos todos los ingredientes en la nevera.
 Share this...
@@ -7650,13 +7592,13 @@
         </is>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
+    <row r="273">
+      <c r="A273" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2022/09/salsa-brava-patatas-receta-facil-original.html</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>La salsa brava es una salsa típica española picante, en concreto de la zona de Madrid que se usa principalmente en hacer la receta de patatas bravas, hoy os voy a dar la receta original de salsa brava. No hay nada mejor que un ración de patatas bravas, una buena tortilla de patatas o un buen bocadillo de calamares, eso entra dentro de la gastronomía madrileña y a día de hoy, en la gastronomía española.
 La mayoría de nosotros pensamos que la salsa brava lleva tomate, es más, muchas personas la hacen con tomate y la verdad que no lleva nada de tomate, ese color rojizo lo aporta el pimentón. Siempre recomiendo en las recetas tradicionales que conozcais la base pero le pongáis vuestro toque, por eso, si le queréis poner tomate o especias, hazlo, no dudes que saldrá una salsa brava original y estupendo con tu toque personal.
@@ -7681,13 +7623,13 @@
         </is>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
+    <row r="274">
+      <c r="A274" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2022/06/como-preparar-salsa-holandesa-casera.html</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>Aprende a preparar salsa holandesa casera
 Aquí te contaré cómo preparar salsa holandesa desde casa fácil y en poco tiempo. Esta es una receta muy deliciosa que podemos combinar con diferentes platillos clásicos de la gastronomía española.
@@ -7716,13 +7658,13 @@
         </is>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
+    <row r="275">
+      <c r="A275" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/05/salsa-yogur-receta-basica.html</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>La salsa de yogur es un básico en las recetas de salsas, por ello os traigo la receta que hago yo. Hay bastantes diferentes por la red pero esta es la que más me gusta.
 Lo bueno de esta salsa es que es perfecta para acompañar recetas de fritos para suavizar su sabor. Si hacéis algunos rollitos de primavera o algún otro tipo de frito esta receta irá perfecta.
@@ -7747,13 +7689,13 @@
         </is>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
+    <row r="276">
+      <c r="A276" t="inlineStr">
         <is>
           <t>https://recetasdecocina.elmundo.es/2021/05/salsa-pesto-receta-tradicional-italiana.html</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>La salsa pesto es una de las recetas de salsas básicas dentro de la cocina italiana.
 Esta es realmente sencilla de hacer ya que lleva pocos ingredientes y es realmente deliciosa.
@@ -7783,13 +7725,13 @@
         </is>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
+    <row r="277">
+      <c r="A277" t="inlineStr">
         <is>
           <t>https://compartiendoconocimiento.elmundo.es/las-empresas-espanolas-se-lanzan-a-la-busqueda-de-la-eficiencia-energetica</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B277" t="inlineStr">
         <is>
           <t>Según el Observatorio de Competitividad Empresarial, elaborado por la Cámara de Comercio de España, el 85% de las compañías nacionales se ha visto perjudicada por el encarecimiento de la energía, por lo que implementar medidas para reducir esta factura se ha convertido en una de sus grandes prioridades.
 En España, la energía supone de media alrededor de un 24% de los costes de explotación para las empresas. Teniendo en cuenta el gran peso de esta partida, y la escalada de precios protagonizada en el último año, cada vez son más los empresarios que deciden implementar soluciones para intentar reducir los costes asociados, apostando por la eficiencia energética y por el autoconsumo. De hecho, según la Cámara de Comercio de España, “un 34’1% de las empresas españolas ya han invertido en mejorar la eficiencia energética de su compañía o establecimiento”, y más de un 31% también ha hecho lo propio en soluciones para asegurar su autoconsumo energético. El motivo principal: el ahorro. Reducir costes es la primera motivación para comenzar este necesario cambio, según el estudio “Eficiencia energética en España” de la multinacional tecnológica ABB, seguida por el compromiso con la sostenibilidad, el incremento de la competitividad y la mejora de la imagen de marca.
@@ -7799,13 +7741,13 @@
         </is>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
+    <row r="278">
+      <c r="A278" t="inlineStr">
         <is>
           <t>https://compartiendoconocimiento.elmundo.es/el-sector-industrial-apuesta-por-lograr-una-produccion-mas-sostenible</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B278" t="inlineStr">
         <is>
           <t>Tal y como confirma el reciente informe ‘CxO Sustainability Report: Accelerating the Green Transition’ de Deloitte, el 67% de los empresarios españoles (61% a nivel global) considera que el cambio climático podría afectar a la estrategia y las operaciones de su empresa en los próximos 3 años . La presión regulatoria relacionada con las emisiones, la escasez de recursos o la propia conciencia ambiental de sus consumidores, entre otros factores, son algunos de estos condicionantes a nivel externo, a los que se suman también la búsqueda de una mayor rentabilidad y eficiencia por parte de los empresarios.
 Los datos no mienten: las empresas buscan cada vez más lograr un modelo de negocio más sostenible, algo especialmente relevante entre aquellas que conforman el sector industrial, ya que representa el 40% del consumo mundial de energía y alrededor del 30% de las emisiones de gases de efecto invernadero. Por ello, lograr una producción más respetuosa con el medioambiente, apoyándose en soluciones disponibles como las relacionadas con el autoconsumo y la eficiencia energética, es ya una prioridad para muchas de estas compañías, tanto fuera como dentro de nuestras fronteras.
@@ -7818,13 +7760,13 @@
         </is>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
+    <row r="279">
+      <c r="A279" t="inlineStr">
         <is>
           <t>https://compartiendoconocimiento.elmundo.es/las-pymes-seran-uno-de-los-principales-objetivos-de-los-ciberataques-en-2023</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>El reciente ciberataque al Hospital Clínic de Barcelona ha vuelto a poner de manifiesto la importancia de contar con medidas de seguridad efectivas, y actualizadas, a la hora de proteger los sistemas de información y comunicación dentro de las instituciones, administraciones y compañías. Y es que de hecho, según Check Point, a nivel mundial los ataques informáticos aumentaron un 38% en el último trimestre de 2022, en comparación con el mismo periodo de 2021, lo que corrobora la tendencia creciente que se está dando en este tipo de delitos.
 En nuestro país, con más de un 98% del tejido empresarial conformado por pymes y micropymes, es especialmente relevante que la ciberseguridad sea uno de los objetivos de la estrategia de la compañía. Y es que, tal y como recalca un informe de la empresa tecnológica Datos 101, 7 de cada 10 ciberataques que se produjeron en España tuvieron a las pymes como objetivo. Esto además supuso para ellas, tal y como también se detalla en el estudio ‘Panorama actual de la ciberseguridad en España: retos y oportunidades para el sector público y privado´ de Google, un coste medio de alrededor de 35.000 euros, a lo que se suman otras consecuencias negativas como el daño reputacional o, incluso, el cese de actividad. De hecho, 6 de cada 10 pymes atacadas tuvieron que echar el cierre tras 6 meses.
@@ -7835,13 +7777,13 @@
         </is>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
+    <row r="280">
+      <c r="A280" t="inlineStr">
         <is>
           <t>https://compartiendoconocimiento.elmundo.es/hasta-donde-puede-ayudar-la-transformacion-digital-a-reducir-los-costes-empresariales</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B280" t="inlineStr">
         <is>
           <t>En los últimos años la tecnología se ha posicionado como la mejor aliada para las empresas a la hora de mejorar su productividad y eficiencia, facilitando la reducción de tiempos en la ejecución de los procesos, automatizando tareas dentro de los mismos o implementando nuevas funcionalidades que aportan un valor extra y que permiten, por ejemplo, ofrecer una mejor experiencia de cliente, entre otros múltiples beneficios.
 Por todo ello, las empresas nacionales no han dudado en sumarse a esta transformación, que les permite reducir costes sin perjuicio de la percepción de valor de su producto o servicio. De ahí que España sea actualmente el séptimo país de Europa y el 23 del mundo en digitalización empresarial, tal y como confirma el último Barómetro de la Economía Digital de Ametic.
@@ -7856,13 +7798,13 @@
         </is>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
+    <row r="281">
+      <c r="A281" t="inlineStr">
         <is>
           <t>https://compartiendoconocimiento.elmundo.es/6-de-cada-10-empresas-espanolas-soportaron-mas-impagos-durante-2022</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B281" t="inlineStr">
         <is>
           <t>El último Estudio de la Gestión del Riesgo de Crédito pone de relieve la inflación como una de las principales causas de morosidad en las empresas, que afirman haber registrado importantes pérdidas de manera significativa en el último año. Por ello, es clave que accedan a soluciones que les permitan mejorar su flujo de caja y su salud financiera.
 La subida de los tipos de interés experimentada en los últimos meses, unida al clima de incertidumbre generalizado y otras acciones concretas, como el fin de periodo de carencia de los créditos ICO y el vencimiento de la moratoria de la Ley Concursal, han hecho que los últimos meses sean especialmente complicados para las pymes españolas. Debido a ello, cada vez más empresarios consideran como prioritario fortalecer su liquidez y flujo de caja, mejorar la gestión del riesgo crediticio, invertir en medidas internas que mejoren su productividad y/o encontrar soluciones financieras que les ayuden a asegurar la estabilidad de la empresa en el futuro. El desfase entre cobros y pagos, junto con la creciente morosidad, ha hecho que muchas pymes se encuentren en este último ejercicio con un problema de falta de liquidez, una de las razones que más precipita el cierre de las empresas de menor tamaño. De hecho, tal y como recoge el estudio, 170.000 empresas creen que podrían cerrar por el impacto de la morosidad. Un dato que pone de manifiesto la imperiosa necesidad de establecer medidas internas desde la dirección que favorezcan una mejor salud financiera, como llevar un exhaustivo control de cobros y pagos, establecer un presupuesto de tesorería que abarque también las necesidades futuras o estudiar soluciones de financiación a través de una entidad financiera.
@@ -7872,13 +7814,13 @@
         </is>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
+    <row r="282">
+      <c r="A282" t="inlineStr">
         <is>
           <t>https://compartiendoconocimiento.elmundo.es/vivencias-empresariales/el-e-commerce-un-aliado-clave-para-el-crecimiento-de-tu-empresa</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B282" t="inlineStr">
         <is>
           <t>El comercio electrónico sigue batiendo récords y es ya una herramienta imprescindible para todas aquellas empresas que quieran seguir creciendo y llegar a nuevos usuarios y mercados.
 Cada vez somos más los que compramos por internet, y además lo hacemos con más frecuencia. De hecho, el número de compradores online en España está en torno a 24’7 millones, habiendo aumentado la penetración de la compra online en el último año hasta alcanzar el 78% de los internautas nacionales de entre 16 y 70 años, según un reciente estudio elaborado por IAB.
@@ -7909,13 +7851,13 @@
         </is>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
+    <row r="283">
+      <c r="A283" t="inlineStr">
         <is>
           <t>https://www.bbva.es/finanzas-vistazo/para-tu-negocio/capacidades-digitales/como-puede-tu-negocio-iniciarse-en-la-venta-online-en-una-semana.html</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t xml:space="preserve">Para dar un golpe de efecto a nuestras ventas online, lo fundamental es pensar en el cliente, escucharle y, sobre todo, cuidar de él. Para poder hacerlo, debemos saber dónde se encuentra. Cada vez es más habitual verle ‘navegar por Internet’, independientemente ya de su edad. ¿El motivo? Ha podido probar y comprobar los beneficios de la compra online. Esta ‘buena experiencia’ ha hecho que quiera seguir ‘formando parte de ella’. Y si el cliente está en Internet, nosotros hemos de seguirle hasta allí.
 De hecho, si miramos a largo plazo veremos que el cliente no “solo” va a acudir a Internet. Su intención es optimizar todos los canales que la red le ofrece. Es cierto que no dejará de recurrir a la venta más física, la de siempre, pero sí dará mayor prioridad a la venta online. Por ello, y sin eliminar de nuestra estructura empresarial los modelos de negocio físicos, hemos de incluir los digitales lo antes posible. Porque nuestros negocios deben estar ‘online’, bien al 100 % o, en su lugar, ser omnicanales. Para ello, y como recomendación, debemos formarnos, adquirir esas capacidades digitales. Es requisito indispensable.
@@ -7923,13 +7865,13 @@
         </is>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
+    <row r="284">
+      <c r="A284" t="inlineStr">
         <is>
           <t>https://www.bbva.es/finanzas-vistazo/para-tu-negocio/vender-en-redes-sociales/como-vender-en-instagram-sin-tener-tienda-online.html</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B284" t="inlineStr">
         <is>
           <t>Visibilidad
 ¿Cómo hacemos para potenciar nuestra actividad en Instagram y, con ello, que nos descubran aquellos usuario que aún no nos conocen? Crearemos contenido de valor, los cuales inspiren a nuestros posibles clientes, ayudándoles a resolver sus problemas, sus necesidades o, también, ofreciendo información adicional sobre los productos que tenemos (desde la más directa a recomendaciones de uso, por ejemplo). Incluso podemos mostrar lo que hay detrás de la empresa (desde el equipo al desarrollo de la actividad). Con ello, se generará esa conexión que buscamos con nuestros seguidores.
@@ -7940,13 +7882,13 @@
         </is>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
+    <row r="285">
+      <c r="A285" t="inlineStr">
         <is>
           <t>https://www.bbva.es/finanzas-vistazo/para-tu-negocio/crear-tu-tienda-online/pasos-previos-para-crear-tu-tienda-online-desde-cero.html</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t xml:space="preserve">1. La oportunidad de negocio
 El primer paso antes de crear nuestra tienda online será realizar un análisis de mercado y de la competencia. Es necesario estudiar detenidamente las necesidades de “nuestro cliente ideal” y las diferentes opciones que existen online actualmente sobre ello. Esto también nos ayudará a definir la propuesta de valor de nuestra tienda online, saber qué hace nuestro producto o servicio diferente del resto y sacarle el mayor partido posible.
@@ -7965,13 +7907,13 @@
         </is>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
+    <row r="286">
+      <c r="A286" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/provincia/detenidos-robar-joven/20230421123419423037.html</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B286" t="inlineStr">
         <is>
           <t>La Guardia Civil ha identificado, localizado y detenido a U.C.V., de 30 años, y J.D.B., de 24 años, como presuntos autores de un delito de robo con violencia, en un intento de atraco a un joven de 20 años de edad.
 Los hechos ocurrieron el viernes de la semana pasada en una localidad de la comarca del Arlanza. La víctima informó que sobre las 19:00 horas de ese día fue abordado por la espalda por dos varones cuando transitaba por el casco urbano de ese municipio. Éstos le agarraron y le exigieron que les diera "todo lo que llevara encima", para lo cual le registraron y golpearon.
@@ -7980,13 +7922,13 @@
         </is>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
+    <row r="287">
+      <c r="A287" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/provincia/detenidos-robar-joven/20230421123419423037.html#comentarios-423037</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B287" t="inlineStr">
         <is>
           <t>La Guardia Civil ha identificado, localizado y detenido a U.C.V., de 30 años, y J.D.B., de 24 años, como presuntos autores de un delito de robo con violencia, en un intento de atraco a un joven de 20 años de edad.
 Los hechos ocurrieron el viernes de la semana pasada en una localidad de la comarca del Arlanza. La víctima informó que sobre las 19:00 horas de ese día fue abordado por la espalda por dos varones cuando transitaba por el casco urbano de ese municipio. Éstos le agarraron y le exigieron que les diera "todo lo que llevara encima", para lo cual le registraron y golpearon.
@@ -7995,13 +7937,13 @@
         </is>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
+    <row r="288">
+      <c r="A288" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/cultura/rock-petreo-the-manana-culture-resuena-canteras-hontoria/20230420184720422983.html</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>Brindaron un aperitivo de su cancionero el pasado septiembre dentro de la programación del Festival Tribu. La formación burgalesa The mañana culture, con las justas sesiones de ensayo realizadas, interpretó algunos de los temas que acaban de publicar en un sorprendente disco de vinilo naranja en una edición limitada de 300 copias. Bravado ya está aquí.
 El recuerdo de aquel mediodía abrasador en la plaza del rey San Fernando creó un hilo de piedra invisible con su música. Si en aquella jornada el telón de fondo de su concierto fue la Seo de Santa María, este sábado será el auditorio Galería La Catedral de las antiguas canteras de Hontoria -de donde salieron las piedras que dieron forma a la Catedral burgalesa- donde tocarán al completo su primer trabajo. En el espectacular espacio que gestiona Patrimonio de Luz, The mañana culture enhebrará ese canal de esencias con sus instrumentos, un regreso a los orígenes que ha hecho la banda burgalesa con las canciones que completan el ‘tracklist’ de Bravado: desde las raíces más puras del rock de los 50 y 60, a la revolución de los 70 pasando por la nueva vuelta de tuerca producida en los 90, fuentes melódicas de las que siguen bebiendo los grupos de hoy una y otra vez.
@@ -8016,27 +7958,34 @@
         </is>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://elcorreodeburgos.elmundo.es/articulo/cultura/rock-petreo-the-manana-culture-resuena-canteras-hontoria/20230420184720422983.html#comentarios-422983</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Brindaron un aperitivo de su cancionero el pasado septiembre dentro de la programación del Festival Tribu. La formación burgalesa The mañana culture, con las justas sesiones de ensayo realizadas, interpretó algunos de los temas que acaban de publicar en un sorprendente disco de vinilo naranja en una edición limitada de 300 copias. Bravado ya está aquí.
+El recuerdo de aquel mediodía abrasador en la plaza del rey San Fernando creó un hilo de piedra invisible con su música. Si en aquella jornada el telón de fondo de su concierto fue la Seo de Santa María, este sábado será el auditorio Galería La Catedral de las antiguas canteras de Hontoria -de donde salieron las piedras que dieron forma a la Catedral burgalesa- donde tocarán al completo su primer trabajo. En el espectacular espacio que gestiona Patrimonio de Luz, The mañana culture enhebrará ese canal de esencias con sus instrumentos, un regreso a los orígenes que ha hecho la banda burgalesa con las canciones que completan el ‘tracklist’ de Bravado: desde las raíces más puras del rock de los 50 y 60, a la revolución de los 70 pasando por la nueva vuelta de tuerca producida en los 90, fuentes melódicas de las que siguen bebiendo los grupos de hoy una y otra vez.
+El primer disco de The mañana culture ha sido producido, grabado y mezclado por el músico y compositor burgalés Samuel Peñas. La voz y las letras -todas en inglés- son de Andrew McAffer y la batería y percusión corre a cargo de Miguel Benito, ‘Pete’. «Para este disco he utilizado muchos instrumentos. Desde varias guitarras, un melotrón, sintetizadores... y un ‘lap steel’ que compré en Los Ángeles y que le da ese sonido americano que me gustó introducir en las canciones», comentó Peñas el pasado septiembre. Para el directo, se unen al trío dos clásicos de la escena burgalesa: Carlos Gutiérrez (bajo) y Nacho Cowabunga (guitarra y teclados).
+Imagen del disco de vinilo de 'Bravado', primer LP de The mañana culture. TMC
+El proyecto llevaba dando vueltas en la cabeza -siempre en ebullición- de Peñas desde 2015, cuando comenzó a componer partes de algunos de los temas que ahora viven en Bravado. Tras producir el EP de regreso del grupo Romeo is Bleeding, fraguó una gran amistad con su cantante, Andrew McAffer, y comenzaron a intercambiar música, gustos e ideas. Pasaron los años y fue el parón de la pandemia lo que empujó a estos artistas a dar salida a sus arrebatos creativos y componer unas cuantas canciones. Lo que en un principio iban a ser cuatro o cinco terminó en un LP con once temas.
+Es difícil enmarcar la música de esta banda en un género definido. Ni falta que hace. La gran cultura musical de sus componentes se plasma en la estructura de las canciones, en pequeños detalles de producción, en el uso de ciertos instrumentos o efectos... especialmente del rock estadounidense en sus diferentes variantes: folk, progresivo, grunge, rock fronterizo o el lado más duro y oscuro de los 70.
+Música e imágenes
+Además de una portentosa producción musical, The mañana culture puede presumir de un original diseño gráfico, obra de Óscar Ortega, y unos videoclips deslumbrantes. El cine de grandes autores como David Lynch y los hermanos Coen o series de televisión como True Detective se dejan entrever en sus fotogramas. Por el momento su pueden disfrutar en su canal de Youtube las piezas audiovisuales de Worst kept secret -realizado por Carlos del Hierro, David Palacín y Jaime Delgado-, Pictures -dirigido por Jairo Pérez López- y Yersterday´s News, rodado en Madrid por Álvar Alonso y que cuenta con la aparición estelar de los ‘heavies’ de la Gran Vía. Además, recientemente hay estrenado el ‘lyric video’ de Interzone de Daniel Domingo y Rodrigo Mena.
+Este jueves hicieron el ensayo general del concierto en un local de Pentasa. A los músicos burgaleses Samuel Peñas, Carlos Gutiérrez y Nacho Cowabunga se unieron los dos residentes en Madrid, Andrew McAffer y Miguel Benito ‘Pete’. Se respiró el nervio y la ilusión que siempre genera un nuevo concierto, el de este sábado además aliñado con el resto del espectáculo que les acompaña -el DJ Almendro Sound Flower e Invierno en Groenlandia, el nuevo proyecto de Jag Stone- y un lugar muy inspirador para que la magia brote y el rock nazca de las piedras como lo hizo el arte siglos atrás.
+Las entradas se pueden adquirir en patrimoniodelaluz.com. Precio de entrada (caña incluida): 15 €. Precio de entrada + bus desde Burgos (caña incluida): 22 €.</t>
+        </is>
+      </c>
+    </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>https://elcorreodeburgos.elmundo.es/articulo/cultura/rock-petreo-the-manana-culture-resuena-canteras-hontoria/20230420184720422983.html#comentarios-422983</t>
+          <t>https://elcorreodeburgos.elmundo.es/articulo/burgos/cerca-30000-trabajadores-siguen-pendientes-renovar-convenios/20230420173719422974.html</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
-        <is>
-          <t>Brindaron un aperitivo de su cancionero el pasado septiembre dentro de la programación del Festival Tribu. La formación burgalesa The mañana culture, con las justas sesiones de ensayo realizadas, interpretó algunos de los temas que acaban de publicar en un sorprendente disco de vinilo naranja en una edición limitada de 300 copias. Bravado ya está aquí.
-El recuerdo de aquel mediodía abrasador en la plaza del rey San Fernando creó un hilo de piedra invisible con su música. Si en aquella jornada el telón de fondo de su concierto fue la Seo de Santa María, este sábado será el auditorio Galería La Catedral de las antiguas canteras de Hontoria -de donde salieron las piedras que dieron forma a la Catedral burgalesa- donde tocarán al completo su primer trabajo. En el espectacular espacio que gestiona Patrimonio de Luz, The mañana culture enhebrará ese canal de esencias con sus instrumentos, un regreso a los orígenes que ha hecho la banda burgalesa con las canciones que completan el ‘tracklist’ de Bravado: desde las raíces más puras del rock de los 50 y 60, a la revolución de los 70 pasando por la nueva vuelta de tuerca producida en los 90, fuentes melódicas de las que siguen bebiendo los grupos de hoy una y otra vez.
-El primer disco de The mañana culture ha sido producido, grabado y mezclado por el músico y compositor burgalés Samuel Peñas. La voz y las letras -todas en inglés- son de Andrew McAffer y la batería y percusión corre a cargo de Miguel Benito, ‘Pete’. «Para este disco he utilizado muchos instrumentos. Desde varias guitarras, un melotrón, sintetizadores... y un ‘lap steel’ que compré en Los Ángeles y que le da ese sonido americano que me gustó introducir en las canciones», comentó Peñ</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>https://elcorreodeburgos.elmundo.es/articulo/burgos/cerca-30000-trabajadores-siguen-pendientes-renovar-convenios/20230420173719422974.html</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
         <is>
           <t>Cerca de 30.000 trabajadores de la provincia de Burgos están pendientes de la renovación de sus convenios colectivos, dentro de un contexto de aumento de precios que genera más complicaciones a las economías familiares.
 Dentro de este colectivo, el sindicato CCOO exige que se adecue el salario mínimo interprofesional (SMI) para 81 categorías profesionales que afectan a cerca de 15.000 trabajadores en la provincia de Burgos. Para el secretario provincial de CCOO, Juan Núñez, es "incomprensible e inaudito" que la patronal "se mantenga" en una posición de inmovilismo que lo que hace es "acentuar" la posición de "debilidad" de los trabajadores que cobran los salarios más bajos. Una situación que también sirve para avisar a la patronal de que puede aumentar "la conflictividad laboral y social".
@@ -8047,13 +7996,13 @@
         </is>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
+    <row r="291">
+      <c r="A291" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/burgos/cerca-30000-trabajadores-siguen-pendientes-renovar-convenios/20230420173719422974.html#comentarios-422974</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>Cerca de 30.000 trabajadores de la provincia de Burgos están pendientes de la renovación de sus convenios colectivos, dentro de un contexto de aumento de precios que genera más complicaciones a las economías familiares.
 Dentro de este colectivo, el sindicato CCOO exige que se adecue el salario mínimo interprofesional (SMI) para 81 categorías profesionales que afectan a cerca de 15.000 trabajadores en la provincia de Burgos. Para el secretario provincial de CCOO, Juan Núñez, es "incomprensible e inaudito" que la patronal "se mantenga" en una posición de inmovilismo que lo que hace es "acentuar" la posición de "debilidad" de los trabajadores que cobran los salarios más bajos. Una situación que también sirve para avisar a la patronal de que puede aumentar "la conflictividad laboral y social".
@@ -8064,13 +8013,13 @@
         </is>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
+    <row r="292">
+      <c r="A292" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/deportes/copa-mundo-2010-llega-burgos-motivo-cien-anos-fcylf/20230419125912422782.html</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B292" t="inlineStr">
         <is>
           <t>La real Federación de Castilla y León de Fútbol organiza en Burgos 10 jornadas plagadas de actividades que conmemoran los cien años de historia de la federación. Entre ellos, destaca el desembarco en Burgos del trofeo levantado por Iker Casillas en el Mundial de Sudáfrica de 2010, que estará expuesto el sábado en el Monasterio de San Juan hasta las 21 horas.
 Los eventos de celebración comenzarán el 20 de abril con la inauguración de la exposición «El fútbol de tu vida» en el Monasterio de San Juan, que estará abierta al público desde el viernes 21 de abril en horario de 11 a 14 y de 17 a 21 horas, hasta el 29 del mismo mes con entrada gratuita. En ella se podrán contemplar recuerdos, fotografías, balones, botas de fútbol y todo tipo de objetos relativos al fútbol regional.
@@ -8081,13 +8030,13 @@
         </is>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
+    <row r="293">
+      <c r="A293" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/deportes/copa-mundo-2010-llega-burgos-motivo-cien-anos-fcylf/20230419125912422782.html#comentarios-422782</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
+      <c r="B293" t="inlineStr">
         <is>
           <t>La real Federación de Castilla y León de Fútbol organiza en Burgos 10 jornadas plagadas de actividades que conmemoran los cien años de historia de la federación. Entre ellos, destaca el desembarco en Burgos del trofeo levantado por Iker Casillas en el Mundial de Sudáfrica de 2010, que estará expuesto el sábado en el Monasterio de San Juan hasta las 21 horas.
 Los eventos de celebración comenzarán el 20 de abril con la inauguración de la exposición «El fútbol de tu vida» en el Monasterio de San Juan, que estará abierta al público desde el viernes 21 de abril en horario de 11 a 14 y de 17 a 21 horas, hasta el 29 del mismo mes con entrada gratuita. En ella se podrán contemplar recuerdos, fotografías, balones, botas de fútbol y todo tipo de objetos relativos al fútbol regional.
@@ -8098,13 +8047,13 @@
         </is>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
+    <row r="294">
+      <c r="A294" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/burgos/tienda-devoluciones/20230318194833420040.html</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
+      <c r="B294" t="inlineStr">
         <is>
           <t>La compra de lotes de devoluciones de Amazon es una fórmula de reforzar el sueldo mediante su venta en aplicaciones de segunda mano que ha generado mucha curiosidad. Hay quien, como Javier Hernando, lo elevó a categoría de negocio entrando en subastas de trailers en vez de lotes y palets y se ocurrió saltar de las apps de venta on line de productos de segunda mano a la tienda física. Ha sido un éxito porque de comprar un tráilers de productos devueltos cada diez días ha pasado a adquirir tres a la semana ante el furor generado al abrir la tienda. «No pensé que el rendimiento iba a ser tan alto en tan poco tiempo e iba a retroalimentar tanto la tienda física y la on line», explica Javier Hernando.
 Y en la mezcla de estas dos formas de comprar ha encontrado la fórmula del éxito. Ha multiplicado por tres su actividad y, por tanto, el proceso de subasta se ha acelerado. Algo que no es fácil de gestionar. Cuando la furgoneta llega a la tienda The Good Packets en la calle San Pablo, a descargar productos, hay un camino previo de adquisición, revisión y puesta a punto.
@@ -8120,13 +8069,13 @@
         </is>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
+    <row r="295">
+      <c r="A295" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/burgos/tienda-devoluciones/20230318194833420040.html#comentarios-420040</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
+      <c r="B295" t="inlineStr">
         <is>
           <t>La compra de lotes de devoluciones de Amazon es una fórmula de reforzar el sueldo mediante su venta en aplicaciones de segunda mano que ha generado mucha curiosidad. Hay quien, como Javier Hernando, lo elevó a categoría de negocio entrando en subastas de trailers en vez de lotes y palets y se ocurrió saltar de las apps de venta on line de productos de segunda mano a la tienda física. Ha sido un éxito porque de comprar un tráilers de productos devueltos cada diez días ha pasado a adquirir tres a la semana ante el furor generado al abrir la tienda. «No pensé que el rendimiento iba a ser tan alto en tan poco tiempo e iba a retroalimentar tanto la tienda física y la on line», explica Javier Hernando.
 Y en la mezcla de estas dos formas de comprar ha encontrado la fórmula del éxito. Ha multiplicado por tres su actividad y, por tanto, el proceso de subasta se ha acelerado. Algo que no es fácil de gestionar. Cuando la furgoneta llega a la tienda The Good Packets en la calle San Pablo, a descargar productos, hay un camino previo de adquisición, revisión y puesta a punto.
@@ -8142,26 +8091,26 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://elcorreodeburgos.elmundo.es/album/burgos/devoluciones-amazon-asi-recibe-repara-venden-productos-devueltos/20230318192626420031.html</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>19 de marzo de 2023, 5:30
+Fotos: © EL CORREO DE BURGOS / TOMÁS ALONSO</t>
+        </is>
+      </c>
+    </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>https://elcorreodeburgos.elmundo.es/album/burgos/devoluciones-amazon-asi-recibe-repara-venden-productos-devueltos/20230318192626420031.html</t>
+          <t>https://elcorreodeburgos.elmundo.es/articulo/burgos/como-ganar-dinero-burgos-compra-devoluciones-amazon-consejos-expertos/20230307185359419036.html</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
-        <is>
-          <t>19 de marzo de 2023, 5:30
-Fotos: © EL CORREO DE BURGOS / TOMÁS ALONSO</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>https://elcorreodeburgos.elmundo.es/articulo/burgos/como-ganar-dinero-burgos-compra-devoluciones-amazon-consejos-expertos/20230307185359419036.html</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
         <is>
           <t>Javier Hernando, un emprendedor inquieto en la búsqueda de negocios singulares, ha encontrado una nueva oportunidad en la compra y venta de devoluciones de Amazon. Después de probar con un par de palets de artículos devueltos, se dio cuenta de que no perdía mucho dinero y decidió perfeccionar el proceso de compra en subastas virtuales de diferentes compañías.
 Además, ha desarrollado un sistema eficiente para la recepción, gestión y arreglo de los productos, así como para su venta en aplicaciones de segunda mano y reciclaje.
@@ -8221,13 +8170,13 @@
         </is>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
+    <row r="298">
+      <c r="A298" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/burgos/atapuerca-asesinato-canibalismo/20230318183612420017.html</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
+      <c r="B298" t="inlineStr">
         <is>
           <t>Hace 1,3 millones de años, nuestros antepasados de la Sierra de Atapuerca se comían los unos a los otros. Elegían las mejores tajadas, se rebañaban los huesos royéndolos con dientes palos y piedras y chupaban, golosos, el tuétano. Un festín antropófago que se ha documentado en la sierra burgalesa en un momento de la prehistoria medio millón de años anterior al resto del mundo fósil. Hasta en eso los homínidos de Atapuerca fueron pioneros.
 No se trataba de un aprovechamiento puntual de un cadáver sino que el Homo antecessor, que poblaba la sierra hace más de un millón de años era caníbal por naturaleza. Practicaba el canibalismo de forma cultural y generalizada. Así lo prueban las teorías basadas en los restos hallados en la Sima del Elefante.
@@ -8250,13 +8199,13 @@
         </is>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
+    <row r="299">
+      <c r="A299" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/burgos/atapuerca-asesinato-canibalismo/20230318183612420017.html#comentarios-420017</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
+      <c r="B299" t="inlineStr">
         <is>
           <t>Hace 1,3 millones de años, nuestros antepasados de la Sierra de Atapuerca se comían los unos a los otros. Elegían las mejores tajadas, se rebañaban los huesos royéndolos con dientes palos y piedras y chupaban, golosos, el tuétano. Un festín antropófago que se ha documentado en la sierra burgalesa en un momento de la prehistoria medio millón de años anterior al resto del mundo fósil. Hasta en eso los homínidos de Atapuerca fueron pioneros.
 No se trataba de un aprovechamiento puntual de un cadáver sino que el Homo antecessor, que poblaba la sierra hace más de un millón de años era caníbal por naturaleza. Practicaba el canibalismo de forma cultural y generalizada. Así lo prueban las teorías basadas en los restos hallados en la Sima del Elefante.
@@ -8279,6 +8228,27 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://elcorreodeburgos.elmundo.es/articulo/cultura/dia-libro-burgos-es-fiesta-plenamente-consolidada/20230421134019423049.html</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Cuando se va acercando el Día del Libro en el calendario, siempre en rojo al coincidir con el Día de Castilla y León, quedamos con el presidente de la Asociación Provincial de Libreros, Álvaro Manso Ortiz, para comentar los pormenores de la jornada. Y el comienzo de la conversación siempre versa sobre el mismo tema: el tiempo, lo que parece más una banal charla de ascensor que un animado diálogo sobre novedades, autores y el transcurrir diario de estos comercios culturales. «Es un evento que se hace al aire libre y en Burgos sabemos que eso tiene sus inconvenientes», apunta Manso. Este 2023, crucemos los dedos, parece que no avistaremos por la plaza los plásticos volando sobre los puestos y los paraguas del personal coloreando un cielo muy oscuro como hace doce meses. Veremos.
+Según la previsión de la Agencia Estatal de Meteorología, nubes, claros e incluso unas pocas gotas de lluvia adornadas por una temperatura de hasta 21 grados amenizarán este domingo. «Eso he visto, puede que haya algo de lluvia... Espero que sea poco o nada, para eso los libreros estamos preparados. Otra cosa es un chaparrón como el del año pasado, que nos hizo recoger los puestos», señala.
+La pandemia fue el golpe durísimo para el pequeño comercio, aunque para el sector del libro acabó siendo una oportunidad. Además de poner en marcha la web todostuslibros.com, a la que varios negocios de Burgos están asociados, los lectores más fieles y otros que estaban desaparecidos de las librerías desde hace tiempo auparon las ventas tras el confinamiento en porcentajes increíbles. Parece que ese tiempo helado, entre otros aspectos de nuestro día a día, nos hizo ver la importancia didáctica y emocional de la lectura en nuestras vidas.
+«Los años 2020 y 2021 en España fueron espectaculares tanto en ventas como en la apertura de nuevas librerías, revirtiendo los datos de los últimos tiempos», indica Manso. Este año se han unido a la Asociación de Libreros de Burgos dos nuevos establecimientos: Carlibur, sito en la avenida del Cid, y Control-C, en la calle San Pedro y San Felices.
+Libros y flores
+Doce librerías instalarán sus mesas este domingo en la plaza Mayor para ofrecer una selección del género que tienen en sus respectivos establecimientos. Las últimas novedades, los ‘bestsellers’ de siempre, clásicos de ayer y hoy, los más destacados cómics y obras de autores burgaleses y sobre temas de la provincia -que siempre tienen un gran tirón- llenarán los puestos del enlosado ofreciendo el clásico 10% de descuento en el precio final de sus compras. «Sin olvidarnos de la literatura infantil y juvenil. El Día del Libro es un día muy familiar y, si los padres son lectores, habitualmente también lo son los hijos. Cada vez hay más autores, más variedad, mejores libros editados... Y en Burgos tenemos varias librerías especializadas en libros para niños y jóvenes como no las hay en muchas ciudades de nuestro tamaño», subraya Álvaro Manso.
+Librerías presentes
+Establecimientos de diferentes barrios de la ciudad instalarán sus mesas y su carpas en zoco burgalés a primera hora de la mañana. A las 11.30 darán los buenos días a los primeros clientes para despedir a los últimos a las 8 de la tarde, seguro que con bolsas bien cargadas. En 2023 estarán presentes La Llave, Librería del Espolón, Dina 4, La Silla Mágica, Mar de Hojas, Hijos de Santiago Rodríguez, Margof, Luz y Vida, Lyda, Música y Deportes, Bosque de Letras y Carlibur, que es novedad en esta edición.
+«El Día del Libro en Burgos está plenamente consolidado», confirma el librero de Luz y Vida y portavoz de la Confederación Española de Gremios y Asociaciones de Libreros, CEGAL. «Este año cae en domingo y por nuestra parte no cambia nada, porque en Burgos es festivo por el Día de la Comunidad. Pero sabemos que cuando más público va a la Feria es durante los fines de semana y a esto podemos añadir que habrá mucho turista en la ciudad que se pueda acercar a vernos», añade. «Aragoneses, catalanes, vascos, madrileños... son gente con la costumbre del regalo del libro y la flor en este día, algo que también se está afianzando aquí, ese concepto de ‘regalar un libro más allá de que yo me compre el mío». A los libreros les acompañará un año más un puesto de venta de flores regentado por la Asociación de Floristas y Jardineros de Burgos (Flojabur) con sus rosas dando color y aroma a la cita libresca.
+Esta festividad del 23 de Abril siempre es el aperitivo que sirven los libreros a los lectores burgaleses mientras esperan la llegada de la Feria del Libro. «Este año se va a celebrar del 25 de mayo al 4 de junio. Poco a poco vamos haciendo el programa de actividades y viendo la lista de autores que queremos traer, aunque hasta que pase Sant Jordi no podremos empezar a confirmar</t>
+        </is>
+      </c>
+    </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
@@ -8338,42 +8308,10 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>https://elcorreodeburgos.elmundo.es/articulo/laposada/cumpanis-brilla-primer-sol/20220413210320394185.html</t>
+          <t>https://elcorreodeburgos.elmundo.es/articulo/innovadores/hidrogeno-verde-combustible-futuro/20230313220149419590.html</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
-        <is>
-          <t>Un anuncio de Karlos Arguiñano le cambió la vida. Tenía 17 años. Hoy David Mota y Pilar Velasco pueden presumir de ser el único restaurante de La Ribera en contar con un Sol de Repsol, la mayor distinción nacional en gastronomía.
-Pero volvamos al principio, a aquel día donde David decidió que su futuro iba a ser la cocina. «Acababa de llegar a casa tras intentar apuntarme en la Escuela del Lago de Madrid pero no había plazas y no sabía qué hacer. Estaba frustrado, hablando con mi padre, cuando de repente salió Arguiñano por la tele anunciando su escuela. Ahí lo vi claro, no había ido en mi vida al norte pero me iba a vivir a Zarauz».
-En la escuela, el destino hizo el resto al conocer allí a la que hoy es su socia y con la que ha formado una familia, Pilar Velasco Arrabal. Terminada la formación, comenzaba una aventura que le llevó primero a Madrid (a Pan de Lujo, de Alberto Chicote, y por la cocina casera pero muy elaborada de Nino Redruello, del grupo La Ancha, donde por su cercanía al Congreso de los Diputados eran asiduos los políticos de todos los colores) y luego a Cantabria. «Yo entiendo la cocina como una evolución continua en la que cada dos o tres años hay que hacer un cambio gradual porque si no caes en la monotonía y eso es horrible. Así llegó un momento en que quería un cambio, queríamos seguir aprendiendo y decidimos irnos a Villaverde de Pontones donde empecé con Cenador de Amós (tres estrellas Michelin). Cuando llevaba un año, me llamó para ser su segundo, Sergio Bastard, que acaba de lograr su estrella Michelin. Ahí ya teníamos claro que queríamos montar algo pero primero necesitábamos ver que funcionábamos juntos en un restaurante con toda la tensión de un servicio».
-Por suerte, ambos superaron la prueba y dos años después comenzaron a buscar locales. «Elegimos Aranda de Duero porque además de ser el pueblo de mi mujer es un sitio con muchísima vida en el que nuestra cocina podía encajar muy bien con la gente de fuera pero sobre todo, con el cliente autóctono porque era algo distinto al tradicional lechazo, que por otra parte, está riquísimo».
-Sin embargo, la obra se retrasó durante cuatro largos años en los que compaginó el nacimiento de su hijo, con la reforma y con dos proyectos que le dejaron huella: la familia Solana, a la que recuerda con mucho cariño, y Desencaja, en Paseo de Habana de Madrid (donde estuvo de jefe de cocina).
-UNA AVENTURA CULINARIA
-Ubicado en pleno centro de Aranda, en la peatonalizada plaza de la Constitución, Cumpanis invita a la aventura culinaria con una propuesta variada en la que se puede encontrar un sinfín de estilos. «Soy un chaval que le flipa cocinar, que está en constante evolución y al que le encanta tocar todos los palos desde asiática, mejicana, nikkei, mediterránea... Por eso, si no estoy cocinando, estoy leyendo».
-Si en la escuela de cocina aprendió disciplina, con los restaurantes por lo que ha pasado ha interiorizado lo que es la exigencia. «He intentado captar lo mejor de cada uno tanto en la cocina como en la manera de gestionar».
-Soy un chaval que le flipa cocinar, que está en constante evolución y al que le encanta tocar todos los palos desde asiática, mejicana, nikkei, mediterránea... Por eso, si no estoy cocinando, estoy leyendo
-Él asegura cocinar con intuición. «Hay platos que no hace falta ni probar porque al final es como una paleta de colores, en los que sabes que tiene que estar bueno». Al frutero le vuelve loco. «No siempre podemos encontrar lo que quiero pero desde luego ellos lo intentan».
-La decoración no se puede pasar por alto y al recrearse sobre un antiguo banco, las cámaras acorazadas (las puertas son impresionantes) prometen planes a largo plazo.
-Abierto desde septiembre de 2018, los primeros meses fueron muy buenos. Sin embargo, no contaban con que una pandemia mundial iba a cambiarlo todo. «Han sido dos años muy difíciles pero ahora que ya está todo más tranquilo hemos recuperado ritmo y la gente tiene ganas de disfrutar».
-CAMBIO DE CARTA
-Buscando el lado positivo de las cosas, la pandemia ha traído el código QR. «Es un gran avance porque te permite cambiar la carta cuando quieras, sin depender del gasto de imprenta, que siempre te obligaba a ser más fijo. Nosotros ahora, todas las semanas hay dos o tres platos distintos y eso da mucho juego».
-Pero, ¿qué platos son obligados en Cumpanis? «La torrija sin lugar a dudas. La gente viene expresamente preguntando por ella; luego están las bravas, las croquetas, los buñuelos de bacalao; los tomates pasificados que me chiflan (los pasamos por almíbar de soja y reducimos en la deshidratadora hasta que se concentra el sabor) y luego hay otros que van y vuelven al banquillo, como el turrón de foie, que ahora va a volver, o el canelón de aguacate, que aunque es muy difícil de conseguir porque hay que cogerlo en su momento justo de maduración, y no es fácil encontrarlo, a la gente le encanta», detalla sin olvidar una máxima en su cocina: respetar al máximo el producto y guiarse por la temporada.
-PILAR, UN VALOR AÑADIDO
-Si David es el alma de la cocina, Cumpanis no se entendería sin Pilar que aunque ahora está en sala aporta un importante valor añadido tras pasar por Íñigo Lavado (Irún), Kulto al plato (Madrid), Casona del Judío y La Sal (Santander) y Ramsés (Madrid).
-Sus vidas cambiaron el pasado verano, cuando entró por la puerta una de las críticas gastronómicas de la Guía Repsol. Aunque ellos no lo supieron hasta mucho más tarde, lo habían logrado: iban a recibir su primer Sol. «Cuando nos lo dijeron nos volvimos locos de alegría».
-Para el comensal hay tres opciones: el menú diario, la carta y un menú degustación que con el premio se «está pidiendo mucho»
-Tras recoger el galardón el pasado 28 de febrero en Donosti, de la mano de su primer mentor, Martín Berasategui, el teléfono no dejó de sonar. «Fue impresionante, amigos, periodistas… hasta la web se nos bloqueó», recuerda. Hoy, algo más tranquilos, tienen la agenda llena con una semana de antelación. «El premio se ha notado muchísimo».
-Abren de martes a domingo, todos los mediodías y las noches del viernes y del sábado. Para el comensal hay tres opciones: el menú diario, la carta y un menú degustación que con el premio se «está pidiendo mucho». «Este premio es un impulso pero también una responsabilidad que estamos dispuestos a afrontar cada día. ¡Vamos a por el segundo!», concluye.</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>https://elcorreodeburgos.elmundo.es/articulo/innovadores/hidrogeno-verde-combustible-futuro/20230313220149419590.html</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
         <is>
           <t>Desde hace décadas, se ha experimentado con posibles combustibles y carburantes menos contaminantes que los que se utilizan mayoritariamente en la actualidad, pero ahora, debido a la crisis energética y el cambio climático, este tipo de investigaciones se han convertido en una necesidad acuciante.
 El proyecto ‘ValorH2’ se trata de una iniciativa gestionada por el Centro para el Desarrollo Tecnológico Industrial (CDTI), dependiente del Ministerio de Ciencia e Innovación, para financiar proyectos de I+D+i empresarial y mejorar la competitividad de las compañías españolas.
@@ -8394,13 +8332,13 @@
         </is>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
+    <row r="306">
+      <c r="A306" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/mundo-agrario/asi-cuida-adiestra-perro-ovejero-mejor-companero-trabajo-pastor/20230131142219415818.html</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr">
+      <c r="B306" t="inlineStr">
         <is>
           <t>En función de la raza pueden ser grandes o medianos, pero en general son musculosos, ágiles y sobre todo, muy inteligentes. Son los perros ovejeros y su función es principal a la hora de ayudar al pastor a controlar y mover la cabaña. Hoy descubrimos cómo se adiestran con Alberto Frías Cuesta, un ganadero de Revilla Vallejera. “Aquí comenzamos con el adiestramiento a los seis meses. Se empieza con lo básico: obediencia y que esté a nuestro lado. Es fundamental que te vaya siguiendo y que no se vaya por el campo”.
 Al año llega la gran prueba: sacarlo con las ovejas. “Al principio los sacamos con perros ya expertos para que los copien y luego es ir, poco a poco, viendo cómo reacciona. En cuanto ves que puede estar preparado, le dejas ir solo a ver cómo responde a las órdenes”.
@@ -8425,13 +8363,13 @@
         </is>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
+    <row r="307">
+      <c r="A307" t="inlineStr">
         <is>
           <t>https://elcorreodeburgos.elmundo.es/articulo/mundo-agrario/corzo-es-animal-que-mas-dano-hace-vinedo-superpoblacion-afecta-mas-zonas/20230126113519415455.html</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
+      <c r="B307" t="inlineStr">
         <is>
           <t>Si comparamos los datos de Agroseguro de 2022 con los de 2021, el daño que los animales provocan en el campo de Burgos y de Castilla y León preocupa cada vez más a agricultores y viticultores.
 Los cultivos más afectados son los herbáceos, seguidos por el viñedo. En Burgos, en 2022 los animales dañaron un total de 5.355 hectáreas, 2.252 más que el año anterior. Por cultivos, el 97% fueron herbáceos, seguidos muy de lejos por el viñedo.
@@ -8453,6 +8391,19 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://diariodecastillayleon.elmundo.es/articulo/castilla-y-leon/manueco-resalta-que-premios-castilla-leon-son-cita-ineludible-que-que-estar-honrar-nuestros-mejores/20230421135204069684.html</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>El presidente de la Junta, Alfonso Fernández Mañueco, afirmó hoy que los Premios Castilla y León son “una cita ineludible, en la que hay que estar para honrar a la sociedad” de la Comunidad, a “nuestros mejores”, a cuyos galardonados se refirió como “un conjunto de galardonados que siempre es singular y excelente". Fernández Mañueco arrancó así su discurso en la entrega de los Premios Castilla y León 2022, que consideró “una tradición” en “la antesala” de la celebración del Día de la Comunidad el 23 de abril en Villalar de los Comuneros, pero que calificó de “cita ineludible” para “honrar a los mejores”, después de las ausencias este año de todo el arco de la oposición parlamentaria, excepto Soria Ya, sindicatos y la delegada del Gobierno, Virginia Barcones.
+Según el presidente, se trata de un acto para reconocer a los galardonados “como ejemplos de esfuerzo y constancia y referentes de saber, autoridad y buen consejo”. “Sois un orgullo para nuestra Comunidad, a la que aportáis identidad, categoría y prestigio. Muchas gracias por ello”.</t>
+        </is>
+      </c>
+    </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
@@ -8600,17 +8551,30 @@
 La canción Porque fuimos, que fue el primer single de su último disco, amaneció como un himno nada más publicarse.Yel videoclip tuvo una gran repercusión por su formato de película musical y las otras dos voces que acompañan a Serrano: Clara Alvarado y Litus. «La letra ya contiene cierta épica de estos tiempos que nos ha tocado vivir. La canción tiene una vocación coral y diría casi de musical, de gente que se encuentra y que celebra el futuro en un contexto difícil... Me apetecía mucho hacerlo con Litus y Clara que, además de unas estupendas voces, tienen experiencia en el teatro musical», explica. También colaboran en otros temas del disco Ede, Jimena Ruiz Echazú y Pablo Alborán.
 En Seremos también destaca el buen número de canciones que navegan con un ritmo muy animado y hasta bailable, algo que destierra ese tópico de la canción de autor lenta y tristona. «Desde La llamada hay una búsqueda, casi un reto, a la hora de componer canciones desde el ritmo y no tanto desde la melodía. Por ejemplo, Fahrenheit 451 tiene algo de cumbia, Adiós tienes ecos de México... Me interesa coger ritmos que son muy populares, jugar con el folclore, pero siempre dando una vuelta potente a esa música con un mensaje social y político».
 MÚSICA Y TEATRO
-El espectáculo que trae Ismael Serrano este domingo a Burgos es, como todo lo que está ocurriendo ahora en los escenarios, diferente. Tanto el público de la platea como los artistas que están sobre las tablas han cambiado su mirada por el aldabonazo que nos ha dado la covid a nuestra existencia. «A mí, además de cantar mis canciones, me gusta contar historias que ayuden a contextualizar sus textos con un vuelo poético... Y cada vez he ido teatralizando más mis espectáculos, y en esta gira hemos dado un paso más», explica. «Comienza como una entrevista con una voz en off, pero a lo largo del concierto va tornando en un viaje en el tiempo desde mis inicios en la música hasta ahora, visitando a las canciones en ese trayecto... La voz preciosa que grabó la actriz Elena Ballesteros me da la ré</t>
+El espectáculo que trae Ismael Serrano este domingo a Burgos es, como todo lo que está ocurriendo ahora en los escenarios, diferente. Tanto el público de la platea como los artistas que están sobre las tablas han cambiado su mirada por el aldabonazo que nos ha dado la covid a nuestra existencia. «A mí, además de cantar mis canciones, me gusta contar historias que ayuden a contextualizar sus textos con un vuelo poético... Y cada vez he ido teatralizando más mis espectáculos, y en esta gira hemos dado un paso más», explica. «Comienza como una entrevista con una voz en off, pero a lo largo del concierto va tornando en un viaje en el tiempo desde mis inicios en la música hasta ahora, visitando a las canciones en ese trayecto... La voz preciosa que grabó la actriz Elena Ballesteros me da la réplica para dialogar conmigo mismo sobre el paso del tiempo, el futuro, las peleas que uno perdió, la necesidad de seguir hacia delante a pesar del cansancio...», concluye.
+Ismael Serrano estará acompañado por el pianista Jacob Sureda y la violonchelista Irene Rouco sobre el kilómetro cero del escenario del auditorio de Cultural Caja de Burgos. Allí repasará su último trabajo y un buen número de canciones de sus anteriores discos, esas que desde hace años forman parte de la memoria sentimental de varias generaciones que continúan escuchándolas sintiéndose «los amos del mundo».</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
+          <t>https://diariodecastillayleon.elmundo.es/articulo/la-posada/cocina-rural-sitio-historico/20230421100152069662.html</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>es ese lugar que forma parte de la historia de España, con una batalla que fue trascendental para el desenlace de la guerra de la Independencia española. A apenas unos minutos del restaurante El Cruce, que dirige Inmaculada Martín, se encuentra uno de los lugares históricos más frecuentados por los turistas gracias a una buena señalización al aula de interpretación y a la profusa decoración alusiva a la batalla en todo el pueblo. El restaurante forma parte de esa infraestructura tan necesaria en el medio rural y, fundamentalmente, en este enclave, donde coinciden la Nacional 630 y la Autovía Ruta de la Plata, a quince minutos de Salamanca., una tapa en el mostrador y un tentempié. Bocadillos, montaditos, hamburguesas, sándwiches y raciones completan una comanda popular a la que se unen los menús del día en un servicio de 24 horas en el que se puede comer de 13 a 15 euros. Muchas veces nos cuesta digerir el valor de este tipo de cocina que garantiza el consumo de platos de la cocina popular como las croquetas, empanadillas, ensaladilla rusa, las gambas al ajillo y los obligados embutidos salmantinos. Con una peculiaridad que Inmaculada apunta como algo propio: que parte de las carnes rojas proceden de la ganadería familiar situada en el campo charro. Inmaculada abandonó la toga de magistrada interina para ‘sentar jurisprudencia’ en la hostelería rural dando empleo a muchas mujeres del entorno que hoy forman parte de la brigada de cocina y de sala en sus establecimientos del célebre Cruce de Arapiles. Sin duda,. A veces no nos damos cuenta de la importancia que tienen este tipo de restaurantes rurales a pie de carretera, que solucionan el verdadero problema que nos asiste en muchos pueblos, el que podamos contar con un lugar donde poder comer a diario sin más pretensiones que defender una comanda para todos los públicos todos los días del año.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
           <t>https://diariodecastillayleon.elmundo.es/articulo/mundo-agrario/agricultura-convoca-consejo-agrario-castilla-leon-opas-demandan-mas-interlocucion/20230418111142069422.html</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr">
+      <c r="B317" t="inlineStr">
         <is>
           <t>La Consejería de Agricultura, Ganadería y Desarrollo Rural ha convocado el primer Consejo Agrario para el próximo 20 de abril, tras las ‘elecciones del campo’, cinco meses después del último encuentro. Las Organizaciones Profesionales Agrarias (Opas), que confirmaron la misma representatividad de los cinco años anteriores –tres representantes para Asaja, dos para la Alianza UPA-Coag y uno para UCCL– han sido unánimes en demandar más interlocución por parte de la Consejería. Se quejan de que desde la formación del nuevo Gobierno autonómico han sido pocas las sesiones tanto del Consejo Agrario como de distintas mesas sectoriales. Eso sin tener en cuenta que desde la convocatoria de elecciones autonómicas, en diciembre de 2021, hasta el mes de junio de 2022, no hubo ninguna reunión.
 «Falta interlocución con la Consejería. El último Consejo Agrario regional se ha celebrado el 15 de noviembre de 2022 y estamos a mediados de abril de 2023, cinco meses sin reunirse de manera oficial», explica, en respuesta a este periódico, el presidente de Asaja Castilla y León, Donaciano Dujo. «Era costumbre tener una reunión la Consejería y las Opas con el presidente de la Junta todos los años, o un par de ellas, y en el último año, desde la toma de posesión de este Gobierno, no se ha celebrado».
@@ -8630,13 +8594,13 @@
         </is>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
+    <row r="318">
+      <c r="A318" t="inlineStr">
         <is>
           <t>https://diariodecastillayleon.elmundo.es/articulo/la-quinta-esquina/empleo-debera-devolver-100-millones-ano-ayudas-europeas-ejecutadas/20221125120332059578.html</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr">
+      <c r="B318" t="inlineStr">
         <is>
           <t>Las relaciones entre los representantes del Diálogo Social y Vox, uno de los socios de gobierno en coalición de la Junta, no siguen tirantes, sino que son inexistentes. Los sindicatos UGT y CCOO convocan este domingo en todas las capitales de provincia de Castilla y León y en El Bierzo manifestaciones sindicales «para defender la democracia y pedir a la Junta que cumpla los acuerdos firmados en el seno del Diálogo Social».
 Invitado en el programa La Quinta Esquina de La 8 de Valladolid, EL MUNDO DE CASTILLA Y LEÓN y Castilla y León EsRadio el secretario general de UGT Castilla y León, Faustino Temprano, lamentó los incumplimientos del ejecutivo regional, por la parte de Vox una vez que en verano el presidente Alfonso Fernández Mañueco les mostró el compromiso de ejecutarlos: «Respetar todos los acuerdos del Diálogo Social que estuvieran firmados, en segundo lugar que para cada una de las consejerías nos reuniéramos para ver cómo estaba la situación partiendo de la base que el Diálogo Social en Castilla y León no solamente es firmar acuerdos, es tener un montante presupuestario y hacer seguimiento de cada una de las partidas». En la citada reunión estuvo presente, afirma, el vicepresidente de la Junta, Juan García Gallardo, pero meses después este órgano sigue bloqueado por parte de una consejería la de Empleo, que dirige Mariano Veganzones y al que piden el cese. «No solamente no ha cumplido en convocar a la Comisión Permanente que es la que tiene que coordinar todos los temas a discusión, sino que es lo más grave es que tenía que llevar a presupuestos de la Junta para 2023 partidas económicas que ya estaban acordadas con el presidente de la Junta y no sabemos si están o si les esperan», espetó Temprano en el programa televisivo.
@@ -8648,13 +8612,13 @@
         </is>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
+    <row r="319">
+      <c r="A319" t="inlineStr">
         <is>
           <t>https://diariodecastillayleon.elmundo.es/articulo/la-quinta-esquina/tenemos-que-desligar-imagen-rueda-como-vino-precio/20220317210319044129.html</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr">
+      <c r="B319" t="inlineStr">
         <is>
           <t>El nuevo presidente de la Denominación de Origen (DO) Rueda, la más antigua de Castilla y León, asegura que su designación responde a una «voluntad de continuidad» con las iniciativas que venía acometiendo el Consejo Regulador en el último mandato. Se trata de Carlos Yllera, que lleva el apellido de una de las bodegas más señeras del marchamo de calidad. Y es que «son las marcas las que aportan calidad y dan prestigio a la DO y las que deben apostar por iniciativas como la exportación», asegura.«Lo que puede hacer el Consejo Regulador es apoyar la venta de esos vinos».
 Así lo explicó ayer en el programa televisivo La Quinta Esquina de La 8 de Valladolid, EL MUNDO DE CASTILLA Y LEÓN y Castilla y León EsRadio, donde aseguró que es necesario «cambiar esa imagen de vino de bajo precio que tiene el de la DO Rueda, porque además no es cierto». Se trata de precios que realmente están bajos en el mercado «porque ahora está habiendo más oferta que demanda», pero que no se corresponden con la calidad real del producto. «Tenemos que buscar las dos vías: Rueda es una DO de un volumen importante y afortunadamente tenemos bodegas con marcas muy buenas. Estamos ganando muchos premios, con referencias que se han reconocido a nivel nacional e internacional», apuntó.
@@ -8669,21 +8633,21 @@
         </is>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>https://diariodecastillayleon.elmundo.es/album/castilla-y-leon/fotos-campeonato-espana-sumilleres-tierra-sabor/20230420193412069635.html</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr"/>
-    </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
+          <t>https://diariodecastillayleon.elmundo.es/album/castilla-y-leon/fotos-campeonato-espana-sumilleres-tierra-sabor/20230420193412069635.html</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
           <t>https://heraldodiariodesoria.elmundo.es/articulo/soria/decision-estrategica-prieto-ortego-que-apuntan-royo/20230420203208363862.html</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
+      <c r="B321" t="inlineStr">
         <is>
           <t>El presidente del PP de Soria, Benito Serrano, asegura que la decisión de que Laura Prieto, Marta Ortego y Alejandro Ramos no formen parte de la candidatura de Belén Izquierdo se debe a una decisión «estratégica» de la dirección provincial con el ánimo de reforzar otras candidaturas. En este caso, la previsión es que al menos Prieto forme parte de la candidatura de El Royo, de la que ya formó parte en el año 2019. Ortego también podría formar parte de esa candidatura.
 Este medio publicó el pasado miércoles, que la salida de Prieto, Ortego y Ramos –muy cercanos a expresidenta del PP, Yolanda de Gregorio– de la candidatura se había producido en cuestión de días de tal forma que formaban parte de la lista el jueves y el martes ya no.
@@ -8692,13 +8656,13 @@
         </is>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
+    <row r="322">
+      <c r="A322" t="inlineStr">
         <is>
           <t>https://heraldodiariodesoria.elmundo.es/articulo/animaladas/somos-perro-porque-admiten-mascotas/20230420192200363828.html</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B322" t="inlineStr">
         <is>
           <t>«Es algo que priorizo desde hace años, que admitan mascotas en la casa rural. Ahora ya bien, es algo que comienza a estar extendido, pero en más de un sitio me han dicho que no». José María viaja en verano y también en puentes largos y, salvo contadas veces, lo hace con su mascota, un golden retriever de pelo corto blanco. Por eso, a la hora de reservar prioriza que admitan perros. «Ahora ya no tengo que decir tanto ‘porque admiten mascotas, ¿no? Que a estas alturas no está más normalizado no me parece bien. Es algo respetable, pero si te paras a pensar, muchas veces mancha más un niño que un perro».
 Sin entrar en valoraciones, quizá exageradas, lo cierto es que la admisión de mascotas «es una de las cuestiones prioritarias que buscan los usuarios» en la mayoría de buscadores de casas rurales y otro tipo de establecimientos. Refiere esta circunstancia Beatriz Calavia, presidenta de Tursoria y miembro de la directiva de la Asociación Regional de Empresarios de Alojamientos Rurales de Castilla y León (Ararcyl), tras el recientemente celebrado Foro Interprovincial de Turismo Rural, en Valladolid: «Entre la selección del turista a la hora de moverse, entre lo que el cliente busca una de las prioridades es que admitan mascotas, según expuso Clubrural durante el foro», apunta Calavia.
@@ -8710,13 +8674,13 @@
         </is>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
+    <row r="323">
+      <c r="A323" t="inlineStr">
         <is>
           <t>https://heraldodiariodesoria.elmundo.es/articulo/soria/carreteras-da-plazo-3-anos-iniciar-tramos/20230419112120363667.html</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B323" t="inlineStr">
         <is>
           <t>La Dirección General de Carreteras, organismo dependiente del Ministerio de Transportes, Movilidad y Agenda Urbana (Mitma) contempla que en el plazo de tres años al menos hayan empezado las obras de tres tramos de autovía de la provincia de Soria. Se trata del Langa-Aranda de la A-11 y del Fuensaúco-Villar del Campo y Villar-Ágreda de la continuación de la A-15. Así figura en el anexo de un contrato para el asesoramiento y la coordinación en materia de seguridad y salud de las obras en la demarcación de Carreteras del Estado en Castilla y León oriental.
 El citado contrato será adjudicado en cuestión de días y su actuaciones están relacionadas «con todas las obras de construcción gestionadas por la demarcación y que precisen de asesoramiento y coordinación en materia de Seguridad y Salud durante la vigencia del contrato, pudiendo estar cada una de ellas en diferentes fases de avance». El plazo de ejecución del contrato es de 36 meses, es decir, 3 años.
@@ -8729,13 +8693,13 @@
         </is>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
+    <row r="324">
+      <c r="A324" t="inlineStr">
         <is>
           <t>https://heraldodiariodesoria.elmundo.es/articulo/deportes/impulso-salto-categoria/20230419173719363731.html</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B324" t="inlineStr">
         <is>
           <t xml:space="preserve">Después de una exitosa liga regular en el plano deportivo, el Sporting Club Voleibol Santo Domingo afronta el reto de elevar su listón competitivo, tanto en el equipo masculino como en el femenino, en las fases de ascenso a la Superliga 2, en el caso del conjunto de los chicos, como a la Primera División en el de las chicas. El Ayuntamiento de Soria anunció ayer, por mediación de su concejal de deportes, Manuel Salvador, una ayuda al club, que no había previsto la contingencia de acudir a la fase de promoción. Durante la presentación ayer en la sede del Consistorio soriano de las fases de ascenso, el concejal de deportes, que se encontró arropado por el entrenador del Moreno Sáez Sporting CV Soria, Álvaro Hernández, y de la jugadora del Santo Domingo Sporting, Vera Arlegui, adelantó la cifra de la ayuda, 3.000 euros, al margen del convenio de colaboración anual que asciende a 18.000 euros.
 El montante ayudará al desplazamiento hoy del equipo masculino hasta Molina de Segura (Murcia) y a la estancia de casi una veintena de efectivos durante tres días en la sede de la competición de la promoción de ascenso, aunque no cubrirán todos los gastos. El club decidirá cómo emplear esa ayuda y lo que derivará a cada uno de sus equipos puesto que la fase de promoción de las chicas todavía no conoce la sede ni los conjuntos inmersos en la lucha por elevar la categoría. Vera Arlegui fechó para finales de mayo la realización de esa fase a la que han accedido por finalizar en la segunda plaza de la liga regular en la Segunda división de Castilla y León. Dos equipos de todos los clasificados ascenderán a Primera. León ha pedido la sede para la fase final y Soria no descarta aún la posibilidad de organizarla.
@@ -8746,13 +8710,13 @@
         </is>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
+    <row r="325">
+      <c r="A325" t="inlineStr">
         <is>
           <t>https://heraldodiariodesoria.elmundo.es/album/provincia/fotos-jornada-convivencia-deporte-cras-soria/20230419190019363770.html</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B325" t="inlineStr">
         <is>
           <t>Alumnos de los colegios rurales de la provincia participan en Soria en una jornada en la que practican distintos deportes.
 Segundo año en el que se celebra esta jornada en la que participan los alumnos de infantil y primaria de:
@@ -8770,13 +8734,13 @@
         </is>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
+    <row r="326">
+      <c r="A326" t="inlineStr">
         <is>
           <t>https://heraldodiariodesoria.elmundo.es/album/provincia/fotos-jornada-convivencia-deporte-cras-soria/20230419190019363770.html#comentarios-363770</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B326" t="inlineStr">
         <is>
           <t>Alumnos de los colegios rurales de la provincia participan en Soria en una jornada en la que practican distintos deportes.
 Segundo año en el que se celebra esta jornada en la que participan los alumnos de infantil y primaria de:
@@ -8794,13 +8758,13 @@
         </is>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
+    <row r="327">
+      <c r="A327" t="inlineStr">
         <is>
           <t>https://heraldodiariodesoria.elmundo.es/articulo/provincia/juan-ramon-soria-pp-intentara-revalidar-alcaldia-vinuesa/20230419175820363732.html</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B327" t="inlineStr">
         <is>
           <t>Juan Ramón Soria, alcalde de Vinuesa desde las elecciones municipales de 2019, volverá a encabezar la lista del PP de Soria a la Alcaldía de la localidad pinariega. De esta forma, opta a desempeñar al menos un segundo mandato consecutivo bajo las siglas de los 'populares'.
 Las candidaturas para las Elecciones Municipales del 28 de mayo se van desgranando poco a poco y comienzan a confirmarse algunos de los protagonistas. En este caso la decisión viene a dar continuidad a uno de los cambios más sensibles en los últimos comicios. Soria debutó en las listas hace cuatro años y logró imponerse a un PSOE que había comandado el Ayuntamiento desde 2007.
@@ -8808,13 +8772,13 @@
         </is>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
+    <row r="328">
+      <c r="A328" t="inlineStr">
         <is>
           <t>https://heraldodiariodesoria.elmundo.es/articulo/provincia/juan-ramon-soria-pp-intentara-revalidar-alcaldia-vinuesa/20230419175820363732.html#comentarios-363732</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B328" t="inlineStr">
         <is>
           <t>Juan Ramón Soria, alcalde de Vinuesa desde las elecciones municipales de 2019, volverá a encabezar la lista del PP de Soria a la Alcaldía de la localidad pinariega. De esta forma, opta a desempeñar al menos un segundo mandato consecutivo bajo las siglas de los 'populares'.
 Las candidaturas para las Elecciones Municipales del 28 de mayo se van desgranando poco a poco y comienzan a confirmarse algunos de los protagonistas. En este caso la decisión viene a dar continuidad a uno de los cambios más sensibles en los últimos comicios. Soria debutó en las listas hace cuatro años y logró imponerse a un PSOE que había comandado el Ayuntamiento desde 2007.
@@ -8822,13 +8786,13 @@
         </is>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
+    <row r="329">
+      <c r="A329" t="inlineStr">
         <is>
           <t>https://heraldodiariodesoria.elmundo.es/articulo/castillayleon/198-kilometros-hora-positivo-droga-carnet/20230413141720362943.html</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="B329" t="inlineStr">
         <is>
           <t>Lo pararon por exceso de velocidad, dio positivo en drogas, el carnet de conducir no era válido por estar caducado y todo ello con un menor de edad viajando en los asientos de atrás. El suceso ocurrió en la provincia de Palencia.
 Agentes de la Guardia Civil del Subsector de Tráfico de Palencia detectaron el pasado 3 de abril a un vehículo que circulaba a 198 kilómetros por hora por la A-73, un tramo limitado a 100 kilómetros por hora al suprimirse uno de los dos carriles de la autovía en el enlace con la N-627. Además, dio positivo en drogas y poseía el permiso de conducir caducado, según fuentes del instituto armado, informa Ical.
@@ -8837,13 +8801,13 @@
         </is>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
+    <row r="330">
+      <c r="A330" t="inlineStr">
         <is>
           <t>https://heraldodiariodesoria.elmundo.es/video/soria/video-cotorra-dehesa-soria-video-dailymotion/20230421135025363930.html</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr">
+      <c r="B330" t="inlineStr">
         <is>
           <t>21 de abril de 2023, 13:50
 21 de abril de 2023, 13:50
@@ -8851,25 +8815,25 @@
         </is>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>https://heraldodiariodesoria.elmundo.es/video/provincia/mujeres-santa-maria-huerta-tejen-450-prendas-frio-guerra-ucrania-video-dailymotion/20230419120359363675.html</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>La solidaridad con el pueblo de Ucrania, envuelto en una guerra con Rusia, sigue llegando desde Soria. Esta vez un grupo de mujeres de Santa María de Huerta, algunas de ellas religiosas, tejió hasta 450 prendas de ropa para combatir el frío. Gorros bufandas o pequeños jerséis para los bebés fueron algunas de sus creaciones a base de lana, paciencia y amor. En este vídeo, las protagonistas de un calor humano tejido nudo a nudo.</t>
-        </is>
-      </c>
-    </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
+          <t>https://heraldodiariodesoria.elmundo.es/video/provincia/mujeres-santa-maria-huerta-tejen-450-prendas-frio-guerra-ucrania-video-dailymotion/20230419120359363675.html</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>La solidaridad con el pueblo de Ucrania, envuelto en una guerra con Rusia, sigue llegando desde Soria. Esta vez un grupo de mujeres de Santa María de Huerta, algunas de ellas religiosas, tejió hasta 450 prendas de ropa para combatir el frío. Gorros bufandas o pequeños jerséis para los bebés fueron algunas de sus creaciones a base de lana, paciencia y amor. En este vídeo, las protagonistas de un calor humano tejido nudo a nudo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
           <t>https://heraldodiariodesoria.elmundo.es/video/castillayleon/club-prensa-mundo-cyl-conversaciones-politicas-municipales-2023-jesus-julio-carnero-video-dailymotion/20230417175647363555.html</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>Conversaciones políticas con Jesús Julio Carnero, candidato del PP a la Alcaldía de Valladolid y Consejero de la Presidencia de la Junta de Castilla y León.
 Presenta: José María Eiros, director del Centro Nacional de la Gripe.
@@ -8878,37 +8842,37 @@
         </is>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>https://heraldodiariodesoria.elmundo.es/video/castillayleon/club-prensa-mundo-cyl-conversaciones-politicas-municipales-2023-jesus-julio-carnero/20230414150947363121.html</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>Conversaciones políticas con Jesús Julio Carnero, candidato del PP a la Alcaldía de Valladolid y Consejero de la Presidencia de la Junta de Castilla y León.</t>
-        </is>
-      </c>
-    </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>https://heraldodiariodesoria.elmundo.es/video/soria/caida-basura-espacial-video-dailymotion/20230402201200361494.html</t>
+          <t>https://heraldodiariodesoria.elmundo.es/video/castillayleon/club-prensa-mundo-cyl-conversaciones-politicas-municipales-2023-jesus-julio-carnero/20230414150947363121.html</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Vecinos de Burgos y de León alertan a Emergencias 112 de luces desintegrándose en el cielo.</t>
+          <t>Conversaciones políticas con Jesús Julio Carnero, candidato del PP a la Alcaldía de Valladolid y Consejero de la Presidencia de la Junta de Castilla y León.</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
+          <t>https://heraldodiariodesoria.elmundo.es/video/soria/caida-basura-espacial-video-dailymotion/20230402201200361494.html</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Vecinos de Burgos y de León alertan a Emergencias 112 de luces desintegrándose en el cielo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
           <t>https://heraldodiariodesoria.elmundo.es/album/soria/fotos-presentacion-concurso-croqueta/20230419200202363791.html</t>
         </is>
       </c>
-      <c r="B334" t="inlineStr">
+      <c r="B335" t="inlineStr">
         <is>
           <t>La croqueta protagoniza este final de mes en los 22 establecimientos participantes en Soria el VI Concurso Provincial de la Croqueta, que comienza este viernes y se prolongará hasta el 30 de abril.
 Más de 30.000 croquetas serán degustadas estos días por sorianos y visitantes en el certamen organizado por la Agrupación Soriana de Hostelería y turismo (Asohtur) con el objetivo de promocionar los productos sorianos dinamizando el consumo y ofreciendo al turismo un atractivo más en su estancia en la provincia.
@@ -8916,13 +8880,13 @@
         </is>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
+    <row r="336">
+      <c r="A336" t="inlineStr">
         <is>
           <t>https://heraldodiariodesoria.elmundo.es/articulo/innovadores/formacion-fronteras-linguistas/20230322204203359737.html</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
+      <c r="B336" t="inlineStr">
         <is>
           <t>La pandemia sanitaria por el Covid-19 puso de manifiesto muchas necesidades, sobre todo en la España Vaciada. Algunas de estas carencias se observaron en el campo de la formación lingüística, donde algunos colectivos tenían que salvar los obstáculos para acceder a conocimientos específicos y reducir así la brecha entre las industrias de la lengua y los conocimientos adquiridos.
 En este contexto, investigadores de la Facultad de Traducción e Interpretación de la Universidad de Valladolid en Soria plantearon la necesidad de ofrecer una formación accesible dirigida a profesionales de este sector, bien porque residen en zonas más despobladas, o bien porque tienen problemas de conciliación, pero también orientada a veteranos que necesitaban reciclarse.
